--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
     <definedName name="hoursbtwdoses">#REF!</definedName>
     <definedName name="lpkopo">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -123,12 +123,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>compilance : trying to find something increase compliance, a feeling certical for goal directed behaviors.
+Friority : feeling of being free of responsability unlike the truth &gt;&gt; your ability to feel under responsability, amygadal job
+habital: work/life balance, the idea started from voxel studio, after we seek him to lunch his game made as habit, to public,,, he removed the spontaneity charcter, which personally made me sick, how to stay in spontaneity of habital working when you work in public projects</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -209,13 +235,19 @@
   </si>
   <si>
     <t>drug</t>
+  </si>
+  <si>
+    <t>compilance, friority, habital</t>
+  </si>
+  <si>
+    <t>possiple API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +386,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1010,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1128,8 +1173,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="12" thickBot="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -1055,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>compilance : trying to find something increase compliance, a feeling certical for goal directed behaviors.
 Friority : feeling of being free of responsability unlike the truth &gt;&gt; your ability to feel under responsability, amygadal job
@@ -142,7 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -241,13 +241,22 @@
   </si>
   <si>
     <t>possiple API</t>
+  </si>
+  <si>
+    <t>vasicine</t>
+  </si>
+  <si>
+    <t>cognnitive fatigue (intial ↓, LT↓); physical flu symptom (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>shoronique dental-like pain (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,19 +395,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1053,10 +1049,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1181,6 +1177,22 @@
       </c>
       <c r="D14" s="4"/>
     </row>
+    <row r="15" spans="1:4" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection password="C5D0" sheet="1" formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -219,9 +219,6 @@
     <t>2.5% lidocaine+2.5% prilocain</t>
   </si>
   <si>
-    <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t>pesduehpedrine</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>shoronique dental-like pain (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑); REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1066,26 +1066,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12" thickBot="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.25" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" thickBot="1">
@@ -1170,19 +1170,19 @@
     </row>
     <row r="14" spans="1:4" ht="12" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" thickBot="1">
@@ -1190,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -168,88 +168,88 @@
     <t>domperidone</t>
   </si>
   <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>lamotrigine</t>
+  </si>
+  <si>
+    <t>possible: D2 (intial ↑);</t>
+  </si>
+  <si>
+    <t>carrot soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visual processing decleleration (intial ↑); </t>
+  </si>
+  <si>
+    <t>DXM</t>
+  </si>
+  <si>
+    <t>linking (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>prazepam</t>
+  </si>
+  <si>
+    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓);</t>
+  </si>
+  <si>
+    <t>BSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feeling sick (intial ↓) </t>
+  </si>
+  <si>
+    <t>aspegic</t>
+  </si>
+  <si>
+    <t>musk face(intial ↑); anxiety (intial↓); feeling cold &amp; heat(intial↓); motivation (intial ↑) ; feeling sick (intial ↓) ; unspeakable horror  intial ↑) ; head heavyness (intial ↑); enargy  (intial ↑); projected craving  (intial ↑); time on bed (intial ↓); benzo tolerance (intial↓);  risppiratory depression (intial ↑) ; alwaysOn3d (intial ↑); visual noise (intial ↑); mind alerted (intial ↑); bad emotion blunted (intial ↑); self-harm (intial ↑); violance(intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>2.5% lidocaine+2.5% prilocain</t>
+  </si>
+  <si>
+    <t>pesduehpedrine</t>
+  </si>
+  <si>
+    <t>sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>anafranil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavior  </t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>compilance, friority, habital</t>
+  </si>
+  <si>
+    <t>possiple API</t>
+  </si>
+  <si>
+    <t>vasicine</t>
+  </si>
+  <si>
+    <t>cognnitive fatigue (intial ↓, LT↓); physical flu symptom (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>shoronique dental-like pain (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑); REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
+  </si>
+  <si>
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
-me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓);</t>
-  </si>
-  <si>
-    <t>lavender</t>
-  </si>
-  <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>lamotrigine</t>
-  </si>
-  <si>
-    <t>possible: D2 (intial ↑);</t>
-  </si>
-  <si>
-    <t>carrot soap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visual processing decleleration (intial ↑); </t>
-  </si>
-  <si>
-    <t>DXM</t>
-  </si>
-  <si>
-    <t>linking (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>prazepam</t>
-  </si>
-  <si>
-    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓);</t>
-  </si>
-  <si>
-    <t>BSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feeling sick (intial ↓) </t>
-  </si>
-  <si>
-    <t>aspegic</t>
-  </si>
-  <si>
-    <t>musk face(intial ↑); anxiety (intial↓); feeling cold &amp; heat(intial↓); motivation (intial ↑) ; feeling sick (intial ↓) ; unspeakable horror  intial ↑) ; head heavyness (intial ↑); enargy  (intial ↑); projected craving  (intial ↑); time on bed (intial ↓); benzo tolerance (intial↓);  risppiratory depression (intial ↑) ; alwaysOn3d (intial ↑); visual noise (intial ↑); mind alerted (intial ↑); bad emotion blunted (intial ↑); self-harm (intial ↑); violance(intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>2.5% lidocaine+2.5% prilocain</t>
-  </si>
-  <si>
-    <t>pesduehpedrine</t>
-  </si>
-  <si>
-    <t>sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>anafranil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behavior  </t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>compilance, friority, habital</t>
-  </si>
-  <si>
-    <t>possiple API</t>
-  </si>
-  <si>
-    <t>vasicine</t>
-  </si>
-  <si>
-    <t>cognnitive fatigue (intial ↓, LT↓); physical flu symptom (intial ↓, LT↓);</t>
-  </si>
-  <si>
-    <t>shoronique dental-like pain (intial ↓, LT↓);</t>
-  </si>
-  <si>
-    <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑); REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
+me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1066,90 +1066,90 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.5" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1">
@@ -1170,27 +1170,27 @@
     </row>
     <row r="14" spans="1:4" ht="12" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -195,9 +195,6 @@
     <t>prazepam</t>
   </si>
   <si>
-    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓);</t>
-  </si>
-  <si>
     <t>BSO</t>
   </si>
   <si>
@@ -244,12 +241,15 @@
   </si>
   <si>
     <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑); REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑);</t>
   </si>
   <si>
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
-me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓);</t>
+me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth task switch ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1066,50 +1066,50 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" thickBot="1">
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="79.5" thickBot="1">
+    <row r="11" spans="1:4" ht="90.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1170,27 +1170,27 @@
     </row>
     <row r="14" spans="1:4" ht="12" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -119,7 +119,8 @@
           </rPr>
           <t xml:space="preserve">
 https://www.reddit.com/r/Nootropics/comments/3ps40c/comment/cw96q15/?utm_medium=android_app&amp;utm_source=share
-https://www.reddit.com/r/Nootropics/comments/imhdfx/comment/g4282ke/?utm_source=reddit&amp;utm_medium=web2x&amp;context=3</t>
+https://www.reddit.com/r/Nootropics/comments/imhdfx/comment/g4282ke/?utm_source=reddit&amp;utm_medium=web2x&amp;context=3
+smooth switch from task to other: you don't need pre declaration</t>
         </r>
       </text>
     </comment>
@@ -249,7 +250,7 @@
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
-me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth task switch ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑);</t>
+me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1053,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1144,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90.75" thickBot="1">
+    <row r="11" spans="1:4" ht="102" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -172,9 +172,6 @@
     <t>lavender</t>
   </si>
   <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t>lamotrigine</t>
   </si>
   <si>
@@ -250,7 +247,10 @@
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
-me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑);</t>
+me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑); organization (LT↑); mood lift (LT↑); food intake (LT↓);</t>
+  </si>
+  <si>
+    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); stress relief (LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1067,82 +1067,82 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="102" thickBot="1">
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1">
@@ -1171,27 +1171,27 @@
     </row>
     <row r="14" spans="1:4" ht="12" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -244,13 +244,13 @@
     <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑);</t>
   </si>
   <si>
+    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); stress relief (LT↑);</t>
+  </si>
+  <si>
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
-me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑); organization (LT↑); mood lift (LT↑); food intake (LT↓);</t>
-  </si>
-  <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); stress relief (LT↑);</t>
+me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑); organization (LT↑); mood lift (LT↑); food intake (LT↓); novelity (LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="102" thickBot="1">
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1">

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -251,6 +251,12 @@
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
 me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑); organization (LT↑); mood lift (LT↑); food intake (LT↓); novelity (LT↑);</t>
+  </si>
+  <si>
+    <t>rehdiola</t>
+  </si>
+  <si>
+    <t>visual HD (LT↑); distruction (LT↓); focus (LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1056,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1194,6 +1200,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="12" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection password="C5D0" sheet="1" formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -244,9 +244,6 @@
     <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑);</t>
   </si>
   <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); stress relief (LT↑);</t>
-  </si>
-  <si>
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>visual HD (LT↑); distruction (LT↓); focus (LT↑);</t>
+  </si>
+  <si>
+    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); stress relief (LT↑); optimism (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1143,12 +1143,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" thickBot="1">
+    <row r="10" spans="1:4" ht="68.25" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="102" thickBot="1">
@@ -1156,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1">
@@ -1202,10 +1202,10 @@
     </row>
     <row r="17" spans="1:2" ht="12" thickBot="1">
       <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -150,12 +150,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>phestress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -170,9 +192,6 @@
   </si>
   <si>
     <t>lavender</t>
-  </si>
-  <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑);</t>
   </si>
   <si>
     <t>lamotrigine</t>
@@ -251,13 +270,22 @@
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
 me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑);</t>
+  </si>
+  <si>
+    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity (intial ↑, LT↑); optimistic (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>rehdiola rosa</t>
+  </si>
+  <si>
+    <t>impulsivity (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +424,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1050,10 +1089,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1067,82 +1106,82 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57" thickBot="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="68.25" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="102" thickBot="1">
@@ -1150,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1">
@@ -1171,27 +1210,35 @@
     </row>
     <row r="14" spans="1:4" ht="12" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -42,6 +42,30 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">reviewing happen because longterm memory seeking recall time (intial ↑, LT↑); this causes plasticity wholesome (intial ↑, LT↑); </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -233,9 +257,6 @@
     <t>pesduehpedrine</t>
   </si>
   <si>
-    <t>sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t>anafranil</t>
   </si>
   <si>
@@ -261,9 +282,6 @@
   </si>
   <si>
     <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑); REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑);</t>
   </si>
   <si>
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
@@ -272,20 +290,26 @@
 me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓); clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑);</t>
   </si>
   <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity (intial ↑, LT↑); optimistic (intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t>rehdiola rosa</t>
   </si>
   <si>
     <t>impulsivity (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑); familiarity.seeking (intial ↑, LT↑); compilance (intial ↑, LT↑); enjoy.the.journey (intial ↑, LT↑); task.preparation (intial ↑, LT↑); Spontaneous thinking (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑); task.preparation (intial↓, LTl↓); sert.recreactional.directed.behaviors (intial ↑, LT↑); working memory preferance (intial↓, LTl↓); abstract memory preferance (intial ↑, LT↑);  longterm memory seeking recall time (intial ↑, LT↑); easeness (intial ↑, LT↑); plasticity wholesome (intial ↑, LT↑); Spontaneous thinking (intial↓, LTl↓); mood.indepandant.productivity (intial↓, LTl↓); hygiene (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +459,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1091,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1106,18 +1143,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12" thickBot="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1">
@@ -1125,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" thickBot="1">
@@ -1144,12 +1181,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12" thickBot="1">
+    <row r="6" spans="1:4" ht="34.5" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" thickBot="1">
@@ -1176,12 +1213,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="68.25" thickBot="1">
+    <row r="10" spans="1:4" ht="79.5" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="102" thickBot="1">
@@ -1189,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" thickBot="1">
@@ -1210,19 +1247,19 @@
     </row>
     <row r="14" spans="1:4" ht="12" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12" thickBot="1">
@@ -1230,15 +1267,15 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -302,7 +302,7 @@
     <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑);</t>
   </si>
   <si>
-    <t xml:space="preserve">sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑); task.preparation (intial↓, LTl↓); sert.recreactional.directed.behaviors (intial ↑, LT↑); working memory preferance (intial↓, LTl↓); abstract memory preferance (intial ↑, LT↑);  longterm memory seeking recall time (intial ↑, LT↑); easeness (intial ↑, LT↑); plasticity wholesome (intial ↑, LT↑); Spontaneous thinking (intial↓, LTl↓); mood.indepandant.productivity (intial↓, LTl↓); hygiene (intial ↑, LT↑); </t>
+    <t xml:space="preserve">sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑); task.preparation (intial↓, LTl↓); sert.recreactional.directed.behaviors (intial ↑, LT↑); working memory preferance (intial↓, LTl↓); abstract memory preferance (intial ↑, LT↑);  long-term memory seeking recall time (intial ↑, LT↑); easeness (intial ↑, LT↑); plasticity wholesome (intial ↑, LT↑); Spontaneous thinking (intial↓, LTl↓); mood.indepandant.productivity (intial↓, LTl↓); hygiene (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -98,6 +98,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">VITALITY: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>this state of aliveness brings a sense that one's actions have meaning and purpose.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0">
       <text>
         <r>
@@ -116,7 +139,8 @@
 acetylcholine-rebound: memory consdlation in sleep..dreams 
 BPD(intial↓, LTl↓): byproduct of uncare
 TaskMangamnet.switchifstuck : api usage started.
-copywriting: copying people messages and replaying in the same manner</t>
+copywriting: copying people messages and replaying in the same manner
+inforce.nano.data.usage: maximal resource usage</t>
         </r>
       </text>
     </comment>
@@ -201,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -296,13 +320,19 @@
     <t>impulsivity (intial ↓, LT↓);</t>
   </si>
   <si>
-    <t xml:space="preserve">contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑); familiarity.seeking (intial ↑, LT↑); compilance (intial ↑, LT↑); enjoy.the.journey (intial ↑, LT↑); task.preparation (intial ↑, LT↑); Spontaneous thinking (intial ↑, LT↑); </t>
-  </si>
-  <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t xml:space="preserve">sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑); task.preparation (intial↓, LTl↓); sert.recreactional.directed.behaviors (intial ↑, LT↑); working memory preferance (intial↓, LTl↓); abstract memory preferance (intial ↑, LT↑);  long-term memory seeking recall time (intial ↑, LT↑); easeness (intial ↑, LT↑); plasticity wholesome (intial ↑, LT↑); Spontaneous thinking (intial↓, LTl↓); mood.indepandant.productivity (intial↓, LTl↓); hygiene (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑); inforce.nano.data.usage (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑); familiarity.seeking (intial ↑, LT↑); compilance (intial ↑, LT↑); enjoy.the.journey (intial ↑, LT↑); task.preparation (intial ↑, LT↑); Spontaneous thinking (intial ↑, LT↑); trigger depandant change in emotional state  (intial ↑, LT↑); novelity.deficietant.induce.unproductivity (intial↓) VITALITY (LT↑);</t>
+  </si>
+  <si>
+    <t>magnesium</t>
+  </si>
+  <si>
+    <t>Procedural memory (intial ↑, LT↑); association.with.nicotine.smell (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1156,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1154,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1">
@@ -1181,12 +1211,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5" thickBot="1">
+    <row r="6" spans="1:4" ht="45.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" thickBot="1">
@@ -1276,6 +1306,14 @@
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="12" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Procedural memory (intial ↑, LT↑); association.with.nicotine.smell (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>rosmary oil</t>
+  </si>
+  <si>
+    <t>behavioral Confusion (intial ↑, LT↑); Procedural memory (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1162,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1316,6 +1322,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="12" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection password="C5D0" sheet="1" formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -172,7 +172,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>phestress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,28 +214,6 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>phestress</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -266,9 +266,6 @@
     <t>BSO</t>
   </si>
   <si>
-    <t xml:space="preserve">feeling sick (intial ↓) </t>
-  </si>
-  <si>
     <t>aspegic</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>drug</t>
   </si>
   <si>
-    <t>compilance, friority, habital</t>
-  </si>
-  <si>
     <t>possiple API</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
   </si>
   <si>
     <t>cognnitive fatigue (intial ↓, LT↓); physical flu symptom (intial ↓, LT↓);</t>
-  </si>
-  <si>
-    <t>shoronique dental-like pain (intial ↓, LT↓);</t>
   </si>
   <si>
     <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑); REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
@@ -339,6 +330,12 @@
   </si>
   <si>
     <t>behavioral Confusion (intial ↑, LT↑); Procedural memory (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>feeling sick (intial ↓); shoronique dental-like pain (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1159,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1177,55 +1174,55 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12" thickBot="1">
+    <row r="1" spans="1:2" ht="12" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="23.25" thickBot="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.25" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12" thickBot="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.75" thickBot="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12" thickBot="1">
+    <row r="8" spans="1:2" ht="12" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" thickBot="1">
+    <row r="9" spans="1:2" ht="12" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1249,23 +1246,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="79.5" thickBot="1">
+    <row r="10" spans="1:2" ht="79.5" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="102" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="102" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23.25" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12" thickBot="1">
+    <row r="13" spans="1:2" ht="12" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1281,54 +1278,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12" thickBot="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2" ht="12" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="12" thickBot="1">
+    </row>
+    <row r="15" spans="1:2" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12" thickBot="1">
-      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="12" thickBot="1">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="12" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <sheetProtection password="C5D0" sheet="1" formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -335,7 +335,7 @@
     <t>feeling sick (intial ↓); shoronique dental-like pain (intial ↓, LT↓);</t>
   </si>
   <si>
-    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑);</t>
+    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1310,7 +1310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12" thickBot="1">
+    <row r="18" spans="1:4" ht="23.25" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -810,7 +810,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -821,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1159,114 +1156,112 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12" thickBot="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57" thickBot="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45.75" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" thickBot="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="79.5" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="102" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1302,7 +1297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12" thickBot="1">
+    <row r="17" spans="1:2" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1310,14 +1305,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <sheetProtection password="C5D0" sheet="1" formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -202,6 +202,30 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://www.reddit.com/r/Nootropics/comments/qu4ias/anyone_here_take_high_doses_of_omega_3_epadha/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>compilance : trying to find something increase compliance, a feeling certical for goal directed behaviors.
@@ -225,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -336,6 +360,12 @@
   </si>
   <si>
     <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>omega 3</t>
+  </si>
+  <si>
+    <t>reddit: cognitive clarity (intial ↑); relaxant (intial ↑); DOMS (intial ↓); join and skin (intial ↑);</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1186,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1305,11 +1335,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" ht="12" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -226,6 +226,30 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>optimisim stay</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>compilance : trying to find something increase compliance, a feeling certical for goal directed behaviors.
@@ -249,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -359,13 +383,19 @@
     <t>feeling sick (intial ↓); shoronique dental-like pain (intial ↓, LT↓);</t>
   </si>
   <si>
-    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t>omega 3</t>
   </si>
   <si>
     <t>reddit: cognitive clarity (intial ↑); relaxant (intial ↑); DOMS (intial ↓); join and skin (intial ↑);</t>
+  </si>
+  <si>
+    <t>betahistine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>irriability (intial ↑, LT↑); multitasking (intial ↑, LT↑); resource allocation for each task (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↓, LT↓); histamine.mediated.novelity.seeking (intial ↑, LT↑); linking (intial ↓, LT↓); memory consolidation (intial ↓, LT↓); feeling/reality ration (intial ↓); histamine.mediated.novelity.seeking.long.travaling.journy (intial ↑, LT↑); risk-taking (intial ↑, LT↑); JIT-run-time (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1216,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1337,18 +1367,26 @@
     </row>
     <row r="18" spans="1:2" ht="12" thickBot="1">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="57" thickBot="1">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -194,6 +194,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stick.with.the.plan (intial ↓, LT↓); : because of engaging in more social activity which need to be acceptable with other people opinion in conv</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0">
       <text>
         <r>
@@ -362,9 +386,6 @@
     <t xml:space="preserve">sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑); task.preparation (intial↓, LTl↓); sert.recreactional.directed.behaviors (intial ↑, LT↑); working memory preferance (intial↓, LTl↓); abstract memory preferance (intial ↑, LT↑);  long-term memory seeking recall time (intial ↑, LT↑); easeness (intial ↑, LT↑); plasticity wholesome (intial ↑, LT↑); Spontaneous thinking (intial↓, LTl↓); mood.indepandant.productivity (intial↓, LTl↓); hygiene (intial ↑, LT↑); </t>
   </si>
   <si>
-    <t xml:space="preserve">uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑); inforce.nano.data.usage (intial ↑, LT↑); </t>
-  </si>
-  <si>
     <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓); PFC Bayesian inference (intial ↑); familiarity.seeking (intial ↑, LT↑); compilance (intial ↑, LT↑); enjoy.the.journey (intial ↑, LT↑); task.preparation (intial ↑, LT↑); Spontaneous thinking (intial ↑, LT↑); trigger depandant change in emotional state  (intial ↑, LT↑); novelity.deficietant.induce.unproductivity (intial↓) VITALITY (LT↑);</t>
   </si>
   <si>
@@ -377,9 +398,6 @@
     <t>rosmary oil</t>
   </si>
   <si>
-    <t>behavioral Confusion (intial ↑, LT↑); Procedural memory (intial ↓, LT↓);</t>
-  </si>
-  <si>
     <t>feeling sick (intial ↓); shoronique dental-like pain (intial ↓, LT↓);</t>
   </si>
   <si>
@@ -392,10 +410,16 @@
     <t>betahistine</t>
   </si>
   <si>
-    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑); </t>
-  </si>
-  <si>
     <t>irriability (intial ↑, LT↑); multitasking (intial ↑, LT↑); resource allocation for each task (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↓, LT↓); histamine.mediated.novelity.seeking (intial ↑, LT↑); linking (intial ↓, LT↓); memory consolidation (intial ↓, LT↓); feeling/reality ration (intial ↓); histamine.mediated.novelity.seeking.long.travaling.journy (intial ↑, LT↑); risk-taking (intial ↑, LT↑); JIT-run-time (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>behavioral Confusion (intial ↑, LT↑); Procedural memory (intial ↓, LT↓); detecting being attacked  (intial ↑, LT↑); stick.with.the.plan (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑); risk.margin.allocation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑); inforce.nano.data.usage (intial ↑, LT↑); sensivity (intial ↓, LT↓); boredom.induce.working.prioritiezing.results (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1266,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45.75" thickBot="1">
@@ -1274,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" thickBot="1">
@@ -1301,12 +1325,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="79.5" thickBot="1">
+    <row r="10" spans="1:2" ht="90.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="102" thickBot="1">
@@ -1351,34 +1375,34 @@
     </row>
     <row r="16" spans="1:2" ht="12" thickBot="1">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="12" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.25" thickBot="1">

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -404,9 +404,6 @@
     <t>omega 3</t>
   </si>
   <si>
-    <t>reddit: cognitive clarity (intial ↑); relaxant (intial ↑); DOMS (intial ↓); join and skin (intial ↑);</t>
-  </si>
-  <si>
     <t>betahistine</t>
   </si>
   <si>
@@ -419,7 +416,16 @@
     <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑); risk.margin.allocation (intial ↑, LT↑);</t>
   </si>
   <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑); inforce.nano.data.usage (intial ↑, LT↑); sensivity (intial ↓, LT↓); boredom.induce.working.prioritiezing.results (intial ↑, LT↑);</t>
+    <t xml:space="preserve">uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑); novelity (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑); inforce.nano.data.usage (intial ↑, LT↑); sensivity (intial ↓, LT↓); boredom.induce.working.prioritiezing.results (intial ↑, LT↑); energy.usage (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t>reddit: cognitive clarity (intial ↑); relaxant (intial ↑); DOMS (intial ↓); join and skin (intial ↑); memory.consolidation   (intial ↑, LT↑); creativity (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lidocaine</t>
+  </si>
+  <si>
+    <t>rectal: short-term.memory (intial ↓); hair itching (intial ↓, LT↓); Erection (intial ↑, LT↑); extravagance (intial ↑, LT↑); general nociception (intial ↓, LT↓); uncaring task cut-off (intial ↑, LT↑); psychlogical nociception (intial ↓, LT↓); challenging reward (intial ↑, LT↑); logical thinking (intial ↓, LT↓); feeling/reality (intial ↑, LT↑); simplicity preferance (intial ↑, LT↑); rectal muscle contraction (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1246,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1330,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="102" thickBot="1">
@@ -1386,31 +1392,39 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57" thickBot="1">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45.75" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
     <definedName name="hoursbtwdoses">#REF!</definedName>
     <definedName name="lpkopo">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,16 +34,22 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>completment of what psychnoutwiki does, [human API, hidden] for cosepted subjective effect</t>
+          <t xml:space="preserve">completment of what psychnoutwiki does, [human API, hidden] for cosepted subjective effect
+</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">reviewing happen because longterm memory seeking recall time (intial ↑, LT↑); this causes plasticity wholesome (intial ↑, LT↑); 
 </t>
         </r>
       </text>
@@ -92,7 +98,8 @@
 acetylcholine-rebound: memory consdlation in sleep..dreams 
 BPD(intial↓, LTl↓): byproduct of uncare
 TaskMangamnet.switchifstuck : api usage started.
-copywriting: copying people messages and replaying in the same manner</t>
+copywriting: copying people messages and replaying in the same manner
+inforce.nano.data.usage: maximal resource usage</t>
         </r>
       </text>
     </comment>
@@ -108,7 +115,24 @@
           </rPr>
           <t>https://www.erowid.org/experiences/exp.php?ID=108661
 https://www.erowid.org/experiences/exp.php?ID=66264
-https://www.erowid.org/experiences/exp.php?ID=55550</t>
+https://www.erowid.org/experiences/exp.php?ID=55550
+https://www.reddit.com/r/Nootropics/comments/3ps40c/comment/cw96q15/?utm_medium=android_app&amp;utm_source=share
+https://www.reddit.com/r/Nootropics/comments/imhdfx/comment/g4282ke/?utm_source=reddit&amp;utm_medium=web2x&amp;context=3
+smooth switch from task to other: you don't need pre declaration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>phestress</t>
         </r>
         <r>
           <rPr>
@@ -118,8 +142,81 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://www.reddit.com/r/Nootropics/comments/3ps40c/comment/cw96q15/?utm_medium=android_app&amp;utm_source=share
-https://www.reddit.com/r/Nootropics/comments/imhdfx/comment/g4282ke/?utm_source=reddit&amp;utm_medium=web2x&amp;context=3</t>
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.reddit.com/r/Nootropics/comments/qu4ias/anyone_here_take_high_doses_of_omega_3_epadha/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>optimisim stay</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>compilance : trying to find something increase compliance, a feeling certical for goal directed behaviors.
+Friority : feeling of being free of responsability unlike the truth &gt;&gt; your ability to feel under responsability, amygadal job
+habital: work/life balance, the idea started from voxel studio, after we seek him to lunch his game made as habit, to public,,, he removed the spontaneity charcter, which personally made me sick, how to stay in spontaneity of habital working when you work in public projects</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -128,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -140,75 +237,123 @@
   </si>
   <si>
     <t>domperidone</t>
+  </si>
+  <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>lamotrigine</t>
+  </si>
+  <si>
+    <t>possible: D2 (intial ↑);</t>
+  </si>
+  <si>
+    <t>carrot soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visual processing decleleration (intial ↑); </t>
+  </si>
+  <si>
+    <t>DXM</t>
+  </si>
+  <si>
+    <t>linking (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>prazepam</t>
+  </si>
+  <si>
+    <t>BSO</t>
+  </si>
+  <si>
+    <t>aspegic</t>
+  </si>
+  <si>
+    <t>musk face(intial ↑); anxiety (intial↓); feeling cold &amp; heat(intial↓); motivation (intial ↑) ; feeling sick (intial ↓) ; unspeakable horror  intial ↑) ; head heavyness (intial ↑); enargy  (intial ↑); projected craving  (intial ↑); time on bed (intial ↓); benzo tolerance (intial↓);  risppiratory depression (intial ↑) ; alwaysOn3d (intial ↑); visual noise (intial ↑); mind alerted (intial ↑); bad emotion blunted (intial ↑); self-harm (intial ↑); violance(intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>2.5% lidocaine+2.5% prilocain</t>
+  </si>
+  <si>
+    <t>pesduehpedrine</t>
+  </si>
+  <si>
+    <t>anafranil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavior  </t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>reward recognisation (intial ↓, LT↓); mania (intial ↓, LT↓); Spontaneous thinking (intial ↓, LT↓); archivment (intial ↓, LT↓); sleep (intial ↑, LT↑); big picture (intial ↓, LT↓); eror tolerance (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑);task.preparation (intial↓, LTl↓); sert.recreactional.directed.behaviors (intial ↑, LT↑); working memory preferance (intial↓, LTl↓); abstract memory preferance (intial ↑, LT↑);  long-term memory seeking recall time (intial ↑, LT↑); easeness (intial ↑, LT↑); plasticity wholesome (intial ↑, LT↑); Spontaneous thinking (intial↓, LTl↓); mood.indepandant.productivity (intial↓, LTl↓); hygiene (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑);REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>feeling sick (intial ↓); shoronique dental-like pain (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓);PFC Bayesian inference (intial ↑); familiarity.seeking (intial ↑, LT↑); compilance (intial ↑, LT↑); enjoy.the.journey (intial ↑, LT↑); task.preparation (intial ↑, LT↑); Spontaneous thinking (intial ↑, LT↑); trigger depandant change in emotional state  (intial ↑, LT↑); novelity.deficietant.induce.unproductivity (intial↓) VITALITY (LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑);novelity (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑); inforce.nano.data.usage (intial ↑, LT↑); </t>
   </si>
   <si>
     <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
 had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
 reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
-me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓);</t>
-  </si>
-  <si>
-    <t>lavender</t>
-  </si>
-  <si>
-    <t>uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>lamotrigine</t>
-  </si>
-  <si>
-    <t>possible: D2 (intial ↑);</t>
-  </si>
-  <si>
-    <t>carrot soap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visual processing decleleration (intial ↑); </t>
-  </si>
-  <si>
-    <t>DXM</t>
-  </si>
-  <si>
-    <t>linking (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>prazepam</t>
-  </si>
-  <si>
-    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓);</t>
-  </si>
-  <si>
-    <t>BSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feeling sick (intial ↓) </t>
-  </si>
-  <si>
-    <t>aspegic</t>
-  </si>
-  <si>
-    <t>musk face(intial ↑); anxiety (intial↓); feeling cold &amp; heat(intial↓); motivation (intial ↑) ; feeling sick (intial ↓) ; unspeakable horror  intial ↑) ; head heavyness (intial ↑); enargy  (intial ↑); projected craving  (intial ↑); time on bed (intial ↓); benzo tolerance (intial↓);  risppiratory depression (intial ↑) ; alwaysOn3d (intial ↑); visual noise (intial ↑); mind alerted (intial ↑); bad emotion blunted (intial ↑); self-harm (intial ↑); violance(intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>2.5% lidocaine+2.5% prilocain</t>
-  </si>
-  <si>
-    <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>pesduehpedrine</t>
-  </si>
-  <si>
-    <t>sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>anafranil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behavior  </t>
-  </si>
-  <si>
-    <t>drug</t>
+me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓);clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑);</t>
+  </si>
+  <si>
+    <t>vasicine</t>
+  </si>
+  <si>
+    <t>cognnitive fatigue (intial ↓, LT↓); physical flu symptom (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>rehdiola rosa</t>
+  </si>
+  <si>
+    <t>impulsivity (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>magnesium</t>
+  </si>
+  <si>
+    <t>Procedural memory (intial ↑, LT↑); association.with.nicotine.smell (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>rosmary oil</t>
+  </si>
+  <si>
+    <t>behavioral Confusion (intial ↑, LT↑); Procedural memory (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>omega 3</t>
+  </si>
+  <si>
+    <t>reddit: cognitive clarity (intial ↑); relaxant (intial ↑); DOMS (intial ↓); join and skin (intial ↑);</t>
+  </si>
+  <si>
+    <t>betahistine</t>
+  </si>
+  <si>
+    <t>irriability (intial ↑, LT↑); multitasking (intial ↑, LT↑); resource allocation for each task (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↓, LT↓); histamine.mediated.novelity.seeking (intial ↑, LT↑); linking (intial ↓, LT↓); memory consolidation (intial ↓, LT↓); feeling/reality ration (intial ↓); histamine.mediated.novelity.seeking.long.travaling.journy (intial ↑, LT↑); risk-taking (intial ↑, LT↑); JIT-run-time (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>possiple API</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
@@ -659,7 +804,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -670,9 +815,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1008,10 +1150,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1023,103 +1165,103 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="12" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12" thickBot="1">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12" thickBot="1">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="12" thickBot="1">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" thickBot="1">
-      <c r="A9" s="6" t="s">
+    <row r="8" spans="1:2" ht="12" thickBot="1">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" thickBot="1">
-      <c r="A10" s="6" t="s">
+    <row r="9" spans="1:2" ht="12" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="79.5" thickBot="1">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:2" ht="79.5" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="102" thickBot="1">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12" thickBot="1">
+    <row r="13" spans="1:2" ht="12" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1127,10 +1269,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12" thickBot="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="4"/>
+    <row r="14" spans="1:2" ht="12" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="12" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="57" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.25" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection password="C5D0" sheet="1" formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,14 +47,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reviewing happen because longterm memory seeking recall time (intial ↑, LT↑); this causes plasticity wholesome (intial ↑, LT↑); 
-</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">reviewing happen because longterm memory seeking recall time (intial ↑, LT↑); this causes plasticity wholesome (intial ↑, LT↑); </t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,25 +61,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>alwaysOn3d:
-watched sex video, the girl look like it near me really. 3d objective</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>watched sex video, the girl look like it near me really. 3d objective</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-visual noise: was artane-like
-violance: none beatable in fight</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,22 +85,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>uncare: lamotrigine anxiolytic effect is the uncaring feeling when you normally have flu, it was solving a lot of problems in one bench (even if its anti mania sick feeling)
-impulsivity: the  reducing is because the flu
-attention span: meant I can think clear for long in a problem, even if I don't react to it right now
-nicotine-intake: was the most consumbtion decresing
-on-the-flow: life style like naps-instead-of-sleep
-acetylcholine-rebound: memory consdlation in sleep..dreams 
-BPD(intial↓, LTl↓): byproduct of uncare
-TaskMangamnet.switchifstuck : api usage started.
-copywriting: copying people messages and replaying in the same manner
-inforce.nano.data.usage: maximal resource usage</t>
+            <charset val="1"/>
+          </rPr>
+          <t>was artane-like</t>
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="D10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,18 +99,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>https://www.erowid.org/experiences/exp.php?ID=108661
-https://www.erowid.org/experiences/exp.php?ID=66264
-https://www.erowid.org/experiences/exp.php?ID=55550
-https://www.reddit.com/r/Nootropics/comments/3ps40c/comment/cw96q15/?utm_medium=android_app&amp;utm_source=share
-https://www.reddit.com/r/Nootropics/comments/imhdfx/comment/g4282ke/?utm_source=reddit&amp;utm_medium=web2x&amp;context=3
-smooth switch from task to other: you don't need pre declaration</t>
+            <charset val="1"/>
+          </rPr>
+          <t>none beatable in fight</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,23 +123,37 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>phestress</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>you feel avers from things that huted you psychologically before like stacked programming project, this cause amygadal.mediated.novelity.seeking (intial ↑, LT↑); but there is no optimism part like in lamo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aversion part&gt;&gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,23 +161,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>https://www.reddit.com/r/Nootropics/comments/qu4ias/anyone_here_take_high_doses_of_omega_3_epadha/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>found my tiddie, my old PTSD mediated subjective effect</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,19 +185,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>the real acculvnet : work as fast as possible, by ignoring things that slow the work by sort</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>optimisim stay</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>trying to find something increase compliance, a feeling certical for goal directed behaviors.</t>
         </r>
       </text>
     </comment>
@@ -204,9 +215,167 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>compilance : trying to find something increase compliance, a feeling certical for goal directed behaviors.
-Friority : feeling of being free of responsability unlike the truth &gt;&gt; your ability to feel under responsability, amygadal job
-habital: work/life balance, the idea started from voxel studio, after we seek him to lunch his game made as habit, to public,,, he removed the spontaneity charcter, which personally made me sick, how to stay in spontaneity of habital working when you work in public projects</t>
+          <t xml:space="preserve"> lamotrigine anxiolytic effect is the uncaring feeling when you normally have flu, it was solving a lot of problems in one bench (even if its anti mania sick feeling)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the  reducing is because the flu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>meant I can think clear for long in a problem, even if I don't react to it right now</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> was the most consumbtion decresing
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>BPD(intial↓, LTl↓): byproduct of uncare</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">memory consdlation in sleep..dreams </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> life style like naps-instead-of-sleep</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>api usage started.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">copying people messages and replaying in the same manner
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>maximal resource usage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://www.erowid.org/experiences/exp.php?ID=108661
+https://www.erowid.org/experiences/exp.php?ID=66264
+https://www.erowid.org/experiences/exp.php?ID=55550
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.reddit.com/r/Nootropics/comments/3ps40c/comment/cw96q15/?utm_medium=android_app&amp;utm_source=share
+https://www.reddit.com/r/Nootropics/comments/imhdfx/comment/g4282ke/?utm_source=reddit&amp;utm_medium=web2x&amp;context=3</t>
         </r>
         <r>
           <rPr>
@@ -217,6 +386,113 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>you don't need pre declaration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>phestress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://www.reddit.com/r/Nootropics/comments/qu4ias/anyone_here_take_high_doses_of_omega_3_epadha/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">optimisim stay
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">habital: work/life balance, the idea started from voxel studio, after we seek him to lunch his game made as habit, to public,,, he removed the spontaneity charcter, which personally made me sick, how to stay in spontaneity of habital working when you work in public projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>feeling of being free of responsability unlike the truth &gt;&gt; your ability to feel under responsability, amygadal job</t>
         </r>
       </text>
     </comment>
@@ -225,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -233,9 +509,6 @@
     <t>risperidone</t>
   </si>
   <si>
-    <t>working memory(intial ↑);  serioceness (intial ↑); mood (intial ↑); pshycial strienth (intial ↑); productivity.UsePhoneUnderBed (intial ↑);</t>
-  </si>
-  <si>
     <t>domperidone</t>
   </si>
   <si>
@@ -269,9 +542,6 @@
     <t>aspegic</t>
   </si>
   <si>
-    <t>musk face(intial ↑); anxiety (intial↓); feeling cold &amp; heat(intial↓); motivation (intial ↑) ; feeling sick (intial ↓) ; unspeakable horror  intial ↑) ; head heavyness (intial ↑); enargy  (intial ↑); projected craving  (intial ↑); time on bed (intial ↓); benzo tolerance (intial↓);  risppiratory depression (intial ↑) ; alwaysOn3d (intial ↑); visual noise (intial ↑); mind alerted (intial ↑); bad emotion blunted (intial ↑); self-harm (intial ↑); violance(intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t>2.5% lidocaine+2.5% prilocain</t>
   </si>
   <si>
@@ -290,36 +560,9 @@
     <t>D3</t>
   </si>
   <si>
-    <t>reward recognisation (intial ↓, LT↓); mania (intial ↓, LT↓); Spontaneous thinking (intial ↓, LT↓); archivment (intial ↓, LT↓); sleep (intial ↑, LT↑); big picture (intial ↓, LT↓); eror tolerance (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep (intial↓, LT↑); recreactional activity (intial ↑, LT↑);task.preparation (intial↓, LTl↓); sert.recreactional.directed.behaviors (intial ↑, LT↑); working memory preferance (intial↓, LTl↓); abstract memory preferance (intial ↑, LT↑);  long-term memory seeking recall time (intial ↑, LT↑); easeness (intial ↑, LT↑); plasticity wholesome (intial ↑, LT↑); Spontaneous thinking (intial↓, LTl↓); mood.indepandant.productivity (intial↓, LTl↓); hygiene (intial ↑, LT↑); </t>
-  </si>
-  <si>
-    <t>sleep (intial ↑, LT↑); excited  (intial ↑, LT↑); nocturnal hyperhidrosis (intial ↑, LT↑);REM.cognitive.recover (intial↓, LT↓); restlessness (LT↑); body high (intial ↑, LT↑);</t>
-  </si>
-  <si>
-    <t>feeling sick (intial ↓); shoronique dental-like pain (intial ↓, LT↓);</t>
-  </si>
-  <si>
-    <t>contentment (intial ↑); goal directed behavior (intial ↑); curiusity (intial↓);PFC Bayesian inference (intial ↑); familiarity.seeking (intial ↑, LT↑); compilance (intial ↑, LT↑); enjoy.the.journey (intial ↑, LT↑); task.preparation (intial ↑, LT↑); Spontaneous thinking (intial ↑, LT↑); trigger depandant change in emotional state  (intial ↑, LT↑); novelity.deficietant.induce.unproductivity (intial↓) VITALITY (LT↑);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncare (intial ↑, LT↑); impulsivity (intial↓, LTl↓); attention span (intial ↑, LT↑); fake happyness (intial ↑, LT↑); satability (intial ↑, LT↑); goal directed behaviors (intial ↑, LT↑); charm (intial ↑, LT↑); mania (intial↓, LTl↓); procrastination (intial ↑, LT↑); nicotine-intake(intial↓, LTl↓); BPD(intial↓, LTl↓); acetylcholine-rebound(intial ↑, LT↑); on-the-flow(intial ↑, LT↑); TaskMangamnet.switchifstuck (intial ↑, LT↑); look sick (intial ↑, LT↑); linking (intial ↑, LT↑); productivity.multitasking (LT↑); copywriting (intial ↑, LT↑);novelity (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↑, LT↑); optimistic (intial ↑, LT↑); disinhibition (intial ↑, LT↑); mood.indepandant.productivity (intial ↑, LT↑); inforce.nano.data.usage (intial ↑, LT↑); </t>
-  </si>
-  <si>
-    <t>erowid keywords: calmer (intial 3↑); general sense of relaxation (intial 2↑); refreshing nap (intial 1↑); collected (intial 1↑); relaxed (intial 2↑); High, less stressed, peace, comfortable, relaxed and awake
-had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.
-reddit keywords: gynecomastia (intial 2↑); collected (intial 1↑);
-me: general sense of relaxation (intial ↑); refreshing nap (intial ↑); gynecomastia (intial ↑); short physical reactions (intial ↑); feeling cold (intial↓);clogged nose (intial ↓, LT↓); trust (LT↑); cuteness ( LT↑); smooth switch from task to other ( LT↑); urge to argue ( LT↓); sane (LT↑); working memory (LT↑); smellability (LT↑);</t>
-  </si>
-  <si>
     <t>vasicine</t>
   </si>
   <si>
-    <t>cognnitive fatigue (intial ↓, LT↓); physical flu symptom (intial ↓, LT↓);</t>
-  </si>
-  <si>
     <t>rehdiola rosa</t>
   </si>
   <si>
@@ -329,38 +572,480 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>Procedural memory (intial ↑, LT↑); association.with.nicotine.smell (intial ↓, LT↓);</t>
-  </si>
-  <si>
     <t>rosmary oil</t>
   </si>
   <si>
-    <t>behavioral Confusion (intial ↑, LT↑); Procedural memory (intial ↓, LT↓);</t>
-  </si>
-  <si>
     <t>omega 3</t>
   </si>
   <si>
-    <t>reddit: cognitive clarity (intial ↑); relaxant (intial ↑); DOMS (intial ↓); join and skin (intial ↑);</t>
-  </si>
-  <si>
     <t>betahistine</t>
   </si>
   <si>
-    <t>irriability (intial ↑, LT↑); multitasking (intial ↑, LT↑); resource allocation for each task (intial ↑, LT↑); amygadal.mediated.novelity.seeking (intial ↓, LT↓); histamine.mediated.novelity.seeking (intial ↑, LT↑); linking (intial ↓, LT↓); memory consolidation (intial ↓, LT↓); feeling/reality ration (intial ↓); histamine.mediated.novelity.seeking.long.travaling.journy (intial ↑, LT↑); risk-taking (intial ↑, LT↑); JIT-run-time (intial ↑, LT↑);</t>
-  </si>
-  <si>
     <t>possiple API</t>
   </si>
   <si>
-    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓); locomotion.anxiety (intial ↓, LT↓); interest.span (intial ↑, LT↑); opertonity catching (intial ↑, LT↑); </t>
+    <t>citrizine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep (intial↓, LT↑); </t>
+  </si>
+  <si>
+    <t>recreactional activity (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task.preparation (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t>sert.recreactional.directed.behaviors (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working memory preferance (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abstract memory preferance (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> long-term memory seeking recall time (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> easeness (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>plasticity wholesome (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spontaneous thinking (intial↓, LTl↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mood.indepandant.productivity (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hygiene (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>sleep (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> excited  (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>nocturnal hyperhidrosis (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REM.cognitive.recover (intial↓, LT↓); </t>
+  </si>
+  <si>
+    <t>restlessness (LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> body high (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musk face(intial ↑); </t>
+  </si>
+  <si>
+    <t>anxiety (intial↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> feeling cold &amp; heat(intial↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motivation (intial ↑) ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feeling sick (intial ↓) ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unspeakable horror  intial ↑) ; </t>
+  </si>
+  <si>
+    <t>head heavyness (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enargy  (intial ↑); </t>
+  </si>
+  <si>
+    <t>projected craving  (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time on bed (intial ↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">benzo tolerance (intial↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> risppiratory depression (intial ↑) ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alwaysOn3d (intial ↑); </t>
+  </si>
+  <si>
+    <t>visual noise (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mind alerted (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bad emotion blunted (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> self-harm (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">violance(intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">food taste good (intial↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aversion (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">addiction (intial↓); </t>
+  </si>
+  <si>
+    <t>going outta home (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amygadal.mediated.novelity.seeking (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dioptimism personality (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dioptimism facial expression (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensivity (intial↓, LTl↓);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enchached placticiity of aversion from bad stimilu (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>vaerbaly express aversion induce going outta sigma male (intial ↑);</t>
+  </si>
+  <si>
+    <t>feeling sick (intial ↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shoronique dental-like pain (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>contentment (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> goal directed behavior (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> curiusity (intial↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFC Bayesian inference (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiarity.seeking (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compilance (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>enjoy.the.journey (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task.preparation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spontaneous thinking (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trigger depandant change in emotional state  (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> novelity.deficietant.induce.unproductivity (intial↓)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VITALITY (LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncare (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">impulsivity (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attention span (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake happyness (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">satability (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal directed behaviors (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">charm (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mania (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t>procrastination (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nicotine-intake(intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPD(intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acetylcholine-rebound(intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>on-the-flow(intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TaskMangamnet.switchifstuck (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">look sick (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> productivity.multitasking (LT↑); </t>
+  </si>
+  <si>
+    <t>copywriting (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novelity (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>amygadal.mediated.novelity.seeking (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> optimistic (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">disinhibition (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>mood.indepandant.productivity (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inforce.nano.data.usage (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erowid keywords: calmer (intial 3↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">general sense of relaxation (intial 2↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refreshing nap (intial 1↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected (intial 1↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">relaxed (intial 2↑); </t>
+  </si>
+  <si>
+    <t>High, less stressed, peace, comfortable, relaxed and awake
+had a definite tendency to smile more, and my lungs and sinuses felt very clear and open.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reddit keywords: gynecomastia (intial 2↑); </t>
+  </si>
+  <si>
+    <t>collected (intial 1↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me: general sense of relaxation (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refreshing nap (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gynecomastia (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">short physical reactions (intial ↑); </t>
+  </si>
+  <si>
+    <t>feeling cold (intial↓);</t>
+  </si>
+  <si>
+    <t>clogged nose (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trust (LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuteness ( LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">smooth switch from task to other ( LT↑); </t>
+  </si>
+  <si>
+    <t>urge to argue ( LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sane (LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">working memory (LT↑); </t>
+  </si>
+  <si>
+    <t>smellability (LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working memory(intial ↑);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serioceness (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mood (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pshycial strienth (intial ↑); </t>
+  </si>
+  <si>
+    <t>productivity.UsePhoneUnderBed (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cognnitive fatigue (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>physical flu symptom (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>Procedural memory (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> association.with.nicotine.smell (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>behavioral Confusion (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Procedural memory (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>reddit: cognitive clarity (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relaxant (intial ↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMS (intial ↓); </t>
+  </si>
+  <si>
+    <t>join and skin (intial ↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irriability (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">multitasking (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource allocation for each task (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>amygadal.mediated.novelity.seeking (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> histamine.mediated.novelity.seeking (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linking (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory consolidation (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feeling/reality ration (intial ↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">histamine.mediated.novelity.seeking.long.travaling.journy (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk-taking (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>JIT-run-time (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward recognisation (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>mania (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spontaneous thinking (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">archivment (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">big picture (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>eror tolerance (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> friority, needed: sensivity (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> locomotion.anxiety (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interest.span (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>opertonity catching (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linking (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wakefullness (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heavy eyes (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diazpam-like instant sleep (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor skills (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>resource.consentration (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logic rapeing (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">big picture (intial ↓, LT↓); no effect on optamism, like optamism there ,disoptamism induce breaking rules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale-as-fast-as-possible (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +1185,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -567,7 +1270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -739,8 +1442,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -803,34 +1701,130 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="addictive" xfId="3"/>
     <cellStyle name="black red" xfId="4"/>
     <cellStyle name="blue" xfId="5"/>
@@ -852,6 +1846,7 @@
     <cellStyle name="Output 4" xfId="18"/>
     <cellStyle name="Output 5" xfId="19"/>
     <cellStyle name="red" xfId="20"/>
+    <cellStyle name="Style 1" xfId="25"/>
     <cellStyle name="Style 2" xfId="21"/>
     <cellStyle name="Style 3" xfId="22"/>
     <cellStyle name="top boarder" xfId="23"/>
@@ -1150,191 +2145,771 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="76.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="57" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="57" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12" thickBot="1">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45.75" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12" thickBot="1">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="12" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="12" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="79.5" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="102" thickBot="1">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B43" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A44" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="12" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="12" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="12" thickBot="1">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12" thickBot="1">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="57" thickBot="1">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.25" thickBot="1">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B44" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection password="C5D0" sheet="1" formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A21:A25"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>
   </hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1039,6 +1039,9 @@
   </si>
   <si>
     <t xml:space="preserve">scale-as-fast-as-possible (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>deprecating.projects (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1767,6 +1770,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1779,6 +1790,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1789,38 +1824,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2147,8 +2150,8 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2168,16 +2171,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2215,7 +2218,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2229,7 +2232,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2249,7 +2252,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2259,7 +2262,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2279,7 +2282,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2297,7 +2300,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2315,7 +2318,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2333,7 +2336,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2354,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
@@ -2369,14 +2372,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="s">
@@ -2393,7 +2398,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2413,7 +2418,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
@@ -2431,7 +2436,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
@@ -2479,7 +2484,7 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2499,7 +2504,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
@@ -2517,7 +2522,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
         <v>99</v>
       </c>
@@ -2535,7 +2540,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2558,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="3" t="s">
         <v>108</v>
       </c>
@@ -2569,7 +2574,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2589,7 +2594,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="14" t="s">
         <v>117</v>
       </c>
@@ -2607,7 +2612,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="3" t="s">
         <v>122</v>
       </c>
@@ -2625,7 +2630,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="3" t="s">
         <v>127</v>
       </c>
@@ -2643,7 +2648,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="3" t="s">
         <v>132</v>
       </c>
@@ -2757,7 +2762,7 @@
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2777,7 +2782,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="17"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="3" t="s">
         <v>153</v>
       </c>
@@ -2795,7 +2800,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="3" t="s">
         <v>158</v>
       </c>
@@ -2805,7 +2810,7 @@
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2825,7 +2830,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="18"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="3" t="s">
         <v>164</v>
       </c>
@@ -2855,7 +2860,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -2875,7 +2880,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="3" t="s">
         <v>175</v>
       </c>
@@ -2899,16 +2904,16 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A21:A25"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -355,6 +355,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>week to 2023-21-7
+not have much eneargy to think about spread buying or super cleanness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">https://www.erowid.org/experiences/exp.php?ID=108661
@@ -364,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="C28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,23 +446,47 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>phestress</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>the same as stability in old alertgene version</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="A36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>phestress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +501,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="B40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>In the long run omega 3 make going against logic harder, because aknowleagmen of cognitive clarity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,6 +566,30 @@
             <family val="2"/>
           </rPr>
           <t>feeling of being free of responsability unlike the truth &gt;&gt; your ability to feel under responsability, amygadal job</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kor opiates receptors gives this, tested by lidocaine induce kor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -501,7 +598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1042,6 +1139,48 @@
   </si>
   <si>
     <t>deprecating.projects (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>plasticity wholesome(intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feeling/reality ration  (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>see what things are consolidated (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>D2disabed (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>feeling attacked (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>seeking understandment (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>KOR.downstreamed.romatic.attacment (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>small.steps.preferance.for.continuous.rewarding (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>neck relaxtion (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>luxury (intial↓, LTl↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEV (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>situation purpose drug intake (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>logic wall (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>music enjoyment (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1640,6 +1779,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1709,7 +1859,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1766,15 +1916,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1814,16 +1984,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2148,10 +2318,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2161,7 +2331,7 @@
     <col min="3" max="3" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" style="1" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="76.5703125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
@@ -2171,16 +2341,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2200,7 +2370,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2218,7 +2388,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2402,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2252,7 +2422,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2432,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2282,7 +2452,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2300,7 +2470,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2318,7 +2488,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2336,7 +2506,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2354,7 +2524,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
@@ -2372,16 +2542,18 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="s">
@@ -2398,7 +2570,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2418,7 +2590,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
@@ -2436,7 +2608,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
@@ -2484,7 +2656,7 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2504,7 +2676,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
@@ -2522,7 +2694,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="3" t="s">
         <v>99</v>
       </c>
@@ -2540,7 +2712,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2558,7 +2730,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="3" t="s">
         <v>108</v>
       </c>
@@ -2571,144 +2743,144 @@
       <c r="E25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="18" t="s">
+      <c r="F25" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A27" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="14" t="s">
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A31" s="4" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A32" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="11"/>
-    </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A33" s="25"/>
       <c r="B33" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>139</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="6" t="s">
-        <v>20</v>
+      <c r="A34" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2717,13 +2889,13 @@
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A35" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2731,184 +2903,240 @@
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A36" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>143</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A39" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A38" s="18" t="s">
+      <c r="F39" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A40" s="34"/>
+      <c r="B40" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A41" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="3" t="s">
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="3" t="s">
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="3" t="s">
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="25"/>
+      <c r="B45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="6" t="s">
+      <c r="D45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A46" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A48" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B48" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C48" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D48" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E48" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F48" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="11.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="10">
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A42"/>
+  <mergeCells count="13">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A21:A26"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -540,7 +540,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0">
+    <comment ref="C46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fixed from (intial ↓, LT↓);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>seems h- increase cuteness by blocking impulsivity (and agression?) of histamine</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
+    <comment ref="B50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0">
+    <comment ref="F50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1081,9 +1119,6 @@
     <t xml:space="preserve">reward recognisation (intial ↓, LT↓); </t>
   </si>
   <si>
-    <t>mania (intial ↓, LT↓);</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Spontaneous thinking (intial ↓, LT↓); </t>
   </si>
   <si>
@@ -1181,6 +1216,51 @@
   </si>
   <si>
     <t>music enjoyment (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>mania (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processing accuracy (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy dedication (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>time criticality (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>organization (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> optimism (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>tendcy to multi tasking (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environment usage as variable (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">preferance fastest route to end job (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">novelity to test things first and see (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exciting (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">music enjoyment (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>panic (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>empathy and serotonine mediated signaling (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spontaneous thinking (intial ↑, LT↑);  </t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1779,17 +1859,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA2A9B1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA2A9B1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1859,7 +1928,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1932,19 +2001,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1952,12 +2026,44 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1969,30 +2075,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2318,10 +2400,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2341,16 +2423,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2370,7 +2452,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2388,7 +2470,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2484,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2422,7 +2504,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2432,7 +2514,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2452,7 +2534,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2470,7 +2552,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2488,7 +2570,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2506,7 +2588,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2524,7 +2606,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
@@ -2535,22 +2617,22 @@
         <v>74</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="15" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
@@ -2570,7 +2652,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2590,7 +2672,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
@@ -2608,7 +2690,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
@@ -2656,10 +2738,10 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="21" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2671,19 +2753,19 @@
       <c r="E21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -2694,8 +2776,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2704,7 +2786,7 @@
       <c r="D23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="21" t="s">
         <v>102</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -2712,57 +2794,61 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>187</v>
+      <c r="F25" s="21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="19"/>
+      <c r="E26" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2782,7 +2868,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="14" t="s">
         <v>117</v>
       </c>
@@ -2800,7 +2886,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="3" t="s">
         <v>122</v>
       </c>
@@ -2818,7 +2904,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="24"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="3" t="s">
         <v>127</v>
       </c>
@@ -2836,7 +2922,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3" t="s">
         <v>132</v>
       </c>
@@ -2846,7 +2932,7 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2866,9 +2952,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2942,7 +3028,7 @@
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2958,13 +3044,13 @@
         <v>147</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2972,7 +3058,7 @@
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2992,7 +3078,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="3" t="s">
         <v>153</v>
       </c>
@@ -3009,139 +3095,183 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A43" s="31"/>
       <c r="B43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="12"/>
+      <c r="C43" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A46" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B46" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C46" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="11" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A47" s="26"/>
+      <c r="B47" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A48" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A49" s="26"/>
+      <c r="B49" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="C50" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="11.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="17" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="11.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1261,6 +1261,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Spontaneous thinking (intial ↑, LT↑);  </t>
+  </si>
+  <si>
+    <t>histamine rich triggering (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSO mode (intial ↑);  </t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2024,15 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2026,12 +2040,40 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2039,42 +2081,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2402,8 +2408,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2423,16 +2429,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2452,7 +2458,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2470,7 +2476,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2484,7 +2490,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2504,7 +2510,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2514,7 +2520,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2534,7 +2540,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2552,7 +2558,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2570,7 +2576,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2588,7 +2594,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2606,7 +2612,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
@@ -2624,7 +2630,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="15" t="s">
         <v>177</v>
       </c>
@@ -2652,7 +2658,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2672,7 +2678,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
@@ -2690,14 +2696,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="26"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="12"/>
     </row>
@@ -2738,7 +2746,7 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -2758,7 +2766,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
@@ -2776,7 +2784,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="21" t="s">
         <v>99</v>
       </c>
@@ -2794,7 +2802,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -2812,7 +2820,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="21" t="s">
         <v>108</v>
       </c>
@@ -2830,7 +2838,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="20" t="s">
         <v>188</v>
       </c>
@@ -2848,7 +2856,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2868,7 +2876,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="14" t="s">
         <v>117</v>
       </c>
@@ -2886,7 +2894,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="3" t="s">
         <v>122</v>
       </c>
@@ -2904,7 +2912,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="3" t="s">
         <v>127</v>
       </c>
@@ -2922,7 +2930,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="3" t="s">
         <v>132</v>
       </c>
@@ -2932,7 +2940,7 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2952,7 +2960,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="26"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="8" t="s">
         <v>182</v>
       </c>
@@ -2968,7 +2976,9 @@
       <c r="B34" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="11"/>
@@ -3028,7 +3038,7 @@
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3048,7 +3058,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="29"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="8" t="s">
         <v>191</v>
       </c>
@@ -3058,7 +3068,7 @@
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3078,7 +3088,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>153</v>
       </c>
@@ -3096,7 +3106,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="3" t="s">
         <v>158</v>
       </c>
@@ -3114,7 +3124,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="12" t="s">
         <v>198</v>
       </c>
@@ -3132,7 +3142,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="32"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="12" t="s">
         <v>203</v>
       </c>
@@ -3146,7 +3156,7 @@
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -3166,7 +3176,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="26"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="3" t="s">
         <v>163</v>
       </c>
@@ -3184,7 +3194,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="17" t="s">
@@ -3204,7 +3214,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A49" s="26"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="17" t="s">
         <v>174</v>
       </c>
@@ -3218,7 +3228,7 @@
       <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="17" t="s">
@@ -3238,7 +3248,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="11.25">
-      <c r="A51" s="24"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="22" t="s">
         <v>183</v>
       </c>
@@ -3259,12 +3269,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A7:A13"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
@@ -3272,6 +3276,12 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A7:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">reviewing happen because longterm memory seeking recall time (intial ↑, LT↑); this causes plasticity wholesome (intial ↑, LT↑); </t>
         </r>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>watched sex video, the girl look like it near me really. 3d objective</t>
         </r>
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>was artane-like</t>
         </r>
@@ -99,7 +99,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>none beatable in fight</t>
         </r>
@@ -108,7 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -123,7 +123,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>you feel avers from things that huted you psychologically before like stacked programming project, this cause amygadal.mediated.novelity.seeking (intial ↑, LT↑); but there is no optimism part like in lamo</t>
         </r>
@@ -137,7 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>aversion part&gt;&gt;</t>
         </r>
@@ -146,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -161,7 +161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>found my tiddie, my old PTSD mediated subjective effect</t>
         </r>
@@ -170,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -185,13 +185,61 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>the real acculvnet : work as fast as possible, by ignoring things that slow the work by sort</t>
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>by kor mediated aversive</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>facilatig reture to correct plasticity by using kor aversion as 2em regulator</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -347,15 +395,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="B27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>week to 2023-21-7
 not have much eneargy to think about spread buying or super cleanness</t>
@@ -365,14 +413,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -438,15 +486,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="B35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>the same as stability in old alertgene version</t>
         </r>
@@ -455,14 +503,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
+    <comment ref="A39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +534,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="E40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>its new thing so no problem if i wait</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,15 +573,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="B43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>In the long run omega 3 make going against logic harder, because aknowleagmen of cognitive clarity</t>
         </r>
@@ -518,14 +590,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,45 +612,155 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>fixed from (intial ↓, LT↓);</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>seems h- increase cuteness by blocking impulsivity (and agression?) of histamine</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="D44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2em tought comment: taking a siggaret to rest</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0">
+    <comment ref="C45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>seems more as changes after recall</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In the espect of cosept attacking, it feels more *cratical* to do it correctly</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>because faster Spontaneous memory retrival</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fixed from (intial ↓, LT↓);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>seems h- increase cuteness by blocking impulsivity (and agression?) of histamine</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The ability to act or work with strength and eagerness - activeness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+الهمة</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0">
+    <comment ref="B55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +789,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0">
+    <comment ref="F55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kor opiates receptors gives this, tested by lidocaine induce kor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +823,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>kor opiates receptors gives this, tested by lidocaine induce kor</t>
+          <t>so that where i should switch stacks knowing that its invisible to me</t>
         </r>
         <r>
           <rPr>
@@ -636,7 +842,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1267,6 +1473,66 @@
   </si>
   <si>
     <t xml:space="preserve">BSO mode (intial ↑);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy navigation between strongest consolidated ideas (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">post usage exhaustion (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasticity resolve (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">promot habital (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>cold turky recover (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>terbutaline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creativity (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conceptual thinking (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>induce locomotion (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elan (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>getting used (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>motivation disinhibition (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>signal-to-noise ration (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>boxed.sit down(intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>feminine sit down (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>teeth pain (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>cheepy (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>taking care of yourself  (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>bad.consolidation.time.is.up (LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1414,6 +1680,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1425,11 +1696,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1934,7 +2200,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2007,10 +2273,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2024,15 +2286,43 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2040,12 +2330,32 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2057,30 +2367,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2406,10 +2692,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2418,8 +2704,8 @@
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" style="1" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="76.5703125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
@@ -2429,16 +2715,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2458,7 +2744,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2476,7 +2762,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2490,7 +2776,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2510,7 +2796,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2806,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2540,7 +2826,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2558,7 +2844,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2576,7 +2862,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2594,7 +2880,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2612,7 +2898,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
@@ -2629,8 +2915,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="39"/>
       <c r="B13" s="15" t="s">
         <v>177</v>
       </c>
@@ -2640,93 +2926,97 @@
       <c r="D13" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="7" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2735,289 +3025,291 @@
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="21" t="s">
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="21" t="s">
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="21" t="s">
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="20" t="s">
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A28" s="31"/>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A29" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="14" t="s">
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="3" t="s">
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="3" t="s">
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A32" s="27" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A34" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="8" t="s">
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="11"/>
+        <v>222</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="6" t="s">
-        <v>22</v>
+      <c r="A37" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3025,263 +3317,353 @@
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A38" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A42" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="8" t="s">
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="37"/>
+      <c r="B43" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="33" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A44" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="3" t="s">
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A45" s="39"/>
+      <c r="B45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="3" t="s">
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A46" s="39"/>
+      <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="12" t="s">
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A47" s="39"/>
+      <c r="B47" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="12" t="s">
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A48" s="39"/>
+      <c r="B48" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="27" t="s">
+      <c r="E48" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A49" s="40"/>
+      <c r="B49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A50" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="3" t="s">
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A51" s="34"/>
+      <c r="B51" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A48" s="27" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A52" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B52" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C52" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D52" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E52" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="17" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A53" s="34"/>
+      <c r="B53" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="36" t="s">
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A54" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A55" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B55" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E55" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F55" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="11.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="22" t="s">
+    <row r="56" spans="1:6" ht="11.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:6" ht="11.25">
+      <c r="A57" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A21:A26"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A34:A36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -842,7 +842,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="231">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1533,6 +1533,9 @@
   </si>
   <si>
     <t>bad.consolidation.time.is.up (LT↑);</t>
+  </si>
+  <si>
+    <t>emotional comfort (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2100,21 +2103,6 @@
       <left style="thin">
         <color rgb="FFA2A9B1"/>
       </left>
-      <right style="medium">
-        <color rgb="FFA2A9B1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA2A9B1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA2A9B1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA2A9B1"/>
-      </left>
       <right style="thin">
         <color rgb="FFA2A9B1"/>
       </right>
@@ -2200,7 +2188,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2233,10 +2221,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2257,11 +2241,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2310,18 +2294,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2330,12 +2302,52 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2346,29 +2358,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2694,8 +2688,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2715,16 +2709,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2739,30 +2733,30 @@
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2773,40 +2767,40 @@
         <v>40</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2815,18 +2809,18 @@
       <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2839,12 +2833,12 @@
       <c r="E8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2857,30 +2851,30 @@
       <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2893,22 +2887,22 @@
       <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="45" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2916,25 +2910,25 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="45" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="40"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
@@ -2957,13 +2951,13 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -2975,16 +2969,16 @@
       <c r="E16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2993,13 +2987,13 @@
       <c r="E17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3009,19 +3003,21 @@
         <v>208</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="s">
@@ -3033,7 +3029,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="s">
@@ -3045,49 +3041,49 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3096,183 +3092,183 @@
       <c r="D24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="45" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="19" t="s">
         <v>119</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="19" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="8" t="s">
         <v>182</v>
       </c>
@@ -3282,16 +3278,16 @@
       <c r="D35" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="19" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -3299,21 +3295,21 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="19" t="s">
         <v>209</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A38" s="6" t="s">
@@ -3327,7 +3323,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A39" s="6" t="s">
@@ -3339,7 +3335,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A40" s="6" t="s">
@@ -3351,36 +3347,38 @@
       <c r="C40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="28" t="s">
+        <v>225</v>
+      </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="19" t="s">
         <v>145</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3389,25 +3387,25 @@
       <c r="E42" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="45" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="44" t="s">
         <v>191</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="18" t="s">
         <v>148</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -3419,30 +3417,30 @@
       <c r="E44" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="18" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="39"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
@@ -3455,61 +3453,61 @@
       <c r="E46" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="12" t="s">
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A49" s="40"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="33" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A50" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -3526,8 +3524,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="31"/>
+      <c r="B51" s="21" t="s">
         <v>163</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -3539,107 +3537,107 @@
       <c r="E51" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="33" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A52" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="44" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="34"/>
-      <c r="B53" s="28" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>217</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="18" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="11.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="11.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="B58" s="2"/>
@@ -3651,11 +3649,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A50:A51"/>
@@ -3664,6 +3657,11 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -842,7 +842,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="233">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1536,6 +1536,12 @@
   </si>
   <si>
     <t>emotional comfort (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>minimalism (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faster Spontaneous memory retrival (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2194,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2298,6 +2304,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2358,11 +2370,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2688,8 +2698,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2709,16 +2719,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2738,7 +2748,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2756,7 +2766,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2770,7 +2780,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2785,12 +2795,12 @@
       <c r="E5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2800,7 +2810,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2820,7 +2830,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2838,7 +2848,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2856,14 +2866,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="30" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2874,7 +2884,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2892,17 +2902,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="30" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2910,25 +2920,25 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="36"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="19" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="30" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
@@ -2954,7 +2964,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2974,7 +2984,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="19" t="s">
         <v>82</v>
       </c>
@@ -2992,7 +3002,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
@@ -3002,7 +3012,9 @@
       <c r="D18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
@@ -3012,7 +3024,7 @@
       <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="30" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="8"/>
@@ -3044,7 +3056,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -3064,7 +3076,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -3082,7 +3094,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="19" t="s">
         <v>99</v>
       </c>
@@ -3100,7 +3112,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
@@ -3118,7 +3130,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
@@ -3136,7 +3148,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="39"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="18" t="s">
         <v>188</v>
       </c>
@@ -3146,15 +3158,15 @@
       <c r="D27" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="3" t="s">
         <v>85</v>
       </c>
@@ -3164,7 +3176,7 @@
       <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3184,7 +3196,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="13" t="s">
         <v>117</v>
       </c>
@@ -3202,7 +3214,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="19" t="s">
         <v>122</v>
       </c>
@@ -3220,7 +3232,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="30"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="19" t="s">
         <v>127</v>
       </c>
@@ -3238,7 +3250,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
@@ -3248,7 +3260,7 @@
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -3268,7 +3280,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="8" t="s">
         <v>182</v>
       </c>
@@ -3286,7 +3298,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="19" t="s">
         <v>85</v>
       </c>
@@ -3347,7 +3359,7 @@
       <c r="C40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="29" t="s">
         <v>220</v>
       </c>
       <c r="E40" s="19" t="s">
@@ -3359,10 +3371,10 @@
       <c r="A41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -3372,7 +3384,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -3387,13 +3399,13 @@
       <c r="E42" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="29" t="s">
         <v>191</v>
       </c>
       <c r="C43" s="8"/>
@@ -3402,7 +3414,7 @@
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -3422,11 +3434,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="36"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="29" t="s">
         <v>154</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -3440,7 +3452,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="36"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
@@ -3458,7 +3470,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="36"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="11" t="s">
         <v>198</v>
       </c>
@@ -3476,7 +3488,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="36"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="11" t="s">
         <v>203</v>
       </c>
@@ -3494,17 +3506,21 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A49" s="37"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>232</v>
+      </c>
       <c r="E49" s="22"/>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -3524,7 +3540,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="21" t="s">
         <v>163</v>
       </c>
@@ -3542,7 +3558,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -3557,12 +3573,12 @@
       <c r="E52" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
         <v>174</v>
       </c>
@@ -3596,7 +3612,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -3616,7 +3632,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="11.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="20" t="s">
         <v>183</v>
       </c>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -2310,16 +2310,56 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2332,46 +2372,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2698,8 +2698,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2719,16 +2719,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="32"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="33"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2848,7 +2848,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="30" t="s">
         <v>72</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="19" t="s">
         <v>177</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="19" t="s">
         <v>82</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
@@ -3056,10 +3056,10 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="30" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="41"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -3094,7 +3094,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="41"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="19" t="s">
         <v>99</v>
       </c>
@@ -3112,8 +3112,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
@@ -3148,7 +3148,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>188</v>
       </c>
@@ -3166,8 +3166,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="30" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="26"/>
@@ -3176,7 +3176,7 @@
       <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3196,7 +3196,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="32"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="13" t="s">
         <v>117</v>
       </c>
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="32"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="19" t="s">
         <v>122</v>
       </c>
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="32"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="19" t="s">
         <v>127</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -3280,7 +3280,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="38"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="8" t="s">
         <v>182</v>
       </c>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="19" t="s">
         <v>85</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -3404,7 +3404,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="29" t="s">
         <v>191</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="38"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="18" t="s">
         <v>153</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="38"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="38"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="11" t="s">
         <v>198</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="38"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="11" t="s">
         <v>203</v>
       </c>
@@ -3506,21 +3506,21 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A49" s="39"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="31" t="s">
         <v>232</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -3540,7 +3540,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="33"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="21" t="s">
         <v>163</v>
       </c>
@@ -3558,7 +3558,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="33"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="27" t="s">
         <v>174</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="11.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="20" t="s">
         <v>183</v>
       </c>
@@ -3665,6 +3665,11 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A50:A51"/>
@@ -3673,11 +3678,6 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -842,7 +842,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="236">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1542,6 +1542,15 @@
   </si>
   <si>
     <t xml:space="preserve">faster Spontaneous memory retrival (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperthermia/hypothermia (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>sweatness (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleaning yourself/shaving (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
@@ -2698,8 +2707,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2945,9 +2954,15 @@
       <c r="C14" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="s">

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -706,37 +706,85 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>fixed from (intial ↓, LT↓);</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C53" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>seems h- increase cuteness by blocking impulsivity (and agression?) of histamine</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>destroyed</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>because you see tasks as something ^small that should not take time, so you have no problem to enagage in other one inbetween</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fixed from (intial ↓, LT↓);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>seems h- increase cuteness by blocking impulsivity (and agression?) of histamine</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0">
+    <comment ref="B56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0">
+    <comment ref="F56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -842,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1551,6 +1599,24 @@
   </si>
   <si>
     <t xml:space="preserve">cleaning yourself/shaving (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baseline.quantum-super position (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>attention span (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory retrival (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory formilation (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baseline.quantum-super position induce none caring sleep(intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>task.loop (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2269,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2293,10 +2359,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2319,8 +2381,16 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2705,10 +2775,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2728,16 +2798,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2757,7 +2827,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2775,7 +2845,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2859,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2804,12 +2874,12 @@
       <c r="E5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2819,7 +2889,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2839,7 +2909,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2857,7 +2927,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2875,14 +2945,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2893,7 +2963,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2911,17 +2981,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2929,25 +2999,25 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="19" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
@@ -2979,7 +3049,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2999,7 +3069,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="19" t="s">
         <v>82</v>
       </c>
@@ -3017,7 +3087,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
@@ -3039,7 +3109,7 @@
       <c r="B19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="8"/>
@@ -3071,10 +3141,10 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -3091,7 +3161,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -3109,7 +3179,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="19" t="s">
         <v>99</v>
       </c>
@@ -3127,8 +3197,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3145,7 +3215,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
@@ -3163,7 +3233,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="18" t="s">
         <v>188</v>
       </c>
@@ -3173,25 +3243,25 @@
       <c r="D27" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3211,7 +3281,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="13" t="s">
         <v>117</v>
       </c>
@@ -3229,7 +3299,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="38"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="19" t="s">
         <v>122</v>
       </c>
@@ -3247,7 +3317,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="19" t="s">
         <v>127</v>
       </c>
@@ -3265,7 +3335,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
@@ -3275,7 +3345,7 @@
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -3295,7 +3365,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="8" t="s">
         <v>182</v>
       </c>
@@ -3313,7 +3383,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="19" t="s">
         <v>85</v>
       </c>
@@ -3374,7 +3444,7 @@
       <c r="C40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>220</v>
       </c>
       <c r="E40" s="19" t="s">
@@ -3386,20 +3456,20 @@
       <c r="A41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>225</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -3414,13 +3484,13 @@
       <c r="E42" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="40"/>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="28" t="s">
         <v>191</v>
       </c>
       <c r="C43" s="8"/>
@@ -3429,7 +3499,7 @@
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -3449,11 +3519,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>154</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -3467,7 +3537,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
@@ -3485,7 +3555,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="11" t="s">
         <v>198</v>
       </c>
@@ -3503,7 +3573,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="11" t="s">
         <v>203</v>
       </c>
@@ -3513,169 +3583,189 @@
       <c r="D48" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="32" t="s">
         <v>168</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A49" s="43"/>
       <c r="B49" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="15"/>
+      <c r="E49" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A51" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B51" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="37"/>
-      <c r="B51" s="21" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A52" s="38"/>
+      <c r="B52" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F52" s="19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="36" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A53" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F53" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="27" t="s">
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A54" s="38"/>
+      <c r="B54" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="25" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A55" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E55" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F55" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="35" t="s">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B56" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E56" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F56" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="11.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="20" t="s">
+    <row r="57" spans="1:6" ht="11.25">
+      <c r="A57" s="36"/>
+      <c r="B57" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" ht="11.25">
-      <c r="A57" s="27" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" ht="11.25">
+      <c r="A58" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3686,13 +3776,13 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A49"/>
     <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A44:A50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -2269,7 +2269,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2393,18 +2393,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2413,12 +2401,52 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2426,30 +2454,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2777,8 +2781,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2798,16 +2802,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2827,7 +2831,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2845,7 +2849,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2859,7 +2863,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2879,7 +2883,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2889,7 +2893,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2909,7 +2913,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2927,7 +2931,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2945,7 +2949,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
@@ -2963,7 +2967,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2981,7 +2985,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="29" t="s">
         <v>72</v>
       </c>
@@ -2999,7 +3003,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="19" t="s">
         <v>177</v>
       </c>
@@ -3017,7 +3021,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="44"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
@@ -3049,7 +3053,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -3069,7 +3073,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="19" t="s">
         <v>82</v>
       </c>
@@ -3087,7 +3091,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
@@ -3141,7 +3145,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -3161,7 +3165,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -3179,7 +3183,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="19" t="s">
         <v>99</v>
       </c>
@@ -3197,7 +3201,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="29" t="s">
         <v>9</v>
       </c>
@@ -3215,7 +3219,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
@@ -3233,7 +3237,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="18" t="s">
         <v>188</v>
       </c>
@@ -3251,7 +3255,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="35"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="29" t="s">
         <v>85</v>
       </c>
@@ -3261,7 +3265,7 @@
       <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3281,7 +3285,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="13" t="s">
         <v>117</v>
       </c>
@@ -3299,7 +3303,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="19" t="s">
         <v>122</v>
       </c>
@@ -3317,7 +3321,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="19" t="s">
         <v>127</v>
       </c>
@@ -3335,7 +3339,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="38"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
@@ -3345,7 +3349,7 @@
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -3365,7 +3369,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="8" t="s">
         <v>182</v>
       </c>
@@ -3383,7 +3387,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="19" t="s">
         <v>85</v>
       </c>
@@ -3469,7 +3473,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -3489,7 +3493,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="41"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="28" t="s">
         <v>191</v>
       </c>
@@ -3499,7 +3503,7 @@
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -3519,7 +3523,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="43"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="18" t="s">
         <v>153</v>
       </c>
@@ -3537,7 +3541,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="43"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
@@ -3555,7 +3559,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="43"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="11" t="s">
         <v>198</v>
       </c>
@@ -3573,7 +3577,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="43"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="11" t="s">
         <v>203</v>
       </c>
@@ -3591,7 +3595,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="43"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="18" t="s">
         <v>160</v>
       </c>
@@ -3609,7 +3613,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="44"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="15" t="s">
         <v>238</v>
       </c>
@@ -3625,7 +3629,7 @@
       <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -3645,7 +3649,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="38"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="21" t="s">
         <v>163</v>
       </c>
@@ -3663,7 +3667,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="22" t="s">
@@ -3683,7 +3687,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="38"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="26" t="s">
         <v>174</v>
       </c>
@@ -3717,7 +3721,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -3732,12 +3736,12 @@
       <c r="E56" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="11.25">
-      <c r="A57" s="36"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="20" t="s">
         <v>183</v>
       </c>
@@ -3770,11 +3774,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A51:A52"/>
@@ -3783,6 +3782,11 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -253,6 +253,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>room was spatial , this sendboxing technique don't alert plasticity wholesome of it not gived good results</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0">
       <text>
         <r>
@@ -760,7 +784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0">
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -784,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="E56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -823,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0">
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -837,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0">
+    <comment ref="F57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -861,7 +885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0">
+    <comment ref="B59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="245">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1617,6 +1641,15 @@
   </si>
   <si>
     <t>task.loop (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>uncare induce decreasment in narrcisissm luxury (LT↑);</t>
+  </si>
+  <si>
+    <t>conseptual.room.thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childhood innocence (intial ↓, LT↓); </t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2302,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2397,6 +2430,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2449,11 +2486,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2779,10 +2815,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2802,16 +2838,16 @@
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2831,14 +2867,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="29" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -2849,7 +2885,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2899,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2883,7 +2919,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2893,7 +2929,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2913,7 +2949,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -2931,7 +2967,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2949,7 +2985,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="19" t="s">
         <v>62</v>
       </c>
@@ -2967,7 +3003,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2985,7 +3021,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="29" t="s">
         <v>72</v>
       </c>
@@ -3003,7 +3039,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="19" t="s">
         <v>177</v>
       </c>
@@ -3021,7 +3057,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
@@ -3053,7 +3089,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -3073,7 +3109,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="19" t="s">
         <v>82</v>
       </c>
@@ -3091,7 +3127,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
@@ -3104,7 +3140,9 @@
       <c r="E18" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A19" s="7" t="s">
@@ -3145,7 +3183,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -3165,7 +3203,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="3" t="s">
         <v>94</v>
       </c>
@@ -3183,7 +3221,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="19" t="s">
         <v>99</v>
       </c>
@@ -3201,7 +3239,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="29" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3257,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="19" t="s">
         <v>108</v>
       </c>
@@ -3237,7 +3275,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="18" t="s">
         <v>188</v>
       </c>
@@ -3255,17 +3293,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="34" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3285,7 +3325,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="13" t="s">
         <v>117</v>
       </c>
@@ -3303,7 +3343,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="19" t="s">
         <v>122</v>
       </c>
@@ -3321,7 +3361,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="19" t="s">
         <v>127</v>
       </c>
@@ -3339,7 +3379,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="36"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
@@ -3349,7 +3389,7 @@
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -3369,7 +3409,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="8" t="s">
         <v>182</v>
       </c>
@@ -3387,7 +3427,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="19" t="s">
         <v>85</v>
       </c>
@@ -3457,7 +3497,7 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="28" t="s">
@@ -3473,7 +3513,7 @@
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -3503,7 +3543,7 @@
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -3523,7 +3563,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="41"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="18" t="s">
         <v>153</v>
       </c>
@@ -3541,7 +3581,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="41"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
@@ -3559,7 +3599,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="11" t="s">
         <v>198</v>
       </c>
@@ -3577,7 +3617,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="41"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="11" t="s">
         <v>203</v>
       </c>
@@ -3595,7 +3635,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="41"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="18" t="s">
         <v>160</v>
       </c>
@@ -3613,7 +3653,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="15" t="s">
         <v>238</v>
       </c>
@@ -3629,7 +3669,7 @@
       <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -3648,8 +3688,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A52" s="42"/>
       <c r="B52" s="21" t="s">
         <v>163</v>
       </c>
@@ -3666,122 +3706,134 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="34" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A53" s="43"/>
+      <c r="B53" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A54" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B54" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C54" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D54" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E54" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F54" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="26" t="s">
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A55" s="37"/>
+      <c r="B55" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D55" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="24" t="s">
+      <c r="E55" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B56" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E56" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F56" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="46" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A57" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B57" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D57" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E57" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F57" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="11.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="20" t="s">
+    <row r="58" spans="1:6" ht="11.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" ht="11.25">
-      <c r="A58" s="26" t="s">
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" ht="11.25">
+      <c r="A59" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B59" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A53"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -909,12 +909,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="B60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>programming</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="248">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1650,6 +1664,15 @@
   </si>
   <si>
     <t xml:space="preserve">Childhood innocence (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>$(cognitive-fatigue)</t>
+  </si>
+  <si>
+    <t>whatever parsers in wayofwork or develop-tools (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>childhood innocence (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2302,15 +2325,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2434,6 +2453,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2488,10 +2522,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2817,8 +2847,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2835,993 +2865,1000 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="12"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="11"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="28" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="41" t="s">
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A51" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="21" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="46"/>
+      <c r="B53" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="19"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="27" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="37"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="16"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="32" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="11.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="50"/>
+      <c r="B58" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="D58" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="A60" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -444,6 +444,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>this is what make you  not care but feel</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0">
       <text>
         <r>
@@ -928,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="249">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1673,6 +1697,9 @@
   </si>
   <si>
     <t>childhood innocence (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appreciation.reward (intial↓, LTl↓); </t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2352,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2468,60 +2495,67 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2847,8 +2881,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2868,16 +2902,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2897,7 +2931,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2915,7 +2949,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2929,7 +2963,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2949,7 +2983,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -2959,7 +2993,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2979,7 +3013,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -2997,7 +3031,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3015,7 +3049,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3033,7 +3067,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3051,7 +3085,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3069,7 +3103,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3087,7 +3121,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3119,7 +3153,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3139,7 +3173,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3157,7 +3191,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3213,7 +3247,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3233,14 +3267,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="48"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="39" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3251,7 +3285,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="48"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3269,7 +3303,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3287,7 +3321,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3305,7 +3339,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="48"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3323,19 +3357,21 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="49"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="38" t="s">
+        <v>248</v>
+      </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3355,7 +3391,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3373,7 +3409,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3391,7 +3427,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3409,7 +3445,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3419,7 +3455,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3439,7 +3475,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3457,7 +3493,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3543,7 +3579,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3563,7 +3599,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="51"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3573,7 +3609,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3593,7 +3629,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="45"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3611,7 +3647,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="45"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3629,7 +3665,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="45"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3647,7 +3683,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="45"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3665,7 +3701,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="45"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3683,7 +3719,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="46"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3699,7 +3735,7 @@
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3719,7 +3755,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="45"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="35" t="s">
         <v>163</v>
       </c>
@@ -3737,7 +3773,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="46"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="36" t="s">
         <v>244</v>
       </c>
@@ -3747,7 +3783,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3767,7 +3803,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="40"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="25" t="s">
         <v>174</v>
       </c>
@@ -3803,7 +3839,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -3823,7 +3859,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="11.25">
-      <c r="A58" s="50"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="34" t="s">
         <v>183</v>
       </c>
@@ -3863,6 +3899,11 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A54:A55"/>
@@ -3871,11 +3912,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -125,7 +125,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>you feel avers from things that huted you psychologically before like stacked programming project, this cause amygadal.mediated.novelity.seeking (intial ↑, LT↑); but there is no optimism part like in lamo</t>
+          <t xml:space="preserve">you feel avers from things that huted you psychologically before like stacked programming project, this cause amygadal.mediated.novelity.seeking (intial ↑, LT↑); but there is no optimism part like in lamo
+the benefits usage post usage exhaustion (intial ↑, LT↑); </t>
         </r>
       </text>
     </comment>
@@ -2502,60 +2503,60 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2881,8 +2882,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2902,16 +2903,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2931,7 +2932,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2949,7 +2950,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2963,7 +2964,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2983,7 +2984,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -2993,7 +2994,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3013,7 +3014,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="49"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3031,7 +3032,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="49"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3049,7 +3050,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="49"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3067,7 +3068,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="49"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3085,7 +3086,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="49"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3103,7 +3104,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="49"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3121,7 +3122,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="50"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3153,7 +3154,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3173,7 +3174,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3191,7 +3192,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3267,7 +3268,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="41"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3285,7 +3286,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="41"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3303,7 +3304,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="41"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3322,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3339,7 +3340,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3357,7 +3358,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="42"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
@@ -3371,7 +3372,7 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3391,7 +3392,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3409,7 +3410,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3427,7 +3428,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3445,7 +3446,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3455,7 +3456,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3475,7 +3476,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="49"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3493,7 +3494,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="50"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3579,7 +3580,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3599,7 +3600,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="47"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3609,7 +3610,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3629,7 +3630,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="49"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3647,7 +3648,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="49"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3665,7 +3666,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="49"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3683,7 +3684,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="49"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3701,7 +3702,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="49"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3719,7 +3720,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="50"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3735,7 +3736,7 @@
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3755,7 +3756,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="49"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="35" t="s">
         <v>163</v>
       </c>
@@ -3773,7 +3774,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="50"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="36" t="s">
         <v>244</v>
       </c>
@@ -3783,7 +3784,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3803,7 +3804,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="45"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="25" t="s">
         <v>174</v>
       </c>
@@ -3839,7 +3840,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -3859,7 +3860,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="11.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="34" t="s">
         <v>183</v>
       </c>
@@ -3899,11 +3900,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A54:A55"/>
@@ -3912,6 +3908,11 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -857,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A57" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -886,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0">
+    <comment ref="F58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -934,7 +934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0">
+    <comment ref="B61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="252">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1701,6 +1701,15 @@
   </si>
   <si>
     <t xml:space="preserve">appreciation.reward (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t>muscle relaxant(intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>Saliva (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>clover oil</t>
   </si>
 </sst>
 </file>
@@ -2353,7 +2362,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2503,60 +2512,67 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2880,10 +2896,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2903,16 +2919,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2932,7 +2948,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2950,7 +2966,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2964,7 +2980,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2984,7 +3000,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -2994,7 +3010,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3014,7 +3030,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3032,7 +3048,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3050,7 +3066,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="47"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3068,7 +3084,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3086,7 +3102,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3104,7 +3120,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="47"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3122,7 +3138,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3154,7 +3170,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3174,7 +3190,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="41"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3192,7 +3208,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3248,7 +3264,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3268,7 +3284,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="50"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3286,7 +3302,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="50"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3304,7 +3320,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="50"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3322,7 +3338,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3340,7 +3356,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="50"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3358,7 +3374,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="51"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
@@ -3372,7 +3388,7 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3392,7 +3408,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3410,7 +3426,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3428,7 +3444,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3446,7 +3462,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="42"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3456,7 +3472,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3476,7 +3492,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3494,7 +3510,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3580,7 +3596,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3600,7 +3616,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="53"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3610,7 +3626,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3630,7 +3646,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="47"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3648,7 +3664,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="47"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3666,7 +3682,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="47"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3684,7 +3700,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="47"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3702,7 +3718,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="47"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3720,7 +3736,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="48"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3736,7 +3752,7 @@
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3756,7 +3772,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="47"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="35" t="s">
         <v>163</v>
       </c>
@@ -3774,7 +3790,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="48"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="36" t="s">
         <v>244</v>
       </c>
@@ -3784,7 +3800,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="46" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3804,8 +3820,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="25" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="40" t="s">
         <v>174</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -3819,7 +3835,7 @@
       </c>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A56" s="23" t="s">
         <v>215</v>
       </c>
@@ -3839,80 +3855,94 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="52" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A58" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B58" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D58" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E58" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F58" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="11.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="34" t="s">
+    <row r="59" spans="1:6" ht="11.25">
+      <c r="A59" s="45"/>
+      <c r="B59" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D59" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="25" t="s">
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="1:6" ht="11.25">
+      <c r="A60" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B60" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-    </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="34" t="s">
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A61" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="253">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1710,6 +1710,9 @@
   </si>
   <si>
     <t>clover oil</t>
+  </si>
+  <si>
+    <t>immnu to hopeless (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2362,7 +2365,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2519,18 +2522,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2539,40 +2530,56 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2899,7 +2906,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2919,16 +2926,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2948,7 +2955,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2966,7 +2973,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2980,7 +2987,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3000,7 +3007,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3010,7 +3017,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3030,7 +3037,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3048,7 +3055,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3066,7 +3073,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3084,7 +3091,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3102,7 +3109,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3120,7 +3127,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3138,7 +3145,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3170,7 +3177,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3190,7 +3197,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3208,7 +3215,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3264,7 +3271,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3284,7 +3291,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="43"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3302,7 +3309,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="43"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3320,7 +3327,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="43"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3338,7 +3345,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3356,7 +3363,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="43"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3374,7 +3381,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
@@ -3388,7 +3395,7 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3408,7 +3415,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3426,7 +3433,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3444,7 +3451,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3462,7 +3469,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3472,7 +3479,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3492,7 +3499,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="51"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3510,7 +3517,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="52"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3616,7 +3623,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="49"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3626,7 +3633,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="49" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3646,7 +3653,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="51"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3664,7 +3671,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="51"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3682,7 +3689,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="51"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3700,7 +3707,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="51"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3718,7 +3725,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="51"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3736,7 +3743,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="52"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3746,13 +3753,15 @@
       <c r="D50" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3772,7 +3781,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="51"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="35" t="s">
         <v>163</v>
       </c>
@@ -3790,7 +3799,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="36" t="s">
         <v>244</v>
       </c>
@@ -3800,7 +3809,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3820,7 +3829,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="47"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="40" t="s">
         <v>174</v>
       </c>
@@ -3870,7 +3879,7 @@
       <c r="F57" s="41"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -3890,7 +3899,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="34" t="s">
         <v>183</v>
       </c>
@@ -3930,11 +3939,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A54:A55"/>
@@ -3943,6 +3947,11 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="254">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1713,6 +1713,9 @@
   </si>
   <si>
     <t>immnu to hopeless (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>freeup working memory induce novelity preparation (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2526,60 +2529,60 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2905,8 +2908,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2926,16 +2929,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2955,7 +2958,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2973,7 +2976,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2987,7 +2990,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3007,7 +3010,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3017,7 +3020,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3037,7 +3040,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3055,7 +3058,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3073,7 +3076,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3091,7 +3094,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3109,7 +3112,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3127,7 +3130,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3145,7 +3148,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3177,7 +3180,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3197,7 +3200,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3215,7 +3218,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3271,7 +3274,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3291,7 +3294,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3309,7 +3312,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3327,7 +3330,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3348,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3363,7 +3366,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3381,7 +3384,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
@@ -3395,7 +3398,7 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3415,7 +3418,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3433,7 +3436,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3451,7 +3454,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3469,7 +3472,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3479,7 +3482,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3499,7 +3502,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3517,7 +3520,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="51"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3584,7 +3587,9 @@
       <c r="E40" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A41" s="17" t="s">
@@ -3603,7 +3608,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3623,7 +3628,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="56"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3633,7 +3638,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3653,7 +3658,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="50"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3671,7 +3676,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="50"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3689,7 +3694,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="50"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3707,7 +3712,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="50"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3725,7 +3730,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="50"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3743,7 +3748,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="51"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3761,7 +3766,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3781,7 +3786,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="35" t="s">
         <v>163</v>
       </c>
@@ -3799,7 +3804,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="51"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="36" t="s">
         <v>244</v>
       </c>
@@ -3809,7 +3814,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3829,7 +3834,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="45"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="40" t="s">
         <v>174</v>
       </c>
@@ -3879,7 +3884,7 @@
       <c r="F57" s="41"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -3899,7 +3904,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="34" t="s">
         <v>183</v>
       </c>
@@ -3939,6 +3944,11 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A54:A55"/>
@@ -3947,11 +3957,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="255">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1716,6 +1716,9 @@
   </si>
   <si>
     <t>freeup working memory induce novelity preparation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>nmda coincidence detector overactivty (LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2496,10 +2499,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2529,18 +2528,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2549,40 +2536,56 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2908,8 +2911,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2929,16 +2932,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2958,7 +2961,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2976,7 +2979,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2990,7 +2993,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3010,7 +3013,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3020,7 +3023,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3040,7 +3043,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3058,7 +3061,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3076,7 +3079,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3094,7 +3097,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3112,7 +3115,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3130,7 +3133,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3148,7 +3151,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3180,7 +3183,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3200,7 +3203,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3218,7 +3221,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3274,7 +3277,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3294,14 +3297,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3312,7 +3315,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3330,7 +3333,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3348,7 +3351,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3366,7 +3369,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3384,21 +3387,21 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="37" t="s">
         <v>248</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3418,7 +3421,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="49"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3436,7 +3439,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="49"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3454,7 +3457,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="49"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3472,7 +3475,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3482,7 +3485,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3502,7 +3505,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3520,7 +3523,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3608,7 +3611,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3628,7 +3631,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="50"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3638,7 +3641,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="49" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3658,7 +3661,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="52"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3676,7 +3679,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="52"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3694,7 +3697,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="52"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3712,7 +3715,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="52"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3730,7 +3733,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="52"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3748,7 +3751,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="53"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3758,7 +3761,7 @@
       <c r="D50" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="41" t="s">
         <v>241</v>
       </c>
       <c r="F50" s="14" t="s">
@@ -3766,7 +3769,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3786,8 +3789,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="34" t="s">
         <v>163</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3804,17 +3807,17 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="36" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3834,8 +3837,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="40" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="39" t="s">
         <v>174</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -3847,7 +3850,9 @@
       <c r="E55" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="15"/>
+      <c r="F55" s="42" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A56" s="23" t="s">
@@ -3873,18 +3878,18 @@
       <c r="A57" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="39" t="s">
         <v>250</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="41"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -3893,25 +3898,25 @@
       <c r="C58" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="36" t="s">
         <v>167</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="42" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="34" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="36" t="s">
         <v>247</v>
       </c>
       <c r="E59" s="16"/>
@@ -3930,25 +3935,20 @@
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A54:A55"/>
@@ -3957,6 +3957,11 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2532,60 +2532,60 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2911,8 +2911,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2932,16 +2932,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2961,7 +2961,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3061,7 +3061,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3115,7 +3115,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3133,7 +3133,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3151,7 +3151,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3178,12 +3178,14 @@
       <c r="C15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3203,7 +3205,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3221,7 +3223,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3277,7 +3279,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3297,7 +3299,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3315,7 +3317,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3333,7 +3335,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3351,7 +3353,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3369,7 +3371,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3387,7 +3389,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
@@ -3401,7 +3403,7 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3421,7 +3423,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3439,7 +3441,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3457,7 +3459,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3475,7 +3477,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3485,7 +3487,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3505,7 +3507,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3523,7 +3525,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="51"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3611,7 +3613,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3631,7 +3633,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="56"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3641,7 +3643,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3661,7 +3663,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="50"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3679,7 +3681,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="50"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3697,7 +3699,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="50"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3715,7 +3717,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="50"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3733,7 +3735,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="50"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3751,7 +3753,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="51"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3769,7 +3771,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3789,7 +3791,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="34" t="s">
         <v>163</v>
       </c>
@@ -3807,7 +3809,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="51"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="35" t="s">
         <v>244</v>
       </c>
@@ -3817,7 +3819,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3837,7 +3839,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="45"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="39" t="s">
         <v>174</v>
       </c>
@@ -3889,7 +3891,7 @@
       <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -3909,7 +3911,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="33" t="s">
         <v>183</v>
       </c>
@@ -3949,6 +3951,11 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A54:A55"/>
@@ -3957,11 +3964,6 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -469,6 +469,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>part of task.preparation</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0">
       <text>
         <r>
@@ -953,7 +977,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="256">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1719,6 +1743,9 @@
   </si>
   <si>
     <t>nmda coincidence detector overactivty (LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-use (intial↓, LTl↓); </t>
   </si>
 </sst>
 </file>
@@ -2510,10 +2537,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2532,18 +2555,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2552,40 +2563,56 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2911,8 +2938,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2932,16 +2959,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2961,7 +2988,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2979,7 +3006,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2993,7 +3020,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3013,7 +3040,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3023,7 +3050,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3043,7 +3070,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3061,7 +3088,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3079,7 +3106,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3097,7 +3124,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3115,7 +3142,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3133,7 +3160,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3151,7 +3178,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3185,7 +3212,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3205,7 +3232,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3223,7 +3250,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3279,7 +3306,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3299,14 +3326,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3317,7 +3344,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3335,7 +3362,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3353,7 +3380,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3371,7 +3398,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3389,21 +3416,23 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="42" t="s">
+        <v>255</v>
+      </c>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3423,7 +3452,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="49"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3441,7 +3470,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="49"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3459,7 +3488,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="49"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3477,7 +3506,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3487,7 +3516,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3507,7 +3536,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3525,7 +3554,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3613,7 +3642,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3633,7 +3662,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="50"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3643,7 +3672,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="49" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3663,7 +3692,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="52"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3681,7 +3710,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="52"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3699,7 +3728,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="52"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3717,7 +3746,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="52"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3735,7 +3764,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="52"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3753,7 +3782,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="53"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3763,7 +3792,7 @@
       <c r="D50" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F50" s="14" t="s">
@@ -3771,7 +3800,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3791,7 +3820,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="52"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="34" t="s">
         <v>163</v>
       </c>
@@ -3809,7 +3838,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="53"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="35" t="s">
         <v>244</v>
       </c>
@@ -3819,7 +3848,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3839,8 +3868,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="39" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="38" t="s">
         <v>174</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -3852,7 +3881,7 @@
       <c r="E55" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="41" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3880,18 +3909,18 @@
       <c r="A57" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="38" t="s">
         <v>250</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="40"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -3906,12 +3935,12 @@
       <c r="E58" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="41" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="46"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="33" t="s">
         <v>183</v>
       </c>
@@ -3951,11 +3980,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A54:A55"/>
@@ -3964,6 +3988,11 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -881,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -896,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0">
+    <comment ref="B59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="0">
+    <comment ref="F59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -934,7 +934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0">
+    <comment ref="B61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -958,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0">
+    <comment ref="B62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="258">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1746,6 +1746,12 @@
   </si>
   <si>
     <t xml:space="preserve">AI-use (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>signal-to-noise ration (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2404,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2544,75 +2550,80 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2936,10 +2947,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2959,16 +2970,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2988,7 +2999,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3006,7 +3017,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3020,7 +3031,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3040,7 +3051,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3050,7 +3061,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3070,7 +3081,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3088,7 +3099,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3106,7 +3117,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3124,7 +3135,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3142,7 +3153,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
@@ -3160,7 +3171,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3178,7 +3189,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3212,7 +3223,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3232,7 +3243,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
@@ -3250,7 +3261,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
@@ -3306,7 +3317,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -3326,7 +3337,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3344,7 +3355,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="18" t="s">
         <v>99</v>
       </c>
@@ -3362,7 +3373,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
@@ -3380,7 +3391,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="18" t="s">
         <v>108</v>
       </c>
@@ -3398,7 +3409,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="17" t="s">
         <v>188</v>
       </c>
@@ -3416,23 +3427,23 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>255</v>
       </c>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3452,7 +3463,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="12" t="s">
         <v>117</v>
       </c>
@@ -3470,7 +3481,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
@@ -3488,7 +3499,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -3506,7 +3517,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="18" t="s">
         <v>132</v>
       </c>
@@ -3516,7 +3527,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -3536,7 +3547,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="7" t="s">
         <v>182</v>
       </c>
@@ -3554,7 +3565,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="51"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
@@ -3642,7 +3653,7 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -3662,7 +3673,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="56"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="27" t="s">
         <v>191</v>
       </c>
@@ -3672,7 +3683,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3692,7 +3703,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="50"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
@@ -3710,7 +3721,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="50"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="2" t="s">
         <v>158</v>
       </c>
@@ -3728,7 +3739,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="50"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
@@ -3746,7 +3757,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="50"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
@@ -3764,7 +3775,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="50"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="17" t="s">
         <v>160</v>
       </c>
@@ -3782,7 +3793,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="51"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="14" t="s">
         <v>238</v>
       </c>
@@ -3792,7 +3803,7 @@
       <c r="D50" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>241</v>
       </c>
       <c r="F50" s="14" t="s">
@@ -3800,7 +3811,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3820,7 +3831,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="34" t="s">
         <v>163</v>
       </c>
@@ -3838,7 +3849,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="51"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="35" t="s">
         <v>244</v>
       </c>
@@ -3848,7 +3859,7 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3868,7 +3879,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="45"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="38" t="s">
         <v>174</v>
       </c>
@@ -3881,7 +3892,7 @@
       <c r="E55" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="40" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3916,83 +3927,95 @@
         <v>250</v>
       </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="39"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="42"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D59" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E59" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="F59" s="40" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="11.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="33" t="s">
+    <row r="60" spans="1:6" ht="11.25">
+      <c r="A60" s="46"/>
+      <c r="B60" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D60" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="11.25">
-      <c r="A60" s="25" t="s">
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="1:6" ht="11.25">
+      <c r="A61" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B61" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-    </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="33" t="s">
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A62" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B62" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -53,6 +53,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>lidocaine side effect profile:
+Nav1.9 blockage [in] lower lobe of lung [is] the cause of respiratory problem
+Nav1.9 blockage [in] urinary bladder [is] the cause of over urinarting
+Nav1.7 blockage [in] everything [is] the cause of phychoactive effect
+Nav1.4 blockage [in] body of tongue [is] the cause of metalic taste
+Prilocaine side effect profile:
+Nav1.2 blockage [in] everything [is] the cause of editional psychoactive effect (mood lift)
+most Nav1.5 in way or other put problems in pumping oxygenated blood to the rest of the body, pumping deoxygenated blood to the lungs
+https://you.com/search?q=which+of+those+are+part+of+cns++left+ventricle%09right+ventricle%09secondary+oocyte%09sural+nerve%0Aretinal+pigment+epithelium%09ganglionic+eminence%09canal+of+the+cervix%09ascending+aorta%0Agastrocnemius+muscle%09prefrontal+cortex%09%09%0A&amp;cid=c1_058c69f0-5537-4aff-92b9-af83999b6302&amp;tbm=youchat</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D9" authorId="0">
       <text>
         <r>
@@ -240,7 +262,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hyperthermia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="F19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0">
+    <comment ref="F24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="C25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="E27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -559,7 +595,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0">
+    <comment ref="C34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>when going upper then 8ml</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0">
+    <comment ref="E41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -631,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0">
+    <comment ref="D45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0">
+    <comment ref="C46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0">
+    <comment ref="C47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0">
+    <comment ref="F49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -771,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -833,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0">
+    <comment ref="C56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -857,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0">
+    <comment ref="E57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0">
+    <comment ref="A60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -896,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="0">
+    <comment ref="F60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -934,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0">
+    <comment ref="B62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -958,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +1027,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="263">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1752,6 +1802,21 @@
   </si>
   <si>
     <t>signal-to-noise ration (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>substiti</t>
+  </si>
+  <si>
+    <t>[terbtaline+bso]==&gt;assembliefing work (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>[bso+d3-]==&gt;fullyyfied goal directed beaviors (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>[D2+BSO]==&gt;using low standards to reach high standards (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mood lift (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
@@ -1983,7 +2048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2335,6 +2400,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2404,7 +2519,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2566,64 +2681,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2947,10 +3086,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2970,16 +3109,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2999,7 +3138,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3017,7 +3156,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3031,7 +3170,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3051,7 +3190,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3188,417 +3327,415 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="52"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="28" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="18" t="s">
+    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="17" t="s">
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C20" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="43" t="s">
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A23" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B23" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D24" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="18" t="s">
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A25" s="60"/>
+      <c r="B25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F25" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="28" t="s">
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="18" t="s">
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A27" s="60"/>
+      <c r="B27" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="17" t="s">
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E28" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F28" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="28" t="s">
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A29" s="61"/>
+      <c r="B29" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D29" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E29" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A30" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="12" t="s">
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="18" t="s">
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="18" t="s">
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E33" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="18" t="s">
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="51" t="s">
+      <c r="C34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A35" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B35" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E35" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="7" t="s">
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="18" t="s">
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A37" s="53"/>
+      <c r="B37" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>139</v>
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -3606,416 +3743,457 @@
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D41" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A41" s="17" t="s">
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B42" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D42" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="50" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F43" s="28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="27" t="s">
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A44" s="63"/>
+      <c r="B44" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A44" s="51" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A45" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B45" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A46" s="52"/>
-      <c r="B46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>195</v>
+      <c r="B46" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A47" s="52"/>
-      <c r="B47" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>201</v>
+      <c r="B47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A48" s="52"/>
       <c r="B48" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>168</v>
+        <v>198</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A49" s="52"/>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A50" s="52"/>
+      <c r="B50" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E50" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="53"/>
-      <c r="B50" s="14" t="s">
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A51" s="53"/>
+      <c r="B51" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D51" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E51" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F51" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="51" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A52" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B52" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="34" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A53" s="52"/>
+      <c r="B53" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F53" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="35" t="s">
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A54" s="53"/>
+      <c r="B54" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="47" t="s">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A55" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B55" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D55" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E55" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F55" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="38" t="s">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A56" s="47"/>
+      <c r="B56" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="F56" s="40" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A56" s="23" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A57" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E57" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F57" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A58" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B58" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C58" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" s="42"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="42"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A60" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D60" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E60" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F60" s="40" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="11.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="33" t="s">
+    <row r="61" spans="1:6" ht="11.25">
+      <c r="A61" s="62"/>
+      <c r="B61" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D61" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" ht="11.25">
-      <c r="A61" s="25" t="s">
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="1:6" ht="11.25">
+      <c r="A62" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B62" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-    </row>
-    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="33" t="s">
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A63" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B63" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" ht="11.25">
+      <c r="A64" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="58"/>
+    </row>
+    <row r="65" spans="1:3" ht="11.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="58"/>
+    </row>
+    <row r="66" spans="1:3" ht="11.25">
+      <c r="A66" s="56"/>
+      <c r="B66" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="58"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A7:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -907,7 +907,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="E57" authorId="0">
+    <comment ref="B57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>byproduct of Spontaneous thinking from histamine blockage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -931,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0">
+    <comment ref="B61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="0">
+    <comment ref="F61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +1006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0">
+    <comment ref="B64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1049,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="264">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1817,13 +1839,16 @@
   </si>
   <si>
     <t xml:space="preserve">mood lift (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>do what near me (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1981,6 +2006,17 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2519,7 +2555,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2590,10 +2626,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2689,80 +2721,88 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -3086,10 +3126,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3109,16 +3149,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="54" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3138,14 +3178,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -3156,7 +3196,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="47"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3170,7 +3210,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3185,12 +3225,12 @@
       <c r="E5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3200,7 +3240,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3220,7 +3260,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3238,7 +3278,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3256,14 +3296,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -3274,7 +3314,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3292,17 +3332,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="27" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3310,43 +3350,43 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>233</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="18" t="s">
         <v>262</v>
       </c>
@@ -3365,14 +3405,14 @@
       <c r="C16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -3392,7 +3432,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="18" t="s">
         <v>82</v>
       </c>
@@ -3410,7 +3450,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="17" t="s">
         <v>87</v>
       </c>
@@ -3434,7 +3474,7 @@
       <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>230</v>
       </c>
       <c r="D20" s="7"/>
@@ -3466,10 +3506,10 @@
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3486,14 +3526,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="60"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -3504,7 +3544,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="60"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="18" t="s">
         <v>99</v>
       </c>
@@ -3522,8 +3562,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3540,7 +3580,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="60"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="18" t="s">
         <v>108</v>
       </c>
@@ -3558,7 +3598,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="60"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="17" t="s">
         <v>188</v>
       </c>
@@ -3568,31 +3608,31 @@
       <c r="D28" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3612,7 +3652,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="12" t="s">
         <v>117</v>
       </c>
@@ -3630,7 +3670,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="18" t="s">
         <v>122</v>
       </c>
@@ -3648,7 +3688,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="18" t="s">
         <v>127</v>
       </c>
@@ -3666,7 +3706,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="18" t="s">
         <v>132</v>
       </c>
@@ -3678,7 +3718,7 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -3698,7 +3738,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="52"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="7" t="s">
         <v>182</v>
       </c>
@@ -3716,7 +3756,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="18" t="s">
         <v>85</v>
       </c>
@@ -3777,7 +3817,7 @@
       <c r="C41" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>220</v>
       </c>
       <c r="E41" s="18" t="s">
@@ -3791,20 +3831,20 @@
       <c r="A42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>225</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -3819,13 +3859,13 @@
       <c r="E43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="27" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="27" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="26" t="s">
         <v>191</v>
       </c>
       <c r="C44" s="7"/>
@@ -3834,7 +3874,7 @@
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -3854,11 +3894,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="52"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -3872,7 +3912,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="52"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="2" t="s">
         <v>158</v>
       </c>
@@ -3890,7 +3930,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="52"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="10" t="s">
         <v>198</v>
       </c>
@@ -3908,7 +3948,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="52"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="10" t="s">
         <v>203</v>
       </c>
@@ -3918,7 +3958,7 @@
       <c r="D49" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="30" t="s">
         <v>168</v>
       </c>
       <c r="F49" s="10" t="s">
@@ -3926,7 +3966,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="52"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="17" t="s">
         <v>160</v>
       </c>
@@ -3936,7 +3976,7 @@
       <c r="D50" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>236</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -3944,17 +3984,17 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="53"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="38" t="s">
         <v>241</v>
       </c>
       <c r="F51" s="14" t="s">
@@ -3962,10 +4002,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>159</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -3982,8 +4022,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="33" t="s">
         <v>163</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4000,41 +4040,41 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="60"/>
+      <c r="B54" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="26" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A56" s="47"/>
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="64"/>
+      <c r="B56" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="44" t="s">
         <v>206</v>
       </c>
       <c r="D56" s="18" t="s">
@@ -4043,157 +4083,167 @@
       <c r="E56" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="39" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+    </row>
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A58" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E58" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F58" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A59" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B59" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="C59" s="42"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A61" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D61" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E61" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F61" s="39" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="11.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="33" t="s">
+    <row r="62" spans="1:6" ht="11.25">
+      <c r="A62" s="53"/>
+      <c r="B62" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D62" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" ht="11.25">
-      <c r="A62" s="25" t="s">
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" ht="11.25">
+      <c r="A63" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B63" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-    </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="33" t="s">
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A64" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B64" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" spans="1:6" ht="11.25">
-      <c r="A64" s="54" t="s">
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" spans="1:3" ht="11.25">
+      <c r="A65" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B65" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="C64" s="58"/>
-    </row>
-    <row r="65" spans="1:3" ht="11.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
+      <c r="C65" s="49"/>
+    </row>
+    <row r="66" spans="1:3" ht="11.25">
+      <c r="A66" s="46"/>
+      <c r="B66" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="58"/>
-    </row>
-    <row r="66" spans="1:3" ht="11.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="57" t="s">
+      <c r="C66" s="49"/>
+    </row>
+    <row r="67" spans="1:3" ht="11.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="58"/>
+      <c r="C67" s="49"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A65:A67"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A55:A57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -214,41 +214,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>by kor mediated aversive</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="F13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://psychonautwiki.org/wiki/Catharsis</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>facilatig reture to correct plasticity by using kor aversion as 2em regulator</t>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>by kor mediated aversive</t>
         </r>
         <r>
           <rPr>
@@ -262,59 +262,83 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>hyperthermia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>trying to find something increase compliance, a feeling certical for goal directed behaviors.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>room was spatial , this sendboxing technique don't alert plasticity wholesome of it not gived good results</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>facilatig reture to correct plasticity by using kor aversion as 2em regulator</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hyperthermia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>trying to find something increase compliance, a feeling certical for goal directed behaviors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>room was spatial , this sendboxing technique don't alert plasticity wholesome of it not gived good results</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0">
+    <comment ref="A41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0">
+    <comment ref="E42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -681,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0">
+    <comment ref="D46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0">
+    <comment ref="C47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0">
+    <comment ref="C48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -797,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F49" authorId="0">
+    <comment ref="F50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -845,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -883,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -907,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E58" authorId="0">
+    <comment ref="E59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -953,7 +977,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0">
+    <comment ref="D60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>because of Pattern Separation</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0">
+    <comment ref="B64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -982,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="0">
+    <comment ref="F64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1006,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0">
+    <comment ref="E65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1062,9 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>so that where i should switch stacks knowing that its invisible to me</t>
+          <t xml:space="preserve">is a psychological state where individuals are fully immersed and focused in an activity. It is a state of complete absorption and enjoyment, where individuals feel energized and motivated. Flow is often experienced when the level of challenge matches one's skills perfectly, allowing individuals to perform at their best. In this state, individuals are highly productive and experience a sense of timelessness and satisfaction.
+https://you.com/search?q=%22While+the+statement+does+not+have+a+specific+name%22+can+you+find+nearest+consept+to+it&amp;cid=c1_6eb0b062-1118-4420-848d-f6c9960a458b&amp;tbm=youchat
+</t>
         </r>
         <r>
           <rPr>
@@ -1030,7 +1078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1088,73 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t>so that where i should switch stacks knowing that its invisible to me</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>programming</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">not engaging in a task if i know it will not get complete by 15 minutes
+its byproduct of having goal directed behaviors (intial ↑, LT↑); and plasticity wholesome  (intial ↑, LT↑); 
+advocators: plactisit dose depadat curve: training is no more befitical after cretain timestemp, which case short attaccks to task be better
+https://en.wikipedia.org/wiki/Spike-timing-dependent_plasticity
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>no direct way for it, but generally lamo and antihistamine when you have a lot of work stress and start removing context to be able to hundle more</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1049,7 +1163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="274">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1842,6 +1956,36 @@
   </si>
   <si>
     <t>do what near me (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>context-removing</t>
+  </si>
+  <si>
+    <t>✨ Sub-tasks ✨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow (LT↑); </t>
+  </si>
+  <si>
+    <t>resiliency (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impulsivity (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>Pattern Separation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>plasticity wholesome (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summer.appetite  (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>teenager mindset (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>restlessleg syndrom (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2440,17 +2584,6 @@
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
@@ -2475,8 +2608,17 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFA2A9B1"/>
       </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -2486,6 +2628,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2637,18 +2799,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2713,10 +2863,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2725,7 +2871,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2733,15 +2891,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2765,14 +2915,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2788,6 +2938,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2797,10 +2963,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3126,10 +3288,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3149,16 +3311,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3178,14 +3340,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -3196,7 +3358,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3210,7 +3372,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3225,12 +3387,12 @@
       <c r="E5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3240,7 +3402,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3260,7 +3422,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3278,7 +3440,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3296,14 +3458,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -3314,7 +3476,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3332,17 +3494,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3350,43 +3512,43 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="59"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>233</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="18" t="s">
         <v>262</v>
       </c>
@@ -3405,14 +3567,14 @@
       <c r="C16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -3449,8 +3611,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="56"/>
       <c r="B19" s="17" t="s">
         <v>87</v>
       </c>
@@ -3468,328 +3630,324 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A24" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D25" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="18" t="s">
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A26" s="48"/>
+      <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="27" t="s">
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A27" s="48"/>
+      <c r="B27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="18" t="s">
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A28" s="48"/>
+      <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="17" t="s">
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E29" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F29" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="27" t="s">
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C30" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D30" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E30" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A31" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="12" t="s">
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="18" t="s">
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="18" t="s">
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="18" t="s">
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A35" s="53"/>
+      <c r="B35" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="58" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A36" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="7" t="s">
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E37" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F37" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="18" t="s">
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A38" s="57"/>
+      <c r="B38" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>139</v>
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -3797,453 +3955,514 @@
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D42" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B43" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C43" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D43" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="57" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A44" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F44" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="26" t="s">
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="54"/>
+      <c r="B45" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A45" s="58" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A46" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B46" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="17" t="s">
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A47" s="56"/>
+      <c r="B47" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C47" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A48" s="56"/>
+      <c r="B48" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="59"/>
-      <c r="B48" s="10" t="s">
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A49" s="56"/>
+      <c r="B49" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A50" s="56"/>
+      <c r="B50" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D50" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E50" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="17" t="s">
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A51" s="56"/>
+      <c r="B51" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E51" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="14" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A52" s="57"/>
+      <c r="B52" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D52" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E52" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F52" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="58" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A53" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B53" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="33" t="s">
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A54" s="56"/>
+      <c r="B54" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F54" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="60"/>
-      <c r="B54" s="34" t="s">
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A55" s="57"/>
+      <c r="B55" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="64" t="s">
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A56" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B56" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D56" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E56" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F56" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="37" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C57" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D57" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F57" s="36" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="44" t="s">
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A58" s="58"/>
+      <c r="B58" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-    </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="22" t="s">
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B59" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E59" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F59" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A60" s="60"/>
+      <c r="B60" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A61" s="61"/>
+      <c r="B61" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A62" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B62" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="43" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A63" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B63" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="53" t="s">
+      <c r="C63" s="38"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A64" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B64" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D64" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E64" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F64" s="36" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="11.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="32" t="s">
+    <row r="65" spans="1:6" ht="11.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D65" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" ht="11.25">
-      <c r="A63" s="24" t="s">
+      <c r="E65" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:6" ht="11.25">
+      <c r="A66" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B66" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-    </row>
-    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="32" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A67" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B67" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-    </row>
-    <row r="65" spans="1:3" ht="11.25">
-      <c r="A65" s="45" t="s">
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" ht="11.25">
+      <c r="A68" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B68" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="49"/>
-    </row>
-    <row r="66" spans="1:3" ht="11.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="48" t="s">
+      <c r="C68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" ht="11.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="49"/>
-    </row>
-    <row r="67" spans="1:3" ht="11.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48" t="s">
+      <c r="C69" s="46"/>
+    </row>
+    <row r="70" spans="1:6" ht="11.25">
+      <c r="A70" s="50"/>
+      <c r="B70" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="49"/>
+      <c r="C70" s="46"/>
+    </row>
+    <row r="71" spans="1:6" ht="11.25">
+      <c r="A71" s="50"/>
+      <c r="B71" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" s="46"/>
+    </row>
+    <row r="72" spans="1:6" ht="11.25">
+      <c r="A72" s="50"/>
+      <c r="B72" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="46"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A59:A61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -2887,30 +2887,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2923,21 +2899,57 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2951,18 +2963,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3290,8 +3290,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3311,16 +3311,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3340,7 +3340,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3392,7 +3392,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3422,7 +3422,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="56"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3440,7 +3440,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="56"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3458,7 +3458,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="56"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3494,7 +3494,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
@@ -3512,7 +3512,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="56"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3548,7 +3548,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="18" t="s">
         <v>262</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -3594,7 +3594,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="18" t="s">
         <v>82</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="17" t="s">
         <v>87</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="2" t="s">
         <v>267</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="56" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -3698,7 +3698,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
@@ -3716,7 +3716,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="48"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="24" t="s">
         <v>9</v>
       </c>
@@ -3752,7 +3752,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
@@ -3770,7 +3770,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="17" t="s">
         <v>188</v>
       </c>
@@ -3788,7 +3788,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="49"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="24" t="s">
         <v>85</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3824,7 +3824,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="12" t="s">
         <v>117</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="18" t="s">
         <v>122</v>
       </c>
@@ -3860,7 +3860,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="18" t="s">
         <v>127</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="18" t="s">
         <v>132</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -3910,7 +3910,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="56"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="7" t="s">
         <v>182</v>
       </c>
@@ -3928,7 +3928,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="18" t="s">
         <v>85</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4036,7 +4036,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="54"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="23" t="s">
         <v>191</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -4066,7 +4066,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="56"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="17" t="s">
         <v>153</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="56"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="2" t="s">
         <v>158</v>
       </c>
@@ -4102,7 +4102,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="56"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="10" t="s">
         <v>198</v>
       </c>
@@ -4120,7 +4120,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="56"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="10" t="s">
         <v>203</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="56"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="17" t="s">
         <v>160</v>
       </c>
@@ -4156,7 +4156,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="57"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="14" t="s">
         <v>238</v>
       </c>
@@ -4174,7 +4174,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="56"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="30" t="s">
         <v>163</v>
       </c>
@@ -4212,17 +4212,17 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="57"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="31" t="s">
         <v>244</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -4242,7 +4242,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="58"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="34" t="s">
         <v>174</v>
       </c>
@@ -4260,7 +4260,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="58"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="40" t="s">
         <v>263</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="62" t="s">
         <v>215</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -4290,7 +4290,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="60"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="44" t="s">
         <v>268</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="44" t="s">
         <v>273</v>
       </c>
@@ -4344,7 +4344,7 @@
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -4364,7 +4364,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="11.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="29" t="s">
         <v>183</v>
       </c>
@@ -4404,50 +4404,45 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="11.25">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="C68" s="46"/>
+      <c r="C68" s="55"/>
     </row>
     <row r="69" spans="1:6" ht="11.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="59"/>
+      <c r="B69" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="46"/>
+      <c r="C69" s="55"/>
     </row>
     <row r="70" spans="1:6" ht="11.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="59"/>
+      <c r="B70" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="46"/>
+      <c r="C70" s="55"/>
     </row>
     <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="59"/>
+      <c r="B71" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="46"/>
+      <c r="C71" s="55"/>
     </row>
     <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="59"/>
+      <c r="B72" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="C72" s="46"/>
+      <c r="C72" s="55"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A17:A20"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
@@ -4463,6 +4458,11 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -953,6 +953,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="D58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>on withdrwawl</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E59" authorId="0">
       <text>
         <r>
@@ -999,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="0">
+    <comment ref="F65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E65" authorId="0">
+    <comment ref="E66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="0">
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="278">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1986,6 +2008,18 @@
   </si>
   <si>
     <t>restlessleg syndrom (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>nmda.filter (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>Chlorpheniramine</t>
+  </si>
+  <si>
+    <t>3.level.neuronal.network (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>stimulation (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2648,6 +2682,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2825,10 +2868,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2855,14 +2894,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2887,6 +2918,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2947,8 +2985,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3288,10 +3329,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3311,16 +3352,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3340,7 +3381,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3358,7 +3399,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="47"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3372,7 +3413,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3392,7 +3433,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3443,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3422,7 +3463,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3440,7 +3481,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3458,7 +3499,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3476,7 +3517,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3494,7 +3535,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
@@ -3512,7 +3553,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3530,7 +3571,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3548,11 +3589,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -3567,14 +3610,14 @@
       <c r="C16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -3594,7 +3637,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="18" t="s">
         <v>82</v>
       </c>
@@ -3612,14 +3655,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="24" t="s">
         <v>208</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -3630,14 +3673,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A21" s="6" t="s">
@@ -3678,7 +3721,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -3698,14 +3741,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="57"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3716,7 +3759,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="57"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
@@ -3734,7 +3777,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="57"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="24" t="s">
         <v>9</v>
       </c>
@@ -3752,7 +3795,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
@@ -3770,7 +3813,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="17" t="s">
         <v>188</v>
       </c>
@@ -3788,23 +3831,23 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="43" t="s">
         <v>255</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3824,7 +3867,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="12" t="s">
         <v>117</v>
       </c>
@@ -3842,7 +3885,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="46"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="18" t="s">
         <v>122</v>
       </c>
@@ -3860,7 +3903,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="18" t="s">
         <v>127</v>
       </c>
@@ -3878,7 +3921,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="18" t="s">
         <v>132</v>
       </c>
@@ -3890,7 +3933,7 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -3910,7 +3953,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="7" t="s">
         <v>182</v>
       </c>
@@ -3928,7 +3971,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="18" t="s">
         <v>85</v>
       </c>
@@ -4016,7 +4059,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4046,7 +4089,7 @@
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -4066,7 +4109,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="52"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="17" t="s">
         <v>153</v>
       </c>
@@ -4084,8 +4127,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="23" t="s">
         <v>158</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4102,7 +4145,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="52"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="10" t="s">
         <v>198</v>
       </c>
@@ -4120,7 +4163,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="52"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="10" t="s">
         <v>203</v>
       </c>
@@ -4130,7 +4173,7 @@
       <c r="D50" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="26" t="s">
         <v>168</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -4138,7 +4181,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="52"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="17" t="s">
         <v>160</v>
       </c>
@@ -4156,17 +4199,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="53"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="43" t="s">
         <v>241</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -4174,7 +4217,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -4194,8 +4237,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="52"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="29" t="s">
         <v>163</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -4212,14 +4255,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A56" s="61" t="s">
@@ -4243,10 +4286,10 @@
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A57" s="61"/>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D57" s="18" t="s">
@@ -4255,19 +4298,23 @@
       <c r="E57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="33" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A58" s="61"/>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
+      <c r="C58" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
     </row>
     <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A59" s="62" t="s">
@@ -4291,10 +4338,10 @@
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A60" s="63"/>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="39" t="s">
         <v>269</v>
       </c>
       <c r="D60" s="23" t="s">
@@ -4309,19 +4356,19 @@
     </row>
     <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A61" s="64"/>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="41" t="s">
         <v>249</v>
       </c>
       <c r="C62" s="18" t="s">
@@ -4331,132 +4378,144 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="39" t="s">
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A63" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A65" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D65" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="E65" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F65" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="11.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="29" t="s">
+    <row r="66" spans="1:6" ht="11.25">
+      <c r="A66" s="58"/>
+      <c r="B66" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D66" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E66" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" ht="11.25">
-      <c r="A66" s="21" t="s">
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" ht="11.25">
+      <c r="A67" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B67" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="29" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A68" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B68" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="1:6" ht="11.25">
-      <c r="A68" s="59" t="s">
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+    </row>
+    <row r="69" spans="1:6" ht="11.25">
+      <c r="A69" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B69" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C68" s="55"/>
-    </row>
-    <row r="69" spans="1:6" ht="11.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="54" t="s">
+      <c r="C69" s="54"/>
+    </row>
+    <row r="70" spans="1:6" ht="11.25">
+      <c r="A70" s="58"/>
+      <c r="B70" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="55"/>
-    </row>
-    <row r="70" spans="1:6" ht="11.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="54" t="s">
+      <c r="C70" s="54"/>
+    </row>
+    <row r="71" spans="1:6" ht="11.25">
+      <c r="A71" s="58"/>
+      <c r="B71" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="55"/>
-    </row>
-    <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="54" t="s">
+      <c r="C71" s="54"/>
+    </row>
+    <row r="72" spans="1:6" ht="11.25">
+      <c r="A72" s="58"/>
+      <c r="B72" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="55"/>
-    </row>
-    <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="54" t="s">
+      <c r="C72" s="54"/>
+    </row>
+    <row r="73" spans="1:6" ht="11.25">
+      <c r="A73" s="58"/>
+      <c r="B73" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="C72" s="55"/>
+      <c r="C73" s="54"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A69:A73"/>
     <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -1185,7 +1185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="281">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2020,6 +2020,15 @@
   </si>
   <si>
     <t>stimulation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>sweating (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.legs (intial ↑, LT↑);  </t>
+  </si>
+  <si>
+    <t>selfharm (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2760,7 +2769,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2906,10 +2915,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2925,6 +2930,45 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2937,6 +2981,40 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2946,64 +3024,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3331,8 +3351,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3352,16 +3372,16 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3381,7 +3401,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3399,7 +3419,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3413,7 +3433,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3433,7 +3453,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3443,7 +3463,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3463,7 +3483,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3481,7 +3501,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3499,7 +3519,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3517,7 +3537,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3535,7 +3555,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
@@ -3553,7 +3573,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3571,7 +3591,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="51"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3589,7 +3609,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="18" t="s">
         <v>262</v>
       </c>
@@ -3617,13 +3637,13 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="45" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3637,7 +3657,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="51"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="18" t="s">
         <v>82</v>
       </c>
@@ -3655,7 +3675,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="17" t="s">
         <v>87</v>
       </c>
@@ -3673,14 +3693,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="40"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A21" s="6" t="s">
@@ -3721,7 +3741,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -3741,7 +3761,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="56"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
@@ -3759,7 +3779,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="56"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
@@ -3777,7 +3797,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="56"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="24" t="s">
         <v>9</v>
       </c>
@@ -3795,7 +3815,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="56"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
@@ -3813,7 +3833,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="17" t="s">
         <v>188</v>
       </c>
@@ -3831,7 +3851,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="57"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="24" t="s">
         <v>85</v>
       </c>
@@ -3841,13 +3861,13 @@
       <c r="D30" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="42" t="s">
         <v>255</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="53" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3867,7 +3887,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="12" t="s">
         <v>117</v>
       </c>
@@ -3885,7 +3905,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="18" t="s">
         <v>122</v>
       </c>
@@ -3903,7 +3923,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="18" t="s">
         <v>127</v>
       </c>
@@ -3921,7 +3941,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="18" t="s">
         <v>132</v>
       </c>
@@ -3933,7 +3953,7 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -3953,7 +3973,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="51"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="7" t="s">
         <v>182</v>
       </c>
@@ -3971,7 +3991,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="52"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="18" t="s">
         <v>85</v>
       </c>
@@ -4059,7 +4079,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4079,7 +4099,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="60"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="23" t="s">
         <v>191</v>
       </c>
@@ -4089,7 +4109,7 @@
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -4109,7 +4129,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="51"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="17" t="s">
         <v>153</v>
       </c>
@@ -4127,7 +4147,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="51"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="23" t="s">
         <v>158</v>
       </c>
@@ -4145,7 +4165,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="51"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="10" t="s">
         <v>198</v>
       </c>
@@ -4163,7 +4183,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="51"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="10" t="s">
         <v>203</v>
       </c>
@@ -4181,7 +4201,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="51"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="17" t="s">
         <v>160</v>
       </c>
@@ -4199,17 +4219,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="52"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="42" t="s">
         <v>241</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -4217,7 +4237,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="58" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -4237,7 +4257,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="51"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="29" t="s">
         <v>163</v>
       </c>
@@ -4255,7 +4275,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="52"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="30" t="s">
         <v>244</v>
       </c>
@@ -4286,7 +4306,7 @@
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A57" s="61"/>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="41" t="s">
         <v>174</v>
       </c>
       <c r="C57" s="37" t="s">
@@ -4323,10 +4343,10 @@
       <c r="B59" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="42" t="s">
         <v>218</v>
       </c>
       <c r="E59" s="18" t="s">
@@ -4338,10 +4358,10 @@
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A60" s="63"/>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="43" t="s">
         <v>269</v>
       </c>
       <c r="D60" s="23" t="s">
@@ -4356,25 +4376,31 @@
     </row>
     <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A61" s="64"/>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
+      <c r="C61" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="40" t="s">
         <v>249</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
@@ -4397,13 +4423,13 @@
       <c r="B64" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C64" s="42"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -4423,7 +4449,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="11.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="28" t="s">
         <v>183</v>
       </c>
@@ -4454,7 +4480,7 @@
       <c r="A68" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="41" t="s">
         <v>246</v>
       </c>
       <c r="C68" s="28"/>
@@ -4463,45 +4489,50 @@
       <c r="F68" s="28"/>
     </row>
     <row r="69" spans="1:6" ht="11.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="54"/>
+      <c r="C69" s="48"/>
     </row>
     <row r="70" spans="1:6" ht="11.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="53" t="s">
+      <c r="A70" s="52"/>
+      <c r="B70" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="54"/>
+      <c r="C70" s="48"/>
     </row>
     <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="53" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="54"/>
+      <c r="C71" s="48"/>
     </row>
     <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="53" t="s">
+      <c r="A72" s="52"/>
+      <c r="B72" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="54"/>
+      <c r="C72" s="48"/>
     </row>
     <row r="73" spans="1:6" ht="11.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="48"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
@@ -4517,11 +4548,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -1185,7 +1185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="284">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2029,6 +2029,15 @@
   </si>
   <si>
     <t>selfharm (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>craticality (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[histamine-+lidocaine]==&gt;craticality (intial ↑, LT↑); JIT-run-time (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alertgene.3.times.a.day (intial ↑, LT↑); </t>
   </si>
 </sst>
 </file>
@@ -2953,6 +2962,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2962,10 +2975,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3349,10 +3358,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3616,9 +3625,15 @@
       <c r="C15" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
@@ -3741,7 +3756,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -3761,7 +3776,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
@@ -3779,7 +3794,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
@@ -3797,7 +3812,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="24" t="s">
         <v>9</v>
       </c>
@@ -3815,7 +3830,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
@@ -3833,7 +3848,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="17" t="s">
         <v>188</v>
       </c>
@@ -3851,7 +3866,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="24" t="s">
         <v>85</v>
       </c>
@@ -4429,7 +4444,7 @@
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -4449,7 +4464,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="11.25">
-      <c r="A66" s="52"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="28" t="s">
         <v>183</v>
       </c>
@@ -4489,7 +4504,7 @@
       <c r="F68" s="28"/>
     </row>
     <row r="69" spans="1:6" ht="11.25">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="49" t="s">
         <v>258</v>
       </c>
       <c r="B69" s="47" t="s">
@@ -4498,44 +4513,48 @@
       <c r="C69" s="48"/>
     </row>
     <row r="70" spans="1:6" ht="11.25">
-      <c r="A70" s="52"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="47" t="s">
         <v>259</v>
       </c>
       <c r="C70" s="48"/>
     </row>
     <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="52"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="47" t="s">
         <v>260</v>
       </c>
       <c r="C71" s="48"/>
     </row>
     <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="52"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="47" t="s">
         <v>265</v>
       </c>
       <c r="C72" s="48"/>
     </row>
     <row r="73" spans="1:6" ht="11.25">
-      <c r="A73" s="52"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="47" t="s">
         <v>264</v>
       </c>
       <c r="C73" s="48"/>
     </row>
+    <row r="74" spans="1:6" ht="11.25">
+      <c r="A74" s="49"/>
+      <c r="B74" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="48"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A31:A35"/>
@@ -4544,10 +4563,14 @@
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A59:A61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
+    <sheet name="vba" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="hours_btw_doses">#REF!</definedName>
@@ -39,6 +40,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>https://you.com/search?q=search+in+list+of+cells+%28excle%29&amp;fromSearchBar=true&amp;tbm=youchat&amp;cid=c0_02e157f2-5f2e-4240-9f36-6778a6531e3c</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A2" authorId="0">
       <text>
         <r>
@@ -1185,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="286">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2038,6 +2061,12 @@
   </si>
   <si>
     <t xml:space="preserve">alertgene.3.times.a.day (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>empath (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>socializing (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2860,10 +2889,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2954,27 +2979,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2990,24 +2995,52 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3024,15 +3057,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3355,13 +3384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3372,25 +3401,39 @@
     <col min="4" max="4" width="46.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.85546875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="76.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-    </row>
-    <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1">
+        <f>MATCH(H1, B2:B64, 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3409,15 +3452,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -3427,8 +3470,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="55"/>
+    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A4" s="49"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3441,8 +3484,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3457,12 +3500,12 @@
       <c r="E5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="54"/>
+    <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A6" s="48"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3471,8 +3514,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3491,8 +3534,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="59"/>
+    <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="54"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3509,8 +3552,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="59"/>
+    <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="54"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3527,15 +3570,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="59"/>
+    <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="54"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -3545,8 +3588,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="54"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3563,62 +3606,62 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="54"/>
+      <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="59"/>
+    <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="54"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="59"/>
+    <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="54"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>233</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A15" s="55"/>
       <c r="B15" s="18" t="s">
         <v>262</v>
       </c>
@@ -3628,14 +3671,14 @@
       <c r="D15" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="41" t="s">
         <v>281</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3652,13 +3695,13 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3672,7 +3715,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="18" t="s">
         <v>82</v>
       </c>
@@ -3690,14 +3733,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>208</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -3708,14 +3751,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A21" s="6" t="s">
@@ -3724,7 +3767,7 @@
       <c r="B21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>230</v>
       </c>
       <c r="D21" s="7"/>
@@ -3756,10 +3799,10 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3776,14 +3819,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="51"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3794,7 +3837,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="51"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
@@ -3812,8 +3855,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3830,7 +3873,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="51"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
@@ -3848,7 +3891,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="51"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="17" t="s">
         <v>188</v>
       </c>
@@ -3858,31 +3901,31 @@
       <c r="D29" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>255</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3902,7 +3945,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="12" t="s">
         <v>117</v>
       </c>
@@ -3920,7 +3963,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="18" t="s">
         <v>122</v>
       </c>
@@ -3938,7 +3981,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="18" t="s">
         <v>127</v>
       </c>
@@ -3956,7 +3999,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A35" s="55"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="18" t="s">
         <v>132</v>
       </c>
@@ -3968,7 +4011,7 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -3988,7 +4031,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="7" t="s">
         <v>182</v>
       </c>
@@ -4006,7 +4049,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="60"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="18" t="s">
         <v>85</v>
       </c>
@@ -4067,7 +4110,7 @@
       <c r="C42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E42" s="18" t="s">
@@ -4081,20 +4124,24 @@
       <c r="A43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9"/>
+      <c r="E43" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4109,13 +4156,13 @@
       <c r="E44" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="22" t="s">
         <v>191</v>
       </c>
       <c r="C45" s="7"/>
@@ -4124,7 +4171,7 @@
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="53" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -4144,11 +4191,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="59"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -4162,8 +4209,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="59"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4180,7 +4227,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="59"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="10" t="s">
         <v>198</v>
       </c>
@@ -4198,7 +4245,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="59"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="10" t="s">
         <v>203</v>
       </c>
@@ -4208,7 +4255,7 @@
       <c r="D50" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="25" t="s">
         <v>168</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -4216,7 +4263,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="59"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="17" t="s">
         <v>160</v>
       </c>
@@ -4226,7 +4273,7 @@
       <c r="D51" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>236</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -4234,17 +4281,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="60"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="41" t="s">
         <v>241</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -4252,7 +4299,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -4272,11 +4319,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="18" t="s">
         <v>164</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -4290,17 +4337,17 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -4315,16 +4362,16 @@
       <c r="E56" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="41" t="s">
+      <c r="A57" s="62"/>
+      <c r="B57" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="36" t="s">
         <v>206</v>
       </c>
       <c r="D57" s="18" t="s">
@@ -4333,35 +4380,35 @@
       <c r="E57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="32" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="62"/>
+      <c r="B58" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>274</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
     </row>
     <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="63" t="s">
         <v>215</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="41" t="s">
         <v>218</v>
       </c>
       <c r="E59" s="18" t="s">
@@ -4372,42 +4419,42 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="40" t="s">
+      <c r="A60" s="64"/>
+      <c r="B60" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="40" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C62" s="18" t="s">
@@ -4423,28 +4470,28 @@
       <c r="A63" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="40"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -4453,28 +4500,28 @@
       <c r="C65" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="32" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="11.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="28" t="s">
+      <c r="A66" s="59"/>
+      <c r="B66" s="27" t="s">
         <v>183</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="37" t="s">
         <v>266</v>
       </c>
       <c r="F66" s="16"/>
@@ -4492,69 +4539,71 @@
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="1:6" ht="11.25">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="48"/>
+      <c r="C69" s="67"/>
     </row>
     <row r="70" spans="1:6" ht="11.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="47" t="s">
+      <c r="A70" s="59"/>
+      <c r="B70" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="48"/>
+      <c r="C70" s="67"/>
     </row>
     <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="47" t="s">
+      <c r="A71" s="59"/>
+      <c r="B71" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="48"/>
+      <c r="C71" s="67"/>
     </row>
     <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="47" t="s">
+      <c r="A72" s="59"/>
+      <c r="B72" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="48"/>
+      <c r="C72" s="67"/>
     </row>
     <row r="73" spans="1:6" ht="11.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="47" t="s">
+      <c r="A73" s="59"/>
+      <c r="B73" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="48"/>
+      <c r="C73" s="67"/>
     </row>
     <row r="74" spans="1:6" ht="11.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="47" t="s">
+      <c r="A74" s="59"/>
+      <c r="B74" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="48"/>
+      <c r="C74" s="67"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A31:A35"/>
@@ -4564,14 +4613,20 @@
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>$B$2:$B$64</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>$C$2:$C$64</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="5-HT1A receptor" display="https://en.wikipedia.org/wiki/5-HT1A_receptor"/>
   </hyperlinks>
@@ -4579,4 +4634,19 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="C26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
+    <comment ref="F27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0">
+    <comment ref="E32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -618,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="C36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -642,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0">
+    <comment ref="C37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0">
+    <comment ref="E44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0">
+    <comment ref="B47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -782,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0">
+    <comment ref="D48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -806,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0">
+    <comment ref="C49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0">
+    <comment ref="C50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -844,7 +844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0">
+    <comment ref="F52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -892,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="E54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0">
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -930,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0">
+    <comment ref="C59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B58" authorId="0">
+    <comment ref="B60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -976,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0">
+    <comment ref="D60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -998,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="0">
+    <comment ref="E61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0">
+    <comment ref="D62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="0">
+    <comment ref="F67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0">
+    <comment ref="E68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1123,7 +1123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1161,7 +1161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="288">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2067,6 +2067,12 @@
   </si>
   <si>
     <t>socializing (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>2.5% lidocaine+2.5% prilocain topically</t>
+  </si>
+  <si>
+    <t>2.5% lidocaine+2.5% prilocain orally</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2813,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2981,6 +2987,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3387,10 +3397,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:C70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3414,13 +3424,13 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3428,12 +3438,12 @@
         <v>48</v>
       </c>
       <c r="J1" s="1">
-        <f>MATCH(H1, B2:B64, 0)</f>
+        <f>MATCH(H1, B2:B66, 0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3453,7 +3463,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="41" t="s">
         <v>33</v>
       </c>
@@ -3471,7 +3481,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3485,7 +3495,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3505,7 +3515,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3525,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3535,7 +3545,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3553,7 +3563,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3571,7 +3581,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3589,7 +3599,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3607,7 +3617,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
@@ -3625,7 +3635,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3642,8 +3652,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="54"/>
+    <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A14" s="55"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3661,970 +3671,990 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="18" t="s">
-        <v>262</v>
+      <c r="A15" s="56"/>
+      <c r="B15" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>281</v>
-      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A17" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="53" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C19" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="18" t="s">
+    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A20" s="55"/>
+      <c r="B20" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="17" t="s">
+    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="55"/>
+      <c r="B21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="23" t="s">
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A21" s="6" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A26" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B26" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A27" s="58"/>
+      <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D27" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="18" t="s">
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A28" s="58"/>
+      <c r="B28" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="23" t="s">
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A29" s="58"/>
+      <c r="B29" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="18" t="s">
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A30" s="58"/>
+      <c r="B30" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="17" t="s">
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A31" s="58"/>
+      <c r="B31" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E31" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F31" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="23" t="s">
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C32" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D32" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E32" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="47" t="s">
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A33" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E33" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="12" t="s">
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A34" s="49"/>
+      <c r="B34" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F34" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A36" s="49"/>
+      <c r="B36" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A36" s="53" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A38" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B38" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E38" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="7" t="s">
+    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A39" s="55"/>
+      <c r="B39" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E39" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="55"/>
-      <c r="B38" s="18" t="s">
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="7"/>
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="17" t="s">
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D45" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="60" t="s">
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A46" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F46" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="61"/>
-      <c r="B45" s="22" t="s">
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A47" s="62"/>
+      <c r="B47" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A46" s="53" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A48" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B48" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="17" t="s">
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A49" s="55"/>
+      <c r="B49" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="54"/>
-      <c r="B48" s="22" t="s">
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A50" s="55"/>
+      <c r="B50" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="54"/>
-      <c r="B49" s="10" t="s">
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A51" s="55"/>
+      <c r="B51" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="10" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A52" s="55"/>
+      <c r="B52" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D52" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E52" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="17" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A53" s="55"/>
+      <c r="B53" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E53" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="55"/>
-      <c r="B52" s="14" t="s">
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A54" s="56"/>
+      <c r="B54" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D54" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E54" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F54" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="53" t="s">
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A55" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B55" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="28" t="s">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="55"/>
+      <c r="B56" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F56" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="55"/>
-      <c r="B55" s="29" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A57" s="56"/>
+      <c r="B57" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A56" s="62" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A58" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F58" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="62"/>
-      <c r="B57" s="40" t="s">
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="63"/>
+      <c r="B59" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C59" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D59" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F59" s="41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="62"/>
-      <c r="B58" s="23" t="s">
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A60" s="63"/>
+      <c r="B60" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C60" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="63" t="s">
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A61" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C61" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D61" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E61" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F61" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="39" t="s">
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A62" s="65"/>
+      <c r="B62" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C62" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D62" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E62" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F62" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A61" s="65"/>
-      <c r="B61" s="39" t="s">
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A63" s="66"/>
+      <c r="B63" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C63" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D63" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-    </row>
-    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A62" s="5" t="s">
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+    </row>
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A64" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B64" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C64" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A63" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="59" t="s">
+    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A65" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A66" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A67" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B67" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D67" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E67" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F67" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="11.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="27" t="s">
+    <row r="68" spans="1:6" ht="11.25">
+      <c r="A68" s="60"/>
+      <c r="B68" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D68" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E68" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" ht="11.25">
-      <c r="A67" s="21" t="s">
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" ht="11.25">
+      <c r="A69" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="27" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A70" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B70" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-    </row>
-    <row r="69" spans="1:6" ht="11.25">
-      <c r="A69" s="59" t="s">
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+    </row>
+    <row r="71" spans="1:6" ht="11.25">
+      <c r="A71" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B71" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="67"/>
-    </row>
-    <row r="70" spans="1:6" ht="11.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="66" t="s">
+      <c r="C71" s="68"/>
+    </row>
+    <row r="72" spans="1:6" ht="11.25">
+      <c r="A72" s="60"/>
+      <c r="B72" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="67"/>
-    </row>
-    <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="66" t="s">
+      <c r="C72" s="68"/>
+    </row>
+    <row r="73" spans="1:6" ht="11.25">
+      <c r="A73" s="60"/>
+      <c r="B73" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="67"/>
-    </row>
-    <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="66" t="s">
+      <c r="C73" s="68"/>
+    </row>
+    <row r="74" spans="1:6" ht="11.25">
+      <c r="A74" s="60"/>
+      <c r="B74" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="67"/>
-    </row>
-    <row r="73" spans="1:6" ht="11.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="66" t="s">
+      <c r="C74" s="68"/>
+    </row>
+    <row r="75" spans="1:6" ht="11.25">
+      <c r="A75" s="60"/>
+      <c r="B75" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="67"/>
-    </row>
-    <row r="74" spans="1:6" ht="11.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="66" t="s">
+      <c r="C75" s="68"/>
+    </row>
+    <row r="76" spans="1:6" ht="11.25">
+      <c r="A76" s="60"/>
+      <c r="B76" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="67"/>
+      <c r="C76" s="68"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A71:A76"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>$B$2:$B$64</formula1>
+      <formula1>$B$2:$B$66</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>$C$2:$C$64</formula1>
+      <formula1>$C$2:$C$66</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -323,6 +323,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>happened when withdrawing from anti histamine</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B20" authorId="0">
       <text>
         <r>
@@ -1208,7 +1232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="290">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2073,6 +2097,12 @@
   </si>
   <si>
     <t>2.5% lidocaine+2.5% prilocain orally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumbly coding (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>mood stabilization (intial ↓, LT↓);</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2843,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2993,6 +3023,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3005,6 +3067,40 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3014,64 +3110,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3399,8 +3437,8 @@
   </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3424,13 +3462,13 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3443,7 +3481,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3463,7 +3501,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="41" t="s">
         <v>33</v>
       </c>
@@ -3481,7 +3519,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3495,7 +3533,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3515,7 +3553,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="49"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3525,7 +3563,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3545,7 +3583,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="55"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3563,7 +3601,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3581,7 +3619,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="55"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3599,7 +3637,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="55"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3617,7 +3655,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
@@ -3635,7 +3673,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3653,7 +3691,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="55"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3671,17 +3709,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="56"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="13" t="s">
         <v>277</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>283</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
@@ -3703,7 +3742,9 @@
       <c r="B17" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -3725,7 +3766,7 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="45" t="s">
@@ -3745,7 +3786,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="55"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="18" t="s">
         <v>82</v>
       </c>
@@ -3763,7 +3804,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="55"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="17" t="s">
         <v>87</v>
       </c>
@@ -3781,7 +3822,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="23" t="s">
         <v>267</v>
       </c>
@@ -3829,7 +3870,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -3849,7 +3890,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="58"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
@@ -3867,7 +3908,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="58"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="18" t="s">
         <v>99</v>
       </c>
@@ -3885,7 +3926,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="58"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="23" t="s">
         <v>9</v>
       </c>
@@ -3903,7 +3944,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="58"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="18" t="s">
         <v>108</v>
       </c>
@@ -3921,7 +3962,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="58"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="17" t="s">
         <v>188</v>
       </c>
@@ -3939,7 +3980,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A32" s="59"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="23" t="s">
         <v>85</v>
       </c>
@@ -3955,7 +3996,7 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -3975,7 +4016,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="12" t="s">
         <v>117</v>
       </c>
@@ -3993,7 +4034,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="49"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="18" t="s">
         <v>122</v>
       </c>
@@ -4011,7 +4052,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="49"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="18" t="s">
         <v>127</v>
       </c>
@@ -4029,7 +4070,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="18" t="s">
         <v>132</v>
       </c>
@@ -4041,7 +4082,7 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -4061,7 +4102,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="55"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="7" t="s">
         <v>182</v>
       </c>
@@ -4079,7 +4120,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="56"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="18" t="s">
         <v>85</v>
       </c>
@@ -4171,7 +4212,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -4191,7 +4232,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="22" t="s">
         <v>191</v>
       </c>
@@ -4201,7 +4242,7 @@
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="17" t="s">
@@ -4221,7 +4262,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="55"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="17" t="s">
         <v>153</v>
       </c>
@@ -4239,7 +4280,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="55"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="22" t="s">
         <v>158</v>
       </c>
@@ -4257,7 +4298,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="55"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="10" t="s">
         <v>198</v>
       </c>
@@ -4275,7 +4316,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="55"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="10" t="s">
         <v>203</v>
       </c>
@@ -4293,7 +4334,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="55"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="17" t="s">
         <v>160</v>
       </c>
@@ -4311,7 +4352,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="56"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="14" t="s">
         <v>238</v>
       </c>
@@ -4329,7 +4370,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="19" t="s">
@@ -4349,7 +4390,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="55"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="28" t="s">
         <v>163</v>
       </c>
@@ -4367,7 +4408,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A57" s="56"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="29" t="s">
         <v>244</v>
       </c>
@@ -4377,7 +4418,7 @@
       <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -4397,7 +4438,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="63"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="40" t="s">
         <v>174</v>
       </c>
@@ -4415,7 +4456,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A60" s="63"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="23" t="s">
         <v>263</v>
       </c>
@@ -4429,7 +4470,7 @@
       <c r="F60" s="36"/>
     </row>
     <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="65" t="s">
         <v>215</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -4449,7 +4490,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="65"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="39" t="s">
         <v>268</v>
       </c>
@@ -4467,7 +4508,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="39" t="s">
         <v>273</v>
       </c>
@@ -4515,16 +4556,18 @@
       <c r="B66" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="40"/>
+      <c r="C66" s="49" t="s">
+        <v>289</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="48" t="s">
         <v>165</v>
       </c>
       <c r="C67" s="15" t="s">
@@ -4541,7 +4584,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="11.25">
-      <c r="A68" s="60"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="27" t="s">
         <v>183</v>
       </c>
@@ -4581,59 +4624,57 @@
       <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="C71" s="68"/>
+      <c r="C71" s="51"/>
     </row>
     <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="60"/>
-      <c r="B72" s="67" t="s">
+      <c r="A72" s="52"/>
+      <c r="B72" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="68"/>
+      <c r="C72" s="51"/>
     </row>
     <row r="73" spans="1:6" ht="11.25">
-      <c r="A73" s="60"/>
-      <c r="B73" s="67" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="68"/>
+      <c r="C73" s="51"/>
     </row>
     <row r="74" spans="1:6" ht="11.25">
-      <c r="A74" s="60"/>
-      <c r="B74" s="67" t="s">
+      <c r="A74" s="52"/>
+      <c r="B74" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="68"/>
+      <c r="C74" s="51"/>
     </row>
     <row r="75" spans="1:6" ht="11.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="67" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="C75" s="68"/>
+      <c r="C75" s="51"/>
     </row>
     <row r="76" spans="1:6" ht="11.25">
-      <c r="A76" s="60"/>
-      <c r="B76" s="67" t="s">
+      <c r="A76" s="52"/>
+      <c r="B76" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="68"/>
+      <c r="C76" s="51"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A33:A37"/>
@@ -4643,11 +4684,13 @@
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -385,6 +385,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://you.com/search?q=%22The+reward+system+in+the+brain+consists+of+a+collection+of+brain+structures+and+neural+pathways.+It+plays+a+crucial+role+in+various+behaviors%2C+including+appetitive+behavior%2C+approach+behavior%2C+preparatory+behavior%2C+instrumental+behavior%2C+anticipatory+behavior%2C+seeking%2C+consummatory+behavior%2C+and+taking+behavior+%22+what+the+central+controler+of+reinforcement+learning%2C+and+preparatory+behavior+&amp;cid=c1_5e04d85d-04cf-475a-9d4b-6e3cd19cdcdf&amp;tbm=youchat</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B26" authorId="0">
       <text>
         <r>
@@ -752,7 +776,125 @@
         </r>
       </text>
     </comment>
+    <comment ref="E45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>idrak (intial ↑, LT↑); byproduct</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>arabic, acting good without feeling good was because idrak you saw it there, you got more avidance to be comfortable none scraed</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>idrak (intial ↑, LT↑); byproduct</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>going back on cascade of last think you thinked in assumble way</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">fluid intelegance more available without decreasing cerstalized intelegence, due to </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+reverse recalling (intial ↑, LT↑);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0">
+    <comment ref="A49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -806,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0">
+    <comment ref="D49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -830,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0">
+    <comment ref="C50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -844,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -868,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
+    <comment ref="F53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -892,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0">
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0">
+    <comment ref="C56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0">
+    <comment ref="C60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -978,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="0">
+    <comment ref="B61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0">
+    <comment ref="D61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="0">
+    <comment ref="E62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0">
+    <comment ref="D63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1210,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="0">
+    <comment ref="B66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">the anti TD/static.legs (intial ↑, LT↑);, was causing this in thought stream
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">the best way to get this fn is blocking histamine not inceasing it due to blocking It make ideas accumulate intul you reach a point here you just want to excute them </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="0">
+    <comment ref="F69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1121,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0">
+    <comment ref="E70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0">
+    <comment ref="B71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1171,7 +1340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="302">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2103,6 +2272,42 @@
   </si>
   <si>
     <t>mood stabilization (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>clover</t>
+  </si>
+  <si>
+    <t>conseptual thinking (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>delay gratification (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>getting lost (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>quality of life (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>comfortable static lips (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mania (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">workaholism (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>idrak (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>reverse recalling (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>fluid intelegence (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2774,6 +2979,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2843,7 +3079,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -3015,10 +3251,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3031,6 +3263,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3101,6 +3349,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3112,6 +3366,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -3435,10 +3695,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3462,13 +3722,13 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3476,12 +3736,12 @@
         <v>48</v>
       </c>
       <c r="J1" s="1">
-        <f>MATCH(H1, B2:B66, 0)</f>
+        <f>MATCH(H1, B2:B68, 0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3501,7 +3761,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="41" t="s">
         <v>33</v>
       </c>
@@ -3519,7 +3779,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3533,7 +3793,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="76" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3553,7 +3813,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="57"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +3823,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3583,7 +3843,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="62"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3601,7 +3861,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="62"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3619,7 +3879,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3637,7 +3897,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="62"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3655,7 +3915,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
@@ -3673,7 +3933,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3691,7 +3951,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3709,7 +3969,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="63"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>277</v>
       </c>
@@ -3724,15 +3984,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>286</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
@@ -3766,7 +4032,7 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="45" t="s">
@@ -3786,7 +4052,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="18" t="s">
         <v>82</v>
       </c>
@@ -3804,7 +4070,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="17" t="s">
         <v>87</v>
       </c>
@@ -3822,12 +4088,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A22" s="63"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>293</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="38"/>
     </row>
@@ -3870,7 +4140,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="56" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -3890,7 +4160,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="54"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
@@ -3908,7 +4178,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="18" t="s">
         <v>99</v>
       </c>
@@ -3926,7 +4196,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="23" t="s">
         <v>9</v>
       </c>
@@ -3944,7 +4214,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="54"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="18" t="s">
         <v>108</v>
       </c>
@@ -3962,7 +4232,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="17" t="s">
         <v>188</v>
       </c>
@@ -3980,7 +4250,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="23" t="s">
         <v>85</v>
       </c>
@@ -3996,7 +4266,7 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4016,7 +4286,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="57"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="12" t="s">
         <v>117</v>
       </c>
@@ -4034,7 +4304,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="57"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="18" t="s">
         <v>122</v>
       </c>
@@ -4052,7 +4322,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="57"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="18" t="s">
         <v>127</v>
       </c>
@@ -4070,7 +4340,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="18" t="s">
         <v>132</v>
       </c>
@@ -4082,7 +4352,7 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="64" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -4102,7 +4372,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="7" t="s">
         <v>182</v>
       </c>
@@ -4120,7 +4390,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="63"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="18" t="s">
         <v>85</v>
       </c>
@@ -4192,7 +4462,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="71" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="22" t="s">
@@ -4201,7 +4471,7 @@
       <c r="C45" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="51" t="s">
         <v>225</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -4212,492 +4482,531 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="72"/>
+      <c r="B46" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A47" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F47" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="22" t="s">
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A48" s="63"/>
+      <c r="B48" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A48" s="61" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A49" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B49" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="17" t="s">
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A50" s="65"/>
+      <c r="B50" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D50" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="62"/>
-      <c r="B50" s="22" t="s">
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A51" s="65"/>
+      <c r="B51" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="62"/>
-      <c r="B51" s="10" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A52" s="65"/>
+      <c r="B52" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="62"/>
-      <c r="B52" s="10" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A53" s="65"/>
+      <c r="B53" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E53" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="17" t="s">
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E54" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="14" t="s">
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D55" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E55" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="61" t="s">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B56" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="62"/>
-      <c r="B56" s="28" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A57" s="65"/>
+      <c r="B57" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F57" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="29" t="s">
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="64" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A59" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F59" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="64"/>
-      <c r="B59" s="40" t="s">
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A60" s="67"/>
+      <c r="B60" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C60" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F60" s="41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="23" t="s">
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A61" s="67"/>
+      <c r="B61" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C61" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D61" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-    </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="65" t="s">
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+    </row>
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A62" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C62" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D62" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E62" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F62" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="39" t="s">
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A63" s="69"/>
+      <c r="B63" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C63" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D63" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E63" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F63" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A63" s="67"/>
-      <c r="B63" s="39" t="s">
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A64" s="70"/>
+      <c r="B64" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C64" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D64" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-    </row>
-    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A64" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
     </row>
     <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A65" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A66" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="49" t="s">
-        <v>289</v>
-      </c>
+    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A66" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="52" t="s">
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A67" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A68" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A69" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B69" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D69" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E69" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F69" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="11.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="27" t="s">
+    <row r="70" spans="1:6" ht="11.25">
+      <c r="A70" s="55"/>
+      <c r="B70" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D70" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E70" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" ht="11.25">
-      <c r="A69" s="21" t="s">
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="1:6" ht="11.25">
+      <c r="A71" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B71" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A70" s="27" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A72" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B72" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-    </row>
-    <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="52" t="s">
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+    </row>
+    <row r="73" spans="1:6" ht="11.25">
+      <c r="A73" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B73" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C71" s="51"/>
-    </row>
-    <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="50" t="s">
+      <c r="C73" s="54"/>
+    </row>
+    <row r="74" spans="1:6" ht="11.25">
+      <c r="A74" s="55"/>
+      <c r="B74" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="51"/>
-    </row>
-    <row r="73" spans="1:6" ht="11.25">
-      <c r="A73" s="52"/>
-      <c r="B73" s="50" t="s">
+      <c r="C74" s="54"/>
+    </row>
+    <row r="75" spans="1:6" ht="11.25">
+      <c r="A75" s="55"/>
+      <c r="B75" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="51"/>
-    </row>
-    <row r="74" spans="1:6" ht="11.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="50" t="s">
+      <c r="C75" s="54"/>
+    </row>
+    <row r="76" spans="1:6" ht="11.25">
+      <c r="A76" s="55"/>
+      <c r="B76" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="51"/>
-    </row>
-    <row r="75" spans="1:6" ht="11.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="50" t="s">
+      <c r="C76" s="54"/>
+    </row>
+    <row r="77" spans="1:6" ht="11.25">
+      <c r="A77" s="55"/>
+      <c r="B77" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="C75" s="51"/>
-    </row>
-    <row r="76" spans="1:6" ht="11.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="50" t="s">
+      <c r="C77" s="54"/>
+    </row>
+    <row r="78" spans="1:6" ht="11.25">
+      <c r="A78" s="55"/>
+      <c r="B78" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C78" s="54"/>
+    </row>
+    <row r="79" spans="1:6" ht="11.25">
+      <c r="A79" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B79" s="50" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
     <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A73:A78"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>$B$2:$B$66</formula1>
+      <formula1>$B$2:$B$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>$C$2:$C$66</formula1>
+      <formula1>$C$2:$C$68</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="F16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>happened when withdrawing from anti histamine</t>
+          <t>normal baseline that used to accupcy working memory</t>
         </r>
         <r>
           <rPr>
@@ -347,21 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>trying to find something increase compliance, a feeling certical for goal directed behaviors.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +357,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>room was spatial , this sendboxing technique don't alert plasticity wholesome of it not gived good results</t>
+          <t>happened when withdrawing from anti histamine</t>
         </r>
         <r>
           <rPr>
@@ -385,7 +371,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>trying to find something increase compliance, a feeling certical for goal directed behaviors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>https://you.com/search?q=%22The+reward+system+in+the+brain+consists+of+a+collection+of+brain+structures+and+neural+pathways.+It+plays+a+crucial+role+in+various+behaviors%2C+including+appetitive+behavior%2C+approach+behavior%2C+preparatory+behavior%2C+instrumental+behavior%2C+anticipatory+behavior%2C+seeking%2C+consummatory+behavior%2C+and+taking+behavior+%22+what+the+central+controler+of+reinforcement+learning%2C+and+preparatory+behavior+&amp;cid=c1_5e04d85d-04cf-475a-9d4b-6e3cd19cdcdf&amp;tbm=youchat</t>
+          <t>room was spatial , this sendboxing technique don't alert plasticity wholesome of it not gived good results</t>
         </r>
         <r>
           <rPr>
@@ -409,7 +409,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="C24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://you.com/search?q=%22The+reward+system+in+the+brain+consists+of+a+collection+of+brain+structures+and+neural+pathways.+It+plays+a+crucial+role+in+various+behaviors%2C+including+appetitive+behavior%2C+approach+behavior%2C+preparatory+behavior%2C+instrumental+behavior%2C+anticipatory+behavior%2C+seeking%2C+consummatory+behavior%2C+and+taking+behavior+%22+what+the+central+controler+of+reinforcement+learning%2C+and+preparatory+behavior+&amp;cid=c1_5e04d85d-04cf-475a-9d4b-6e3cd19cdcdf&amp;tbm=youchat</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0">
+    <comment ref="F32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -522,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="D34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="E37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="C39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -666,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0">
+    <comment ref="C42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0">
+    <comment ref="E49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0">
+    <comment ref="E50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -824,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -848,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0">
+    <comment ref="D51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0">
+    <comment ref="B52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
+    <comment ref="B53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0">
+    <comment ref="A54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0">
+    <comment ref="D54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0">
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -986,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="0">
+    <comment ref="F58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0">
+    <comment ref="C60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="E60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0">
+    <comment ref="C65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0">
+    <comment ref="B66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0">
+    <comment ref="D66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0">
+    <comment ref="E67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D63" authorId="0">
+    <comment ref="D68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0">
+    <comment ref="B71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0">
+    <comment ref="D74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1237,7 +1261,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0">
+    <comment ref="E74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>going out without getting switted consquences of low anxiety</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+potent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>you can load the details of image without trigring cratcal thinking</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1252,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0">
+    <comment ref="B82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="0">
+    <comment ref="F82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E70" authorId="0">
+    <comment ref="E83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1316,7 +1388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1340,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1350,11 +1422,121 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t>for me its self-efficacy, refuse to fack it more, and none acceptance for less then the target</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">D2 perfectionism
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>by product of learnedhopelessness</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(intial ↑, LT↑);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>by product of learnedhopelessness (intial ↑, LT↑);</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>and seek indepandancy whatever I can</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>programming</t>
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="0">
+    <comment ref="B91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1401,7 +1583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="369">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2308,6 +2490,207 @@
   </si>
   <si>
     <t>fluid intelegence (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>learnedhopelessness (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>learnedhopelessness.enjoy helping people (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>learnedhopelessness (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>self-efficacy (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>refuse to fack it more (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>none acceptance (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refuse to fack it more  (intial↓, LTl↓); </t>
+  </si>
+  <si>
+    <t>feminine acceptance that I can't</t>
+  </si>
+  <si>
+    <t>self subjected complaint (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>[lamotrigine+histamine-+lidocaine]==&gt;self esteem (intial ↑, LT↑); + self subjected complaint (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>negativity.thought stream (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>uncreatianity (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>drunk-like-state (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>feeling-happy (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>voisual enchancemnt.novelty  (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>cognitive framwork.you need to sleep (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>body comfort (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>feeling of happyness in neck (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>histamine excitement.reaction (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>asetylcholinic.idrak.touched  (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>linking.untouched (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>rewarding graphes (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>n't.want.go deep.using.exp satisfied rewawrdngly (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>buttom-control.touched (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>cognitive-framwork.touched (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>change.place.used.stand.in (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>deep.thinking.overwrition.habit-waiting.top-down.control.time (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>spatial.memory (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arbitary (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stifacion (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>saffron</t>
+  </si>
+  <si>
+    <t>arbitary (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body high (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>paranoia (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>benzo</t>
+  </si>
+  <si>
+    <t>Passivity (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>Resignation (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>clover tea</t>
+  </si>
+  <si>
+    <t>narrccistic mode.out (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>detailes observication (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>nmda antagonist</t>
+  </si>
+  <si>
+    <t>curcumin black pipe smock</t>
+  </si>
+  <si>
+    <t>euphoria (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>D2-depandant.reasoneaning (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>don't like being depandant (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>off nmda antagonist</t>
+  </si>
+  <si>
+    <t>conversion of a silent synapse to an active one (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>reward sensivity (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>arousal (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>overlearned bahavior of dlpfc (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>back method (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>metacognition (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>lemon palm</t>
+  </si>
+  <si>
+    <t>amygadal.bademotion.inhibition (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>faster ltd (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>problem.appreceation (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>d2.bad part amygadal (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>dlpfc preception (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>envronment cleaness (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>sleepness (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>tradive dekthia (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>reward tweaks (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>d2.induce locomotion (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>amygdala.inhibited increased heart rate (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amygdala.sweating (intial↓, LTl↓);  </t>
+  </si>
+  <si>
+    <t>amygdala.increased heightened attention (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -2550,7 +2933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -3010,6 +3393,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3079,7 +3486,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -3209,6 +3616,108 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3221,57 +3730,35 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3291,6 +3778,46 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3309,68 +3836,12 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3695,10 +4166,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3722,13 +4193,13 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3736,12 +4207,12 @@
         <v>48</v>
       </c>
       <c r="J1" s="1">
-        <f>MATCH(H1, B2:B68, 0)</f>
+        <f>MATCH(H1, B2:B74, 0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3761,8 +4232,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3779,7 +4250,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -3793,7 +4264,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="90" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3813,17 +4284,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="60"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="78" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3843,7 +4316,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="62"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -3861,7 +4334,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="62"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3879,7 +4352,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -3897,7 +4370,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="62"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3915,7 +4388,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
@@ -3933,7 +4406,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -3951,7 +4424,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -3969,7 +4442,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="63"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="13" t="s">
         <v>277</v>
       </c>
@@ -3984,7 +4457,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="92" t="s">
         <v>286</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -3999,1014 +4472,1273 @@
       <c r="E16" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="93"/>
+      <c r="B17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A19" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B19" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="61" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="18" t="s">
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A22" s="79"/>
+      <c r="B22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="17" t="s">
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A23" s="79"/>
+      <c r="B23" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="23" t="s">
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A24" s="80"/>
+      <c r="B24" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C24" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C25" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A26" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A27" s="79"/>
+      <c r="B27" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A28" s="79"/>
+      <c r="B28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A29" s="80"/>
+      <c r="B29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A31" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B31" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="2" t="s">
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A32" s="70"/>
+      <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D32" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="18" t="s">
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A33" s="70"/>
+      <c r="B33" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E33" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F33" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="23" t="s">
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A34" s="70"/>
+      <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F34" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="18" t="s">
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A35" s="70"/>
+      <c r="B35" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E35" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F35" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="17" t="s">
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A36" s="70"/>
+      <c r="B36" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E36" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F36" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="23" t="s">
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A37" s="71"/>
+      <c r="B37" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C37" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D37" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E37" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A38" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E38" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F38" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="12" t="s">
+    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A39" s="74"/>
+      <c r="B39" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="18" t="s">
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A40" s="74"/>
+      <c r="B40" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="18" t="s">
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="18" t="s">
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A42" s="75"/>
+      <c r="B42" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="61" t="s">
+      <c r="D42" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B43" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E43" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A39" s="62"/>
-      <c r="B39" s="7" t="s">
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A44" s="79"/>
+      <c r="B44" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="18" t="s">
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="80"/>
+      <c r="B45" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A41" s="3" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B46" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="5" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="5" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A46" s="75"/>
-      <c r="B46" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A48" s="69"/>
-      <c r="B48" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A49" s="61" t="s">
+    <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A50" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A51" s="86"/>
+      <c r="B51" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A52" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A53" s="77"/>
+      <c r="B53" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A54" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B54" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A50" s="62"/>
-      <c r="B50" s="17" t="s">
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A55" s="79"/>
+      <c r="B55" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C55" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F55" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A51" s="62"/>
-      <c r="B51" s="22" t="s">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="79"/>
+      <c r="B56" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A52" s="62"/>
-      <c r="B52" s="10" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A57" s="79"/>
+      <c r="B57" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C57" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="10" t="s">
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A58" s="79"/>
+      <c r="B58" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D58" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E58" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="62"/>
-      <c r="B54" s="17" t="s">
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="79"/>
+      <c r="B59" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D59" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E59" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="14" t="s">
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A60" s="80"/>
+      <c r="B60" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D60" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E60" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F60" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="61" t="s">
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A61" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B61" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="62"/>
-      <c r="B57" s="28" t="s">
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A62" s="79"/>
+      <c r="B62" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F62" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="29" t="s">
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A63" s="80"/>
+      <c r="B63" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A59" s="70" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A64" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F64" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="70"/>
-      <c r="B60" s="40" t="s">
+    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A65" s="81"/>
+      <c r="B65" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C65" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D65" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F65" s="40" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A61" s="70"/>
-      <c r="B61" s="23" t="s">
+    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A66" s="81"/>
+      <c r="B66" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C66" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-    </row>
-    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="71" t="s">
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A67" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C67" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D67" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E67" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F67" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="72"/>
-      <c r="B63" s="39" t="s">
+    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A68" s="83"/>
+      <c r="B68" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C68" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D68" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E68" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F68" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="49" t="s">
+    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A69" s="84"/>
+      <c r="B69" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C69" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D69" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-    </row>
-    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A65" s="5" t="s">
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+    </row>
+    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A70" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B70" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A66" s="5" t="s">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A71" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B71" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A67" s="5" t="s">
+      <c r="C71" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A72" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A73" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B73" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="35" t="s">
+      <c r="C73" s="34"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A74" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B74" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C74" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D74" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A69" s="67" t="s">
+      <c r="E74" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A75" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+    </row>
+    <row r="76" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A76" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B76" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+    </row>
+    <row r="77" spans="1:6" ht="12" thickBot="1">
+      <c r="A77" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" ht="12" thickBot="1">
+      <c r="A78" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="12" thickBot="1">
+      <c r="A79" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+    </row>
+    <row r="80" spans="1:6" ht="12" thickBot="1">
+      <c r="A80" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B80" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="12" thickBot="1">
+      <c r="A81" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="F81" s="58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A82" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B82" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D82" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E82" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F82" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="11.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="27" t="s">
+    <row r="83" spans="1:6" ht="11.25">
+      <c r="A83" s="72"/>
+      <c r="B83" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C83" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D83" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E83" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="21" t="s">
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="1:6" ht="11.25">
+      <c r="A84" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B84" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A72" s="27" t="s">
+      <c r="C84" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="E84" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="F84" s="60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="11.25">
+      <c r="A85" s="68"/>
+      <c r="B85" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85" s="60" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A86" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B86" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-    </row>
-    <row r="73" spans="1:6" ht="11.25">
-      <c r="A73" s="67" t="s">
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+    </row>
+    <row r="87" spans="1:6" ht="11.25">
+      <c r="A87" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B87" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="77"/>
-    </row>
-    <row r="74" spans="1:6" ht="11.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="76" t="s">
+      <c r="C87" s="65"/>
+    </row>
+    <row r="88" spans="1:6" ht="11.25">
+      <c r="A88" s="67"/>
+      <c r="B88" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="77"/>
-    </row>
-    <row r="75" spans="1:6" ht="11.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="76" t="s">
+      <c r="C88" s="65"/>
+    </row>
+    <row r="89" spans="1:6" ht="11.25">
+      <c r="A89" s="67"/>
+      <c r="B89" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C75" s="77"/>
-    </row>
-    <row r="76" spans="1:6" ht="11.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="76" t="s">
+      <c r="C89" s="65"/>
+    </row>
+    <row r="90" spans="1:6" ht="11.25">
+      <c r="A90" s="67"/>
+      <c r="B90" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="77"/>
-    </row>
-    <row r="77" spans="1:6" ht="11.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="76" t="s">
+      <c r="C90" s="65"/>
+    </row>
+    <row r="91" spans="1:6" ht="11.25">
+      <c r="A91" s="67"/>
+      <c r="B91" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="C77" s="77"/>
-    </row>
-    <row r="78" spans="1:6" ht="11.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="76" t="s">
+      <c r="C91" s="65"/>
+    </row>
+    <row r="92" spans="1:6" ht="11.25">
+      <c r="A92" s="67"/>
+      <c r="B92" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="77"/>
-    </row>
-    <row r="79" spans="1:6" ht="11.25">
-      <c r="A79" s="50" t="s">
+      <c r="C92" s="65"/>
+    </row>
+    <row r="93" spans="1:6" ht="11.25">
+      <c r="A93" s="68"/>
+      <c r="B93" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="65"/>
+    </row>
+    <row r="94" spans="1:6" ht="11.25">
+      <c r="A94" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B94" s="48" t="s">
         <v>295</v>
+      </c>
+      <c r="C94" s="63" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="22">
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A45:A46"/>
+  <mergeCells count="26">
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>$B$2:$B$68</formula1>
+      <formula1>$B$2:$B$74</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>$C$2:$C$68</formula1>
+      <formula1>$C$2:$C$74</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -1583,7 +1583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="373">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2691,6 +2691,18 @@
   </si>
   <si>
     <t>amygdala.increased heightened attention (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>multitasking</t>
+  </si>
+  <si>
+    <t>enjoyable (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>female.mode have low glocogse resource usage (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>straight hair (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -3486,7 +3498,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -3730,39 +3742,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3778,23 +3770,53 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3818,30 +3840,24 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4166,10 +4182,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4193,13 +4209,13 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4212,7 +4228,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4232,7 +4248,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="74"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="40" t="s">
         <v>33</v>
       </c>
@@ -4250,7 +4266,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="75"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4264,7 +4280,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="74" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4284,7 +4300,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="91"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4296,7 +4312,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4316,7 +4332,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -4334,7 +4350,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="79"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -4352,7 +4368,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="79"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="18" t="s">
         <v>62</v>
       </c>
@@ -4370,7 +4386,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="79"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -4388,7 +4404,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="79"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
@@ -4406,7 +4422,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="79"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
@@ -4424,7 +4440,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="79"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -4442,7 +4458,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="13" t="s">
         <v>277</v>
       </c>
@@ -4457,7 +4473,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="76" t="s">
         <v>286</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -4477,7 +4493,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="93"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="7" t="s">
         <v>335</v>
       </c>
@@ -4495,7 +4511,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="93"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="7" t="s">
         <v>366</v>
       </c>
@@ -4539,7 +4555,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="44" t="s">
@@ -4559,7 +4575,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="79"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="18" t="s">
         <v>82</v>
       </c>
@@ -4577,7 +4593,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="79"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="17" t="s">
         <v>87</v>
       </c>
@@ -4595,7 +4611,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A24" s="80"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="23" t="s">
         <v>267</v>
       </c>
@@ -4623,7 +4639,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="65" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4643,7 +4659,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A27" s="79"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="7" t="s">
         <v>317</v>
       </c>
@@ -4661,7 +4677,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="79"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="7" t="s">
         <v>322</v>
       </c>
@@ -4679,7 +4695,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A29" s="80"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="7" t="s">
         <v>328</v>
       </c>
@@ -4705,7 +4721,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="78" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -4725,7 +4741,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="70"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
@@ -4743,7 +4759,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="70"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="18" t="s">
         <v>99</v>
       </c>
@@ -4761,7 +4777,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="70"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
@@ -4779,7 +4795,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="70"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="18" t="s">
         <v>108</v>
       </c>
@@ -4797,7 +4813,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="70"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="17" t="s">
         <v>188</v>
       </c>
@@ -4815,7 +4831,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="71"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="23" t="s">
         <v>85</v>
       </c>
@@ -4831,7 +4847,7 @@
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="68" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -4851,7 +4867,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="74"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="12" t="s">
         <v>117</v>
       </c>
@@ -4869,7 +4885,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A40" s="74"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="18" t="s">
         <v>122</v>
       </c>
@@ -4887,7 +4903,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="74"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="18" t="s">
         <v>127</v>
       </c>
@@ -4905,7 +4921,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="75"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="18" t="s">
         <v>132</v>
       </c>
@@ -4915,11 +4931,13 @@
       <c r="D42" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="65" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -4939,7 +4957,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="79"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="7" t="s">
         <v>182</v>
       </c>
@@ -4957,7 +4975,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="80"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="18" t="s">
         <v>85</v>
       </c>
@@ -5029,7 +5047,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="88" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -5049,7 +5067,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="86"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="23" t="s">
         <v>299</v>
       </c>
@@ -5065,7 +5083,7 @@
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5085,7 +5103,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="77"/>
+      <c r="A53" s="83"/>
       <c r="B53" s="22" t="s">
         <v>191</v>
       </c>
@@ -5095,7 +5113,7 @@
       <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -5115,7 +5133,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="79"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="17" t="s">
         <v>153</v>
       </c>
@@ -5133,7 +5151,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="79"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="22" t="s">
         <v>158</v>
       </c>
@@ -5151,7 +5169,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="10" t="s">
         <v>198</v>
       </c>
@@ -5169,7 +5187,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="79"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="10" t="s">
         <v>203</v>
       </c>
@@ -5187,7 +5205,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="79"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="17" t="s">
         <v>160</v>
       </c>
@@ -5205,7 +5223,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A60" s="80"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="14" t="s">
         <v>238</v>
       </c>
@@ -5223,7 +5241,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="19" t="s">
@@ -5243,7 +5261,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="79"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="28" t="s">
         <v>163</v>
       </c>
@@ -5261,7 +5279,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A63" s="80"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="29" t="s">
         <v>244</v>
       </c>
@@ -5271,7 +5289,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="84" t="s">
         <v>27</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -5291,7 +5309,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="81"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="39" t="s">
         <v>174</v>
       </c>
@@ -5309,7 +5327,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A66" s="81"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="23" t="s">
         <v>263</v>
       </c>
@@ -5322,7 +5340,7 @@
       <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="85" t="s">
         <v>215</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -5342,7 +5360,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="83"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="38" t="s">
         <v>268</v>
       </c>
@@ -5360,7 +5378,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A69" s="84"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="47" t="s">
         <v>273</v>
       </c>
@@ -5396,7 +5414,7 @@
       <c r="B71" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="23" t="s">
         <v>330</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -5419,7 +5437,9 @@
       <c r="C72" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="23" t="s">
+        <v>372</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
@@ -5556,7 +5576,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A82" s="72" t="s">
+      <c r="A82" s="81" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="45" t="s">
@@ -5576,7 +5596,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="11.25">
-      <c r="A83" s="72"/>
+      <c r="A83" s="81"/>
       <c r="B83" s="27" t="s">
         <v>183</v>
       </c>
@@ -5592,7 +5612,7 @@
       <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:6" ht="11.25">
-      <c r="A84" s="66" t="s">
+      <c r="A84" s="92" t="s">
         <v>228</v>
       </c>
       <c r="B84" s="21" t="s">
@@ -5612,7 +5632,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="11.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="51" t="s">
         <v>307</v>
       </c>
@@ -5642,77 +5662,87 @@
       <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" ht="11.25">
-      <c r="A87" s="66" t="s">
+      <c r="A87" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="C87" s="65"/>
+      <c r="C87" s="91"/>
     </row>
     <row r="88" spans="1:6" ht="11.25">
-      <c r="A88" s="67"/>
-      <c r="B88" s="64" t="s">
+      <c r="A88" s="93"/>
+      <c r="B88" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="65"/>
+      <c r="C88" s="91"/>
     </row>
     <row r="89" spans="1:6" ht="11.25">
-      <c r="A89" s="67"/>
-      <c r="B89" s="64" t="s">
+      <c r="A89" s="93"/>
+      <c r="B89" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="C89" s="65"/>
+      <c r="C89" s="91"/>
     </row>
     <row r="90" spans="1:6" ht="11.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="64" t="s">
+      <c r="A90" s="93"/>
+      <c r="B90" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="65"/>
+      <c r="C90" s="91"/>
     </row>
     <row r="91" spans="1:6" ht="11.25">
-      <c r="A91" s="67"/>
-      <c r="B91" s="64" t="s">
+      <c r="A91" s="93"/>
+      <c r="B91" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="91"/>
     </row>
     <row r="92" spans="1:6" ht="11.25">
-      <c r="A92" s="67"/>
-      <c r="B92" s="64" t="s">
+      <c r="A92" s="93"/>
+      <c r="B92" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="C92" s="65"/>
+      <c r="C92" s="91"/>
     </row>
     <row r="93" spans="1:6" ht="11.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="64" t="s">
+      <c r="A93" s="94"/>
+      <c r="B93" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="C93" s="65"/>
+      <c r="C93" s="91"/>
     </row>
     <row r="94" spans="1:6" ht="11.25">
       <c r="A94" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="64" t="s">
         <v>295</v>
       </c>
       <c r="C94" s="63" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="11.25">
+      <c r="A95" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A38:A42"/>
@@ -5723,15 +5753,13 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -918,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0">
+    <comment ref="A55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0">
+    <comment ref="D55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0">
+    <comment ref="C56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="0">
+    <comment ref="F59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0">
+    <comment ref="C61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0">
+    <comment ref="E61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0">
+    <comment ref="C62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0">
+    <comment ref="C66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1144,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1166,7 +1166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0">
+    <comment ref="D67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E67" authorId="0">
+    <comment ref="E68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0">
+    <comment ref="D69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="0">
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0">
+    <comment ref="D76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0">
+    <comment ref="E76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="0">
+    <comment ref="B79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0">
+    <comment ref="A84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1338,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="0">
+    <comment ref="F84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1362,7 +1362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E83" authorId="0">
+    <comment ref="E85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1388,7 +1388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1412,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="0">
+    <comment ref="D86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="0">
+    <comment ref="B87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C85" authorId="0">
+    <comment ref="C87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1474,7 +1474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D85" authorId="0">
+    <comment ref="D87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1498,7 +1498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F85" authorId="0">
+    <comment ref="F87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1522,7 +1522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="0">
+    <comment ref="B88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="0">
+    <comment ref="B92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B91" authorId="0">
+    <comment ref="B93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="385">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2703,6 +2703,42 @@
   </si>
   <si>
     <t>straight hair (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>PFC.thought block (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>mind shortcut (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>stair sit (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>awwerness.PFC.thought block (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signals (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>stagged moving (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adrenagic.force.use.physical movment (intial ↓, LT↓); </t>
+  </si>
+  <si>
+    <t>adrenagic.reconsolidation.loss (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clothes.lifetime (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">femininety (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beuty (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>problems detecting impossibility.then impossibility overconsolidation (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -3498,7 +3534,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -3559,10 +3595,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3714,10 +3746,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3746,15 +3774,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3770,6 +3830,51 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3796,69 +3901,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -4182,10 +4226,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4209,13 +4253,13 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4223,12 +4267,12 @@
         <v>48</v>
       </c>
       <c r="J1" s="1">
-        <f>MATCH(H1, B2:B74, 0)</f>
+        <f>MATCH(H1, B2:B76, 0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="74" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4248,17 +4292,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4266,7 +4310,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4280,27 +4324,27 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4312,7 +4356,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4321,10 +4365,10 @@
       <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -4332,7 +4376,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -4350,7 +4394,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -4363,22 +4407,22 @@
       <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -4386,7 +4430,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -4404,17 +4448,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4422,43 +4466,43 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="66"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="67"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="13" t="s">
         <v>277</v>
       </c>
@@ -4473,13 +4517,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>296</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -4493,7 +4537,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="77"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="7" t="s">
         <v>335</v>
       </c>
@@ -4511,7 +4555,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="7" t="s">
         <v>366</v>
       </c>
@@ -4525,13 +4569,13 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D19" s="7"/>
@@ -4555,13 +4599,13 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -4570,16 +4614,16 @@
       <c r="E21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4593,14 +4637,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>208</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4611,27 +4655,27 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="81"/>
+      <c r="B24" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>292</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>293</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="7"/>
@@ -4639,7 +4683,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="79" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4659,7 +4703,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="7" t="s">
         <v>317</v>
       </c>
@@ -4677,7 +4721,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="7" t="s">
         <v>322</v>
       </c>
@@ -4695,7 +4739,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A29" s="67"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="7" t="s">
         <v>328</v>
       </c>
@@ -4721,34 +4765,34 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="79"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -4759,8 +4803,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -4769,130 +4813,130 @@
       <c r="D33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="74" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="69"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>119</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4903,17 +4947,17 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="69"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -4921,8 +4965,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4937,19 +4981,19 @@
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -4957,7 +5001,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="7" t="s">
         <v>182</v>
       </c>
@@ -4967,16 +5011,16 @@
       <c r="D44" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="67"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -4990,10 +5034,10 @@
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>209</v>
       </c>
       <c r="D46" s="7"/>
@@ -5021,8 +5065,12 @@
       <c r="B48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
     </row>
@@ -5036,10 +5084,10 @@
       <c r="C49" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>221</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -5047,16 +5095,16 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="64" t="s">
         <v>225</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -5067,692 +5115,709 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="89"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="96"/>
+      <c r="B51" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="48" t="s">
         <v>300</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="17" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="96"/>
+      <c r="B52" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A53" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="83"/>
-      <c r="B53" s="22" t="s">
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A54" s="78"/>
+      <c r="B54" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A54" s="65" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A55" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="66"/>
-      <c r="B55" s="17" t="s">
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="80"/>
+      <c r="B56" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="66"/>
-      <c r="B56" s="22" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A57" s="80"/>
+      <c r="B57" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="10" t="s">
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A58" s="80"/>
+      <c r="B58" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C58" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E58" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="66"/>
-      <c r="B58" s="10" t="s">
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="80"/>
+      <c r="B59" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E59" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="17" t="s">
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A60" s="80"/>
+      <c r="B60" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D60" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A60" s="67"/>
-      <c r="B60" s="14" t="s">
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A61" s="81"/>
+      <c r="B61" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D61" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E61" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F61" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="65" t="s">
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A62" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="28" t="s">
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A63" s="80"/>
+      <c r="B63" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F63" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A63" s="67"/>
-      <c r="B63" s="29" t="s">
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A64" s="81"/>
+      <c r="B64" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A64" s="84" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A65" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F65" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A65" s="84"/>
-      <c r="B65" s="39" t="s">
+    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A66" s="82"/>
+      <c r="B66" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F66" s="39" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A66" s="84"/>
-      <c r="B66" s="23" t="s">
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A67" s="82"/>
+      <c r="B67" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F66" s="35"/>
-    </row>
-    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="85" t="s">
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A68" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C68" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D68" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F68" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="86"/>
-      <c r="B68" s="38" t="s">
+    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A69" s="84"/>
+      <c r="B69" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C69" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E69" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F69" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A69" s="87"/>
-      <c r="B69" s="47" t="s">
+    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A70" s="85"/>
+      <c r="B70" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C70" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D70" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-    </row>
-    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A70" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
     </row>
     <row r="71" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A71" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>330</v>
+        <v>251</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>363</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A72" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A73" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B73" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A73" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A74" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C74" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="F74" s="7"/>
+      <c r="A74" s="88"/>
+      <c r="B74" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A75" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B75" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
+        <v>256</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="33"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A76" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A77" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+    </row>
+    <row r="78" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A78" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B78" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-    </row>
-    <row r="77" spans="1:6" ht="12" thickBot="1">
-      <c r="A77" s="5" t="s">
+      <c r="D78" s="7"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+    </row>
+    <row r="79" spans="1:6" ht="12" thickBot="1">
+      <c r="A79" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="12" thickBot="1">
-      <c r="A78" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B78" s="58" t="s">
-        <v>344</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="12" thickBot="1">
-      <c r="A79" s="61" t="s">
-        <v>347</v>
-      </c>
-      <c r="B79" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="12" thickBot="1">
       <c r="A80" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B80" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>364</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="12" thickBot="1">
-      <c r="A81" s="58" t="s">
+      <c r="A81" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="1:6" ht="12" thickBot="1">
+      <c r="A82" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B82" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" ht="12" thickBot="1">
+      <c r="A83" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B83" s="56" t="s">
         <v>356</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C83" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="D83" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="E81" s="58" t="s">
+      <c r="E83" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F81" s="58" t="s">
+      <c r="F83" s="56" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A82" s="81" t="s">
+    <row r="84" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A84" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B84" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D84" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E84" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F82" s="32" t="s">
+      <c r="F84" s="31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="11.25">
-      <c r="A83" s="81"/>
-      <c r="B83" s="27" t="s">
+    <row r="85" spans="1:6" ht="11.25">
+      <c r="A85" s="73"/>
+      <c r="B85" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C85" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D85" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E85" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:6" ht="11.25">
-      <c r="A84" s="92" t="s">
+      <c r="F85" s="63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="11.25">
+      <c r="A86" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B86" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C84" s="53" t="s">
+      <c r="C86" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="D84" s="53" t="s">
+      <c r="D86" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="59" t="s">
+      <c r="E86" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="F84" s="60" t="s">
+      <c r="F86" s="58" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="11.25">
-      <c r="A85" s="94"/>
-      <c r="B85" s="51" t="s">
+    <row r="87" spans="1:6" ht="11.25">
+      <c r="A87" s="69"/>
+      <c r="B87" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C87" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D87" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="E85" s="59" t="s">
+      <c r="E87" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F87" s="58" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A86" s="27" t="s">
+    <row r="88" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A88" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B88" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-    </row>
-    <row r="87" spans="1:6" ht="11.25">
-      <c r="A87" s="92" t="s">
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="1:6" ht="11.25">
+      <c r="A89" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B89" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="C87" s="91"/>
-    </row>
-    <row r="88" spans="1:6" ht="11.25">
-      <c r="A88" s="93"/>
-      <c r="B88" s="90" t="s">
+      <c r="C89" s="66"/>
+    </row>
+    <row r="90" spans="1:6" ht="11.25">
+      <c r="A90" s="68"/>
+      <c r="B90" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="91"/>
-    </row>
-    <row r="89" spans="1:6" ht="11.25">
-      <c r="A89" s="93"/>
-      <c r="B89" s="90" t="s">
+      <c r="C90" s="66"/>
+    </row>
+    <row r="91" spans="1:6" ht="11.25">
+      <c r="A91" s="68"/>
+      <c r="B91" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="C89" s="91"/>
-    </row>
-    <row r="90" spans="1:6" ht="11.25">
-      <c r="A90" s="93"/>
-      <c r="B90" s="90" t="s">
+      <c r="C91" s="66"/>
+    </row>
+    <row r="92" spans="1:6" ht="11.25">
+      <c r="A92" s="68"/>
+      <c r="B92" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="91"/>
-    </row>
-    <row r="91" spans="1:6" ht="11.25">
-      <c r="A91" s="93"/>
-      <c r="B91" s="90" t="s">
+      <c r="C92" s="66"/>
+    </row>
+    <row r="93" spans="1:6" ht="11.25">
+      <c r="A93" s="68"/>
+      <c r="B93" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="C91" s="91"/>
-    </row>
-    <row r="92" spans="1:6" ht="11.25">
-      <c r="A92" s="93"/>
-      <c r="B92" s="90" t="s">
+      <c r="C93" s="66"/>
+    </row>
+    <row r="94" spans="1:6" ht="11.25">
+      <c r="A94" s="68"/>
+      <c r="B94" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="C92" s="91"/>
-    </row>
-    <row r="93" spans="1:6" ht="11.25">
-      <c r="A93" s="94"/>
-      <c r="B93" s="90" t="s">
+      <c r="C94" s="66"/>
+    </row>
+    <row r="95" spans="1:6" ht="11.25">
+      <c r="A95" s="69"/>
+      <c r="B95" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C93" s="91"/>
-    </row>
-    <row r="94" spans="1:6" ht="11.25">
-      <c r="A94" s="48" t="s">
+      <c r="C95" s="66"/>
+    </row>
+    <row r="96" spans="1:6" ht="11.25">
+      <c r="A96" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="64" t="s">
+      <c r="B96" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="63" t="s">
+      <c r="C96" s="61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="11.25">
-      <c r="A95" s="64" t="s">
+    <row r="97" spans="1:2" ht="11.25">
+      <c r="A97" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B95" s="64" t="s">
+      <c r="B97" s="62" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="26">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A50:A51"/>
+  <mergeCells count="27">
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B1:F1"/>
@@ -5760,13 +5825,33 @@
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>$B$2:$B$74</formula1>
+      <formula1>$B$2:$B$76</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>$C$2:$C$74</formula1>
+      <formula1>$C$2:$C$76</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>normal baseline that used to accupcy working memory</t>
+          <t>increasing oxy demand for more affiencive glycogenisis lead tiered chest muscle</t>
         </r>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>happened when withdrawing from anti histamine</t>
+          <t>normal baseline that used to accupcy working memory</t>
         </r>
         <r>
           <rPr>
@@ -371,21 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>trying to find something increase compliance, a feeling certical for goal directed behaviors.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +381,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>room was spatial , this sendboxing technique don't alert plasticity wholesome of it not gived good results</t>
+          <t>happened when withdrawing from anti histamine</t>
         </r>
         <r>
           <rPr>
@@ -409,7 +395,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0">
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>trying to find something increase compliance, a feeling certical for goal directed behaviors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>https://you.com/search?q=%22The+reward+system+in+the+brain+consists+of+a+collection+of+brain+structures+and+neural+pathways.+It+plays+a+crucial+role+in+various+behaviors%2C+including+appetitive+behavior%2C+approach+behavior%2C+preparatory+behavior%2C+instrumental+behavior%2C+anticipatory+behavior%2C+seeking%2C+consummatory+behavior%2C+and+taking+behavior+%22+what+the+central+controler+of+reinforcement+learning%2C+and+preparatory+behavior+&amp;cid=c1_5e04d85d-04cf-475a-9d4b-6e3cd19cdcdf&amp;tbm=youchat</t>
+          <t>room was spatial , this sendboxing technique don't alert plasticity wholesome of it not gived good results</t>
         </r>
         <r>
           <rPr>
@@ -433,7 +433,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="C25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://you.com/search?q=%22The+reward+system+in+the+brain+consists+of+a+collection+of+brain+structures+and+neural+pathways.+It+plays+a+crucial+role+in+various+behaviors%2C+including+appetitive+behavior%2C+approach+behavior%2C+preparatory+behavior%2C+instrumental+behavior%2C+anticipatory+behavior%2C+seeking%2C+consummatory+behavior%2C+and+taking+behavior+%22+what+the+central+controler+of+reinforcement+learning%2C+and+preparatory+behavior+&amp;cid=c1_5e04d85d-04cf-475a-9d4b-6e3cd19cdcdf&amp;tbm=youchat</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0">
+    <comment ref="F33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
+    <comment ref="D34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0">
+    <comment ref="E34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0">
+    <comment ref="D35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0">
+    <comment ref="E36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0">
+    <comment ref="E38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0">
+    <comment ref="B39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -665,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0">
+    <comment ref="C43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0">
+    <comment ref="A49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0">
+    <comment ref="E50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -824,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0">
+    <comment ref="B52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -848,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0">
+    <comment ref="D52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -896,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0">
+    <comment ref="B55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0">
+    <comment ref="D56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0">
+    <comment ref="C58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="0">
+    <comment ref="F60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0">
+    <comment ref="C62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="0">
+    <comment ref="E62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0">
+    <comment ref="C63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0">
+    <comment ref="C67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1144,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1166,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0">
+    <comment ref="D68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0">
+    <comment ref="E69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0">
+    <comment ref="D70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D76" authorId="0">
+    <comment ref="D77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E76" authorId="0">
+    <comment ref="E77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="0">
+    <comment ref="B80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A84" authorId="0">
+    <comment ref="A85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1338,7 +1362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="0">
+    <comment ref="F85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1362,7 +1386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E85" authorId="0">
+    <comment ref="E86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1388,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="0">
+    <comment ref="B87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1412,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0">
+    <comment ref="D87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="0">
+    <comment ref="B88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C87" authorId="0">
+    <comment ref="C88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1474,7 +1498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="0">
+    <comment ref="D88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1498,7 +1522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="0">
+    <comment ref="F88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1522,7 +1546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="0">
+    <comment ref="B89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B92" authorId="0">
+    <comment ref="B93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0">
+    <comment ref="B94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="386">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2739,6 +2763,9 @@
   </si>
   <si>
     <t>problems detecting impossibility.then impossibility overconsolidation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>oxygene excrbation (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -3534,7 +3561,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -3782,39 +3809,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3830,24 +3833,54 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3861,48 +3894,54 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -4226,10 +4265,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4253,13 +4292,13 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4267,12 +4306,12 @@
         <v>48</v>
       </c>
       <c r="J1" s="1">
-        <f>MATCH(H1, B2:B76, 0)</f>
+        <f>MATCH(H1, B2:B77, 0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4292,7 +4331,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="75"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="39" t="s">
         <v>33</v>
       </c>
@@ -4310,7 +4349,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4324,7 +4363,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="74" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4344,7 +4383,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="93"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4356,7 +4395,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="97" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4376,7 +4415,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="80"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -4394,7 +4433,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="80"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -4412,7 +4451,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="80"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
@@ -4430,7 +4469,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="80"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -4448,7 +4487,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="80"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
@@ -4466,7 +4505,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="80"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="17" t="s">
         <v>177</v>
       </c>
@@ -4484,7 +4523,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="80"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -4501,8 +4540,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A15" s="81"/>
+    <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="98"/>
       <c r="B15" s="13" t="s">
         <v>277</v>
       </c>
@@ -4517,542 +4556,538 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A17" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B17" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="95"/>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A19" s="77"/>
+      <c r="B19" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="79" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A22" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B22" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C22" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="17" t="s">
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="16" t="s">
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D24" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="22" t="s">
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A25" s="67"/>
+      <c r="B25" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C25" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A25" s="6" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A26" s="79" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A27" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="7" t="s">
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="7" t="s">
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A30" s="67"/>
+      <c r="B30" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A31" s="70" t="s">
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A32" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B32" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A33" s="79"/>
+      <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D33" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="71"/>
-      <c r="B33" s="17" t="s">
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A34" s="79"/>
+      <c r="B34" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="22" t="s">
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A35" s="79"/>
+      <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E35" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F35" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="17" t="s">
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A36" s="79"/>
+      <c r="B36" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="16" t="s">
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A37" s="79"/>
+      <c r="B37" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E37" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F37" s="22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="22" t="s">
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A38" s="80"/>
+      <c r="B38" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C38" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D38" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E38" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A38" s="74" t="s">
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A39" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E39" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="75"/>
-      <c r="B39" s="12" t="s">
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F40" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="17" t="s">
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A41" s="69"/>
+      <c r="B41" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F41" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="17" t="s">
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D42" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E42" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A42" s="76"/>
-      <c r="B42" s="17" t="s">
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A43" s="70"/>
+      <c r="B43" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="79" t="s">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A44" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B44" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D44" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E44" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="7" t="s">
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="66"/>
+      <c r="B45" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E45" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F45" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="81"/>
-      <c r="B45" s="17" t="s">
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A46" s="67"/>
+      <c r="B46" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>139</v>
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -5060,549 +5095,551 @@
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>376</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D50" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E50" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A50" s="86" t="s">
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A51" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B51" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D51" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="96"/>
-      <c r="B51" s="22" t="s">
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A52" s="91"/>
+      <c r="B52" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C52" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D52" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="96"/>
-      <c r="B52" s="64" t="s">
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A53" s="91"/>
+      <c r="B53" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="77" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A54" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F54" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="78"/>
-      <c r="B54" s="21" t="s">
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A55" s="83"/>
+      <c r="B55" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A55" s="79" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A56" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B56" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F56" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="80"/>
-      <c r="B56" s="16" t="s">
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D57" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="80"/>
-      <c r="B57" s="21" t="s">
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="80"/>
-      <c r="B58" s="10" t="s">
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C59" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D59" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E59" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F59" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="80"/>
-      <c r="B59" s="10" t="s">
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D60" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E60" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="80"/>
-      <c r="B60" s="16" t="s">
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E61" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A61" s="81"/>
-      <c r="B61" s="14" t="s">
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A62" s="67"/>
+      <c r="B62" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D62" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E62" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F62" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A62" s="79" t="s">
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A63" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B63" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="80"/>
-      <c r="B63" s="27" t="s">
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A64" s="66"/>
+      <c r="B64" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F64" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A64" s="81"/>
-      <c r="B64" s="28" t="s">
+    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A65" s="67"/>
+      <c r="B65" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A65" s="82" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A66" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F66" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A66" s="82"/>
-      <c r="B66" s="38" t="s">
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A67" s="84"/>
+      <c r="B67" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C67" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D67" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F66" s="39" t="s">
+      <c r="F67" s="39" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A67" s="82"/>
-      <c r="B67" s="22" t="s">
+    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A68" s="84"/>
+      <c r="B68" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D68" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F67" s="34"/>
-    </row>
-    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A68" s="83" t="s">
+      <c r="F68" s="34"/>
+    </row>
+    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A69" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C69" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D69" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E69" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F68" s="39" t="s">
+      <c r="F69" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A69" s="84"/>
-      <c r="B69" s="37" t="s">
+    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A70" s="86"/>
+      <c r="B70" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C70" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D70" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F70" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A70" s="85"/>
-      <c r="B70" s="46" t="s">
+    <row r="71" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A71" s="87"/>
+      <c r="B71" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C71" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D71" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-    </row>
-    <row r="71" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A71" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
     </row>
     <row r="72" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A72" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A73" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B73" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C73" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A73" s="87" t="s">
+    <row r="74" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A74" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B74" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D74" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A74" s="88"/>
-      <c r="B74" s="7" t="s">
+    <row r="75" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A75" s="89"/>
+      <c r="B75" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A75" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A76" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="E76" s="60" t="s">
-        <v>234</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="33"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A77" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
+        <v>275</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A78" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+    </row>
+    <row r="79" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A79" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B79" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-    </row>
-    <row r="79" spans="1:6" ht="12" thickBot="1">
-      <c r="A79" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
     </row>
     <row r="80" spans="1:6" ht="12" thickBot="1">
       <c r="A80" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B80" s="56" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -5610,248 +5647,260 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="12" thickBot="1">
-      <c r="A81" s="59" t="s">
+      <c r="A81" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" ht="12" thickBot="1">
+      <c r="A82" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B82" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-    </row>
-    <row r="82" spans="1:6" ht="12" thickBot="1">
-      <c r="A82" s="5" t="s">
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+    </row>
+    <row r="83" spans="1:6" ht="12" thickBot="1">
+      <c r="A83" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B83" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="56" t="s">
+      <c r="C83" s="56" t="s">
         <v>354</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D83" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" ht="12" thickBot="1">
-      <c r="A83" s="56" t="s">
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="12" thickBot="1">
+      <c r="A84" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B84" s="56" t="s">
         <v>356</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C84" s="56" t="s">
         <v>357</v>
       </c>
-      <c r="D83" s="56" t="s">
+      <c r="D84" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="E83" s="56" t="s">
+      <c r="E84" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="F83" s="56" t="s">
+      <c r="F84" s="56" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A84" s="73" t="s">
+    <row r="85" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A85" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B85" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D85" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E85" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F85" s="31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="11.25">
-      <c r="A85" s="73"/>
-      <c r="B85" s="26" t="s">
+    <row r="86" spans="1:6" ht="11.25">
+      <c r="A86" s="81"/>
+      <c r="B86" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C86" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D86" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="E86" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="F85" s="63" t="s">
+      <c r="F86" s="63" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="11.25">
-      <c r="A86" s="67" t="s">
+    <row r="87" spans="1:6" ht="11.25">
+      <c r="A87" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B87" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C87" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="D86" s="51" t="s">
+      <c r="D87" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="E86" s="57" t="s">
+      <c r="E87" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="F86" s="58" t="s">
+      <c r="F87" s="58" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="11.25">
-      <c r="A87" s="69"/>
-      <c r="B87" s="49" t="s">
+    <row r="88" spans="1:6" ht="11.25">
+      <c r="A88" s="96"/>
+      <c r="B88" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C88" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="D87" s="51" t="s">
+      <c r="D88" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="E87" s="57" t="s">
+      <c r="E88" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="F87" s="58" t="s">
+      <c r="F88" s="58" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A88" s="26" t="s">
+    <row r="89" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A89" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B89" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-    </row>
-    <row r="89" spans="1:6" ht="11.25">
-      <c r="A89" s="67" t="s">
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+    </row>
+    <row r="90" spans="1:6" ht="11.25">
+      <c r="A90" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="B89" s="65" t="s">
+      <c r="B90" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="66"/>
-    </row>
-    <row r="90" spans="1:6" ht="11.25">
-      <c r="A90" s="68"/>
-      <c r="B90" s="65" t="s">
+      <c r="C90" s="93"/>
+    </row>
+    <row r="91" spans="1:6" ht="11.25">
+      <c r="A91" s="95"/>
+      <c r="B91" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="66"/>
-    </row>
-    <row r="91" spans="1:6" ht="11.25">
-      <c r="A91" s="68"/>
-      <c r="B91" s="65" t="s">
+      <c r="C91" s="93"/>
+    </row>
+    <row r="92" spans="1:6" ht="11.25">
+      <c r="A92" s="95"/>
+      <c r="B92" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="C91" s="66"/>
-    </row>
-    <row r="92" spans="1:6" ht="11.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="65" t="s">
+      <c r="C92" s="93"/>
+    </row>
+    <row r="93" spans="1:6" ht="11.25">
+      <c r="A93" s="95"/>
+      <c r="B93" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="66"/>
-    </row>
-    <row r="93" spans="1:6" ht="11.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="65" t="s">
+      <c r="C93" s="93"/>
+    </row>
+    <row r="94" spans="1:6" ht="11.25">
+      <c r="A94" s="95"/>
+      <c r="B94" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C93" s="66"/>
-    </row>
-    <row r="94" spans="1:6" ht="11.25">
-      <c r="A94" s="68"/>
-      <c r="B94" s="65" t="s">
+      <c r="C94" s="93"/>
+    </row>
+    <row r="95" spans="1:6" ht="11.25">
+      <c r="A95" s="95"/>
+      <c r="B95" s="92" t="s">
         <v>282</v>
       </c>
-      <c r="C94" s="66"/>
-    </row>
-    <row r="95" spans="1:6" ht="11.25">
-      <c r="A95" s="69"/>
-      <c r="B95" s="65" t="s">
+      <c r="C95" s="93"/>
+    </row>
+    <row r="96" spans="1:6" ht="11.25">
+      <c r="A96" s="96"/>
+      <c r="B96" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="C95" s="66"/>
-    </row>
-    <row r="96" spans="1:6" ht="11.25">
-      <c r="A96" s="47" t="s">
+      <c r="C96" s="93"/>
+    </row>
+    <row r="97" spans="1:3" ht="11.25">
+      <c r="A97" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B97" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="C96" s="61" t="s">
+      <c r="C97" s="61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="11.25">
-      <c r="A97" s="62" t="s">
+    <row r="98" spans="1:3" ht="11.25">
+      <c r="A98" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B97" s="62" t="s">
+      <c r="B98" s="62" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="A87:A88"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A7:A16"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>$B$2:$B$76</formula1>
+      <formula1>$B$2:$B$77</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>$C$2:$C$76</formula1>
+      <formula1>$C$2:$C$77</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -1333,6 +1333,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>what should logical person do</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A85" authorId="0">
       <text>
         <r>
@@ -1607,7 +1631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="388">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -2766,6 +2790,12 @@
   </si>
   <si>
     <t>oxygene excrbation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>d2.preception (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>PFC (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -3859,6 +3889,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3928,18 +3970,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4267,8 +4297,8 @@
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4395,7 +4425,7 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="78" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4415,7 +4445,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="98"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
@@ -4433,7 +4463,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="98"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -4451,7 +4481,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="98"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
@@ -4469,7 +4499,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -4487,7 +4517,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="98"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
@@ -4505,7 +4535,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="98"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="17" t="s">
         <v>177</v>
       </c>
@@ -4523,7 +4553,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="98"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
@@ -4541,7 +4571,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="98"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="13" t="s">
         <v>277</v>
       </c>
@@ -4556,7 +4586,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="99"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="2" t="s">
         <v>385</v>
       </c>
@@ -4814,7 +4844,7 @@
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="81" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -4834,7 +4864,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
@@ -4852,7 +4882,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="79"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="17" t="s">
         <v>99</v>
       </c>
@@ -4870,7 +4900,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="79"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
@@ -4888,7 +4918,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="79"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="17" t="s">
         <v>108</v>
       </c>
@@ -4906,7 +4936,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A37" s="79"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="16" t="s">
         <v>188</v>
       </c>
@@ -4924,7 +4954,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="80"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="22" t="s">
         <v>85</v>
       </c>
@@ -5120,7 +5150,9 @@
       <c r="D49" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
@@ -5144,7 +5176,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="93" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -5164,7 +5196,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="91"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="22" t="s">
         <v>299</v>
       </c>
@@ -5182,7 +5214,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="91"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="64" t="s">
         <v>384</v>
       </c>
@@ -5192,7 +5224,7 @@
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="85" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -5212,7 +5244,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="83"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="21" t="s">
         <v>191</v>
       </c>
@@ -5398,7 +5430,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="87" t="s">
         <v>27</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -5418,7 +5450,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="84"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="38" t="s">
         <v>174</v>
       </c>
@@ -5436,7 +5468,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A68" s="84"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="22" t="s">
         <v>263</v>
       </c>
@@ -5449,7 +5481,7 @@
       <c r="F68" s="34"/>
     </row>
     <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A69" s="85" t="s">
+      <c r="A69" s="88" t="s">
         <v>215</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5469,7 +5501,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A70" s="86"/>
+      <c r="A70" s="89"/>
       <c r="B70" s="37" t="s">
         <v>268</v>
       </c>
@@ -5487,7 +5519,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A71" s="87"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="46" t="s">
         <v>273</v>
       </c>
@@ -5537,7 +5569,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A74" s="88" t="s">
+      <c r="A74" s="91" t="s">
         <v>339</v>
       </c>
       <c r="B74" s="21" t="s">
@@ -5557,7 +5589,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A75" s="89"/>
+      <c r="A75" s="92"/>
       <c r="B75" s="7" t="s">
         <v>379</v>
       </c>
@@ -5683,7 +5715,9 @@
       <c r="D83" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="56" t="s">
+        <v>386</v>
+      </c>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" ht="12" thickBot="1">
@@ -5707,7 +5741,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A85" s="81" t="s">
+      <c r="A85" s="84" t="s">
         <v>26</v>
       </c>
       <c r="B85" s="44" t="s">
@@ -5727,7 +5761,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="11.25">
-      <c r="A86" s="81"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="26" t="s">
         <v>183</v>
       </c>
@@ -5745,7 +5779,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="11.25">
-      <c r="A87" s="94" t="s">
+      <c r="A87" s="97" t="s">
         <v>228</v>
       </c>
       <c r="B87" s="20" t="s">
@@ -5765,7 +5799,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="11.25">
-      <c r="A88" s="96"/>
+      <c r="A88" s="99"/>
       <c r="B88" s="49" t="s">
         <v>307</v>
       </c>
@@ -5795,55 +5829,55 @@
       <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6" ht="11.25">
-      <c r="A90" s="94" t="s">
+      <c r="A90" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="C90" s="93"/>
+      <c r="C90" s="96"/>
     </row>
     <row r="91" spans="1:6" ht="11.25">
-      <c r="A91" s="95"/>
-      <c r="B91" s="92" t="s">
+      <c r="A91" s="98"/>
+      <c r="B91" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="C91" s="93"/>
+      <c r="C91" s="96"/>
     </row>
     <row r="92" spans="1:6" ht="11.25">
-      <c r="A92" s="95"/>
-      <c r="B92" s="92" t="s">
+      <c r="A92" s="98"/>
+      <c r="B92" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="93"/>
+      <c r="C92" s="96"/>
     </row>
     <row r="93" spans="1:6" ht="11.25">
-      <c r="A93" s="95"/>
-      <c r="B93" s="92" t="s">
+      <c r="A93" s="98"/>
+      <c r="B93" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="93"/>
+      <c r="C93" s="96"/>
     </row>
     <row r="94" spans="1:6" ht="11.25">
-      <c r="A94" s="95"/>
-      <c r="B94" s="92" t="s">
+      <c r="A94" s="98"/>
+      <c r="B94" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="C94" s="93"/>
+      <c r="C94" s="96"/>
     </row>
     <row r="95" spans="1:6" ht="11.25">
-      <c r="A95" s="95"/>
-      <c r="B95" s="92" t="s">
+      <c r="A95" s="98"/>
+      <c r="B95" s="95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="93"/>
+      <c r="C95" s="96"/>
     </row>
     <row r="96" spans="1:6" ht="11.25">
-      <c r="A96" s="96"/>
-      <c r="B96" s="92" t="s">
+      <c r="A96" s="99"/>
+      <c r="B96" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="93"/>
+      <c r="C96" s="96"/>
     </row>
     <row r="97" spans="1:3" ht="11.25">
       <c r="A97" s="47" t="s">

--- a/res/consepted.xlsx
+++ b/res/consepted.xlsx
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0">
+    <comment ref="D35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0">
+    <comment ref="D36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0">
+    <comment ref="E37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0">
+    <comment ref="E39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -689,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -714,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0">
+    <comment ref="C43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0">
+    <comment ref="C44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0">
+    <comment ref="B46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0">
+    <comment ref="A51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -824,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -848,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -896,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0">
+    <comment ref="D54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -920,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="E54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0">
+    <comment ref="B56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0">
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -981,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0">
+    <comment ref="D58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0">
+    <comment ref="C59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0">
+    <comment ref="C60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="0">
+    <comment ref="F62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0">
+    <comment ref="C64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0">
+    <comment ref="E64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0">
+    <comment ref="C65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1144,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0">
+    <comment ref="C69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0">
+    <comment ref="D70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E69" authorId="0">
+    <comment ref="E71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="0">
+    <comment ref="D72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1258,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D77" authorId="0">
+    <comment ref="D80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E77" authorId="0">
+    <comment ref="E80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="0">
+    <comment ref="B83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E83" authorId="0">
+    <comment ref="E86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1357,7 +1357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A85" authorId="0">
+    <comment ref="A88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1372,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="0">
+    <comment ref="B88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1386,7 +1386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F85" authorId="0">
+    <comment ref="F88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1410,7 +1410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0">
+    <comment ref="E89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="0">
+    <comment ref="B91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="0">
+    <comment ref="D91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1484,7 +1484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="0">
+    <comment ref="B92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1498,7 +1498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="0">
+    <comment ref="C92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1522,7 +1522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0">
+    <comment ref="D92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1546,7 +1546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="0">
+    <comment ref="F92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B89" authorId="0">
+    <comment ref="B94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0">
+    <comment ref="B98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1602,7 +1602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B94" authorId="0">
+    <comment ref="B99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="408">
   <si>
     <t>linking (intial ↓, LT↓);</t>
   </si>
@@ -1751,9 +1751,6 @@
   </si>
   <si>
     <t xml:space="preserve">hygiene (intial ↑, LT↑); </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>sleep (intial ↑, LT↑);</t>
@@ -2796,6 +2793,69 @@
   </si>
   <si>
     <t>PFC (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>enargy supply.chain (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>delay.reconsolidation (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>money.number (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>huminity logic (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>behavioral (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>stabborn (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>check (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>visual processing  (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>amugdala.avrsion.consept cycling (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>Modular Design  (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>discipiline (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>unlimitism (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>objectivim.compare (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>change speed (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>wait (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>lembic (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t>reactive memory (intial ↓, LT↓);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain_text.memory (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressed.emotion (intial ↑, LT↑); </t>
+  </si>
+  <si>
+    <t>privacy (intial ↑, LT↑);</t>
+  </si>
+  <si>
+    <t>conseptual thinking.optamize (intial ↑, LT↑);</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3098,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -3522,6 +3582,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3591,7 +3664,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -3665,10 +3738,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3791,18 +3860,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3839,6 +3896,52 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="41" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3850,6 +3953,52 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3863,43 +4012,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3913,63 +4030,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="39" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4295,10 +4356,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4322,26 +4383,26 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1">
-        <f>MATCH(H1, B2:B77, 0)</f>
+        <f>MATCH(H1, B2:B80, 0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4361,14 +4422,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="89"/>
+      <c r="B3" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -4379,7 +4440,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="70"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4387,208 +4448,208 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>387</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="71" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="22" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="76" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="77"/>
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="77"/>
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>185</v>
+      <c r="D13" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F13" s="22" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A14" s="77"/>
+      <c r="B14" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="15" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="79"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A16" s="80"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4596,1345 +4657,1427 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="76" t="s">
-        <v>286</v>
+      <c r="A17" s="79" t="s">
+        <v>285</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="F18" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A19" s="80"/>
+      <c r="B19" s="7" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A20" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>289</v>
-      </c>
+      <c r="A20" s="80"/>
+      <c r="B20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A23" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="43" t="s">
+      <c r="C23" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="D23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F23" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="17" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A24" s="74"/>
+      <c r="B24" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="10" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="16" t="s">
+      <c r="C25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="D25" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A26" s="75"/>
+      <c r="B26" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A26" s="6" t="s">
+      <c r="E26" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A27" s="65" t="s">
+      <c r="C27" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A28" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F28" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="F27" s="11" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="7" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F29" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F28" s="11" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A30" s="74"/>
+      <c r="B30" s="7" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F30" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F29" s="11" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A31" s="75"/>
+      <c r="B31" s="7" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A32" s="81" t="s">
+    <row r="32" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A33" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B33" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="E33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F33" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="17" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A34" s="94"/>
+      <c r="B34" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="D34" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="E34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F34" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="10" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A35" s="94"/>
+      <c r="B35" s="17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="17" t="s">
+      <c r="C35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E35" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="16" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A36" s="94"/>
+      <c r="B36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D36" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="17" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A37" s="94"/>
+      <c r="B37" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="F37" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A38" s="94"/>
+      <c r="B38" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A39" s="95"/>
+      <c r="B39" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A40" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A38" s="83"/>
-      <c r="B38" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="C40" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E40" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="F40" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="17" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A41" s="89"/>
+      <c r="B41" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="12" t="s">
+      <c r="C41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D41" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="E41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F41" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="17" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A42" s="89"/>
+      <c r="B42" s="17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="69"/>
-      <c r="B41" s="17" t="s">
+      <c r="C42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D42" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="E42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F42" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="10" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A43" s="89"/>
+      <c r="B43" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="D43" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="E43" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="F43" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="10" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A44" s="90"/>
+      <c r="B44" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A43" s="70"/>
-      <c r="B43" s="17" t="s">
+      <c r="C44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A45" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A46" s="74"/>
+      <c r="B46" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A44" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="66"/>
-      <c r="B45" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" s="17" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A47" s="74"/>
+      <c r="B47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="9"/>
+      <c r="D47" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A48" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A48" s="75"/>
       <c r="B48" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>387</v>
-      </c>
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B52" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D52" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A53" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="17" t="s">
+      <c r="C53" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A55" s="87"/>
+      <c r="B55" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A56" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A57" s="92"/>
+      <c r="B57" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A58" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A59" s="74"/>
+      <c r="B59" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A60" s="74"/>
+      <c r="B60" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A61" s="74"/>
+      <c r="B61" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A62" s="74"/>
+      <c r="B62" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A63" s="74"/>
+      <c r="B63" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A64" s="75"/>
+      <c r="B64" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A65" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A66" s="74"/>
+      <c r="B66" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A67" s="75"/>
+      <c r="B67" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A68" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A69" s="96"/>
+      <c r="B69" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F69" s="38" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A51" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A54" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A55" s="86"/>
-      <c r="B55" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A56" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A58" s="66"/>
-      <c r="B58" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A62" s="67"/>
-      <c r="B62" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A63" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A64" s="66"/>
-      <c r="B64" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A65" s="67"/>
-      <c r="B65" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A66" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A67" s="87"/>
-      <c r="B67" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A68" s="87"/>
-      <c r="B68" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="F68" s="34"/>
-    </row>
-    <row r="69" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A69" s="88" t="s">
+    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A70" s="96"/>
+      <c r="B70" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F70" s="61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A71" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C71" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="D71" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="E71" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A70" s="89"/>
-      <c r="B70" s="37" t="s">
+      <c r="F71" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A72" s="82"/>
+      <c r="B72" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="D72" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="E72" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="F72" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="F70" s="21" t="s">
+    </row>
+    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A73" s="83"/>
+      <c r="B73" s="44" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A71" s="90"/>
-      <c r="B71" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="C71" s="39" t="s">
+      <c r="C73" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+    </row>
+    <row r="74" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A74" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-    </row>
-    <row r="72" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A72" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A73" s="5" t="s">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A75" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B73" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="C73" s="22" t="s">
+      <c r="C75" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A74" s="91" t="s">
+      <c r="E75" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A76" s="85"/>
+      <c r="B76" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A77" s="84" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="C77" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F74" s="7" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A78" s="85"/>
+      <c r="B78" s="7" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A75" s="92"/>
-      <c r="B75" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="E78" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A76" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A77" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="E77" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A78" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B78" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E78" s="52"/>
-      <c r="F78" s="52"/>
     </row>
     <row r="79" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A79" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="32"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A80" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A81" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+    </row>
+    <row r="82" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A82" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="C82" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-    </row>
-    <row r="80" spans="1:6" ht="12" thickBot="1">
-      <c r="A80" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" ht="12" thickBot="1">
-      <c r="A81" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B81" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="12" thickBot="1">
-      <c r="A82" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="B82" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
     </row>
     <row r="83" spans="1:6" ht="12" thickBot="1">
       <c r="A83" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="12" thickBot="1">
+      <c r="A84" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" ht="12" thickBot="1">
+      <c r="A85" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" thickBot="1">
+      <c r="A86" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B86" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="C86" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="D86" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" ht="12" thickBot="1">
+      <c r="A87" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="D83" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="E83" s="56" t="s">
-        <v>386</v>
-      </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" ht="12" thickBot="1">
-      <c r="A84" s="56" t="s">
+      <c r="B87" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="C87" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="D87" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="E87" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="F87" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="F84" s="56" t="s">
+    </row>
+    <row r="88" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A88" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="11.25">
+      <c r="A89" s="63"/>
+      <c r="B89" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" s="59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="11.25">
+      <c r="A90" s="64"/>
+      <c r="B90" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="E90" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="F90" s="61"/>
+    </row>
+    <row r="91" spans="1:6" ht="11.25">
+      <c r="A91" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="D91" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="E91" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="11.25">
+      <c r="A92" s="63"/>
+      <c r="B92" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E92" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="F92" s="54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="11.25">
+      <c r="A93" s="64"/>
+      <c r="B93" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+    </row>
+    <row r="94" spans="1:6" ht="9.9499999999999993" customHeight="1">
+      <c r="A94" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="1:6" ht="11.25">
+      <c r="A95" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" s="66"/>
+    </row>
+    <row r="96" spans="1:6" ht="11.25">
+      <c r="A96" s="63"/>
+      <c r="B96" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" s="66"/>
+    </row>
+    <row r="97" spans="1:3" ht="11.25">
+      <c r="A97" s="63"/>
+      <c r="B97" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C97" s="66"/>
+    </row>
+    <row r="98" spans="1:3" ht="11.25">
+      <c r="A98" s="63"/>
+      <c r="B98" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" s="66"/>
+    </row>
+    <row r="99" spans="1:3" ht="11.25">
+      <c r="A99" s="63"/>
+      <c r="B99" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="66"/>
+    </row>
+    <row r="100" spans="1:3" ht="11.25">
+      <c r="A100" s="63"/>
+      <c r="B100" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" s="66"/>
+    </row>
+    <row r="101" spans="1:3" ht="11.25">
+      <c r="A101" s="64"/>
+      <c r="B101" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" s="66"/>
+    </row>
+    <row r="102" spans="1:3" ht="11.25">
+      <c r="A102" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A85" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="11.25">
-      <c r="A86" s="84"/>
-      <c r="B86" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F86" s="63" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="11.25">
-      <c r="A87" s="97" t="s">
-        <v>228</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="E87" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="F87" s="58" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="11.25">
-      <c r="A88" s="99"/>
-      <c r="B88" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="E88" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="F88" s="58" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A89" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B89" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-    </row>
-    <row r="90" spans="1:6" ht="11.25">
-      <c r="A90" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="B90" s="95" t="s">
-        <v>261</v>
-      </c>
-      <c r="C90" s="96"/>
-    </row>
-    <row r="91" spans="1:6" ht="11.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="C91" s="96"/>
-    </row>
-    <row r="92" spans="1:6" ht="11.25">
-      <c r="A92" s="98"/>
-      <c r="B92" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="C92" s="96"/>
-    </row>
-    <row r="93" spans="1:6" ht="11.25">
-      <c r="A93" s="98"/>
-      <c r="B93" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="96"/>
-    </row>
-    <row r="94" spans="1:6" ht="11.25">
-      <c r="A94" s="98"/>
-      <c r="B94" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" s="96"/>
-    </row>
-    <row r="95" spans="1:6" ht="11.25">
-      <c r="A95" s="98"/>
-      <c r="B95" s="95" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" s="96"/>
-    </row>
-    <row r="96" spans="1:6" ht="11.25">
-      <c r="A96" s="99"/>
-      <c r="B96" s="95" t="s">
-        <v>311</v>
-      </c>
-      <c r="C96" s="96"/>
-    </row>
-    <row r="97" spans="1:3" ht="11.25">
-      <c r="A97" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B97" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="C97" s="61" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="11.25">
-      <c r="A98" s="62" t="s">
+    <row r="103" spans="1:3" ht="11.25">
+      <c r="A103" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" s="58" t="s">
         <v>369</v>
-      </c>
-      <c r="B98" s="62" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="27">
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A90:A96"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A27:A30"/>
+  <mergeCells count="28">
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="A91:A93"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
-      <formula1>$B$2:$B$77</formula1>
+      <formula1>$B$2:$B$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>$C$2:$C$77</formula1>
+      <formula1>$C$2:$C$80</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
